--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichenzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799F844-5A7C-B441-82EB-C7A287E28F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive_captions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="597">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -1707,31 +1708,192 @@
   </si>
   <si>
     <t>Patient 169</t>
+  </si>
+  <si>
+    <t>['Figure 1 Various chest CT imaging features of COVID-19 GGO, ground glass opacity ']</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Figure S1. Representative dynamic changes in chest computer tomography (CT) scans from two patients with COVID-19. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="CIDFont+F1"/>
+      </rPr>
+      <t xml:space="preserve">A1–A3, CT images of a 70- year-old male patient, who progressed from the non-severe to critical disease group, and died. A1 (day 1), A2 (day 4), A3 (day 9): below the pleura are scattered shadows of frosted glass, large sheet diffuse paving stones in both lungs, and extensive consolidation of both lungs with thickening of interlobular stroma repetitively. B1–B3, CT images of a 44-year-old female patient, who progressed from the critical to non-severe disease group. B1 (day 3) exhibiting extensive consolidation of both lungs; B2 (day 9) exhibiting frosted hyaline change and paving stone signs. B3 (day 20) showing significant resolution of ground-glass opacities and subpleural cord changes. </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20037721-p27-165.png</t>
+  </si>
+  <si>
+    <t>2020.03.25.20037721-p27-172.png</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20037721-p27-173.png</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20037721-p27-174.png</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20037721-p27-181.png</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20037721-p27-182.png</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 170</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 171</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20043166-p17-78</t>
+  </si>
+  <si>
+    <t>Patient 172</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 173</t>
+  </si>
+  <si>
+    <t>Patient 174</t>
+  </si>
+  <si>
+    <t>Patient 175</t>
+  </si>
+  <si>
+    <t>2020.03.25.20043166-p17-79</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20043166-p17-80</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.25.20043166-p17-81</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CT scan of the four cases </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-119</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-120</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-121</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-122</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-123</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-124</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-125</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-126</t>
+  </si>
+  <si>
+    <t>Patient 176</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fig2. Chest CT images of a 26-year-old patient with COVID-19. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a Chest CT images obtained on February 2, 2020, showed ground glass opacity in both lungs on day 5 after symptom onset. b Images taken on February 12,2020, indicated the lesions increased obviously. C Images taken on February 19, 2020.revealed bilateral ground glass opacity absorbed dramatically, and the patient discharged from hospital and return to the local hospital. </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-127</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-128</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-130</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-131</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-132</t>
+  </si>
+  <si>
+    <t>2020.03.26.20041426-p11-133</t>
+  </si>
+  <si>
+    <t>Patient 177</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fig3. Chest CT images of a 62-year-old patient with COVID-19. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a Chest CT images obtained on February 2, 2020, showed ground glass opacity in both lungs on day 5 after symptom onset. b Images taken on February 11,2020, revealed the lesions increased rapidly, and the patient died on February 16,2020. </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1739,7 +1901,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1747,7 +1909,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1755,35 +1917,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1791,7 +1953,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1799,14 +1961,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1814,14 +1976,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1829,7 +1991,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1837,16 +1999,34 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="CIDFont+F1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2194,48 +2374,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2546,20 +2726,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="161.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -2570,7 +2750,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -2581,7 +2761,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -2592,7 +2772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -2603,7 +2783,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -2614,7 +2794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>234</v>
       </c>
@@ -2625,7 +2805,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>250</v>
       </c>
@@ -2636,7 +2816,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -2647,7 +2827,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -2658,7 +2838,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -2669,7 +2849,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -2680,7 +2860,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -2691,7 +2871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>257</v>
       </c>
@@ -2702,7 +2882,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -2713,7 +2893,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -2724,7 +2904,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -2735,7 +2915,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -2746,7 +2926,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -2757,7 +2937,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2768,7 +2948,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2779,7 +2959,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2790,7 +2970,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2801,7 +2981,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2812,7 +2992,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -2823,7 +3003,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -2834,7 +3014,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -2845,7 +3025,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2856,7 +3036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -2867,7 +3047,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -2878,7 +3058,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -2889,7 +3069,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2900,7 +3080,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2911,7 +3091,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2922,7 +3102,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2933,7 +3113,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -2944,7 +3124,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2955,7 +3135,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2966,7 +3146,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -2977,7 +3157,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2988,7 +3168,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>247</v>
       </c>
@@ -2999,7 +3179,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -3010,7 +3190,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -3021,7 +3201,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3032,7 +3212,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -3043,7 +3223,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -3054,7 +3234,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3065,7 +3245,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -3076,7 +3256,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -3087,7 +3267,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3098,7 +3278,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3109,7 +3289,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3120,7 +3300,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3131,7 +3311,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -3142,7 +3322,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -3153,7 +3333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -3164,7 +3344,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -3175,7 +3355,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -3186,7 +3366,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -3197,7 +3377,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3208,7 +3388,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -3219,7 +3399,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3230,7 +3410,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3241,7 +3421,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3252,7 +3432,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -3263,7 +3443,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -3274,7 +3454,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -3285,7 +3465,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>221</v>
       </c>
@@ -3296,7 +3476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -3307,7 +3487,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>256</v>
       </c>
@@ -3318,7 +3498,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>243</v>
       </c>
@@ -3329,7 +3509,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -3340,7 +3520,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>201</v>
       </c>
@@ -3351,7 +3531,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -3362,7 +3542,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -3373,7 +3553,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -3384,7 +3564,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -3395,7 +3575,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -3406,7 +3586,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -3417,7 +3597,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -3428,7 +3608,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3439,7 +3619,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>195</v>
       </c>
@@ -3450,7 +3630,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -3461,7 +3641,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -3472,7 +3652,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -3483,7 +3663,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -3494,7 +3674,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>258</v>
       </c>
@@ -3505,7 +3685,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -3516,7 +3696,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>218</v>
       </c>
@@ -3527,7 +3707,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3538,7 +3718,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -3549,7 +3729,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -3560,7 +3740,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>236</v>
       </c>
@@ -3571,7 +3751,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>53</v>
       </c>
@@ -3582,7 +3762,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -3593,7 +3773,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -3604,7 +3784,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -3615,7 +3795,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -3626,7 +3806,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3637,7 +3817,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -3648,7 +3828,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -3659,7 +3839,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -3670,7 +3850,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -3681,7 +3861,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -3692,7 +3872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>148</v>
       </c>
@@ -3703,7 +3883,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>171</v>
       </c>
@@ -3714,7 +3894,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>165</v>
       </c>
@@ -3725,7 +3905,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -3736,7 +3916,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3927,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>179</v>
       </c>
@@ -3758,7 +3938,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3769,7 +3949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3960,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -3791,7 +3971,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -3802,7 +3982,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -3813,7 +3993,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -3824,7 +4004,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -3835,7 +4015,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>78</v>
       </c>
@@ -3846,7 +4026,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -3857,7 +4037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>178</v>
       </c>
@@ -3868,7 +4048,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -3879,7 +4059,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +4070,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +4081,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>191</v>
       </c>
@@ -3912,7 +4092,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -3923,7 +4103,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -3934,7 +4114,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -3945,7 +4125,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>232</v>
       </c>
@@ -3956,7 +4136,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -3967,7 +4147,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>95</v>
       </c>
@@ -3978,7 +4158,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>197</v>
       </c>
@@ -3989,7 +4169,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>180</v>
       </c>
@@ -4000,7 +4180,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>198</v>
       </c>
@@ -4011,7 +4191,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -4022,7 +4202,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>239</v>
       </c>
@@ -4033,7 +4213,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>260</v>
       </c>
@@ -4044,7 +4224,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -4055,7 +4235,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>40</v>
       </c>
@@ -4066,7 +4246,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -4077,7 +4257,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>57</v>
       </c>
@@ -4088,7 +4268,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -4099,7 +4279,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -4110,7 +4290,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -4121,7 +4301,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4132,7 +4312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>223</v>
       </c>
@@ -4143,7 +4323,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>261</v>
       </c>
@@ -4154,7 +4334,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>238</v>
       </c>
@@ -4165,7 +4345,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>214</v>
       </c>
@@ -4176,7 +4356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -4187,7 +4367,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>176</v>
       </c>
@@ -4198,7 +4378,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -4209,7 +4389,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>140</v>
       </c>
@@ -4220,7 +4400,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -4231,7 +4411,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>175</v>
       </c>
@@ -4242,7 +4422,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -4253,7 +4433,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>192</v>
       </c>
@@ -4264,7 +4444,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>188</v>
       </c>
@@ -4275,7 +4455,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -4286,7 +4466,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>207</v>
       </c>
@@ -4297,7 +4477,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>246</v>
       </c>
@@ -4308,7 +4488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>252</v>
       </c>
@@ -4319,7 +4499,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>215</v>
       </c>
@@ -4330,7 +4510,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>237</v>
       </c>
@@ -4341,7 +4521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>28</v>
       </c>
@@ -4352,7 +4532,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -4363,7 +4543,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4374,7 +4554,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4385,7 +4565,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>132</v>
       </c>
@@ -4396,7 +4576,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4407,7 +4587,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -4418,7 +4598,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>149</v>
       </c>
@@ -4429,7 +4609,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -4440,7 +4620,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -4451,7 +4631,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>29</v>
       </c>
@@ -4462,7 +4642,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -4473,7 +4653,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>125</v>
       </c>
@@ -4484,7 +4664,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>136</v>
       </c>
@@ -4495,7 +4675,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -4506,7 +4686,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>202</v>
       </c>
@@ -4517,7 +4697,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>123</v>
       </c>
@@ -4528,7 +4708,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>115</v>
       </c>
@@ -4539,7 +4719,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -4550,7 +4730,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>135</v>
       </c>
@@ -4561,7 +4741,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -4572,7 +4752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -4583,7 +4763,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -4594,7 +4774,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -4605,7 +4785,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>181</v>
       </c>
@@ -4616,7 +4796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>240</v>
       </c>
@@ -4627,7 +4807,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>47</v>
       </c>
@@ -4638,7 +4818,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4829,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -4660,7 +4840,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -4671,7 +4851,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4862,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4693,7 +4873,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>44</v>
       </c>
@@ -4704,7 +4884,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -4715,7 +4895,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>55</v>
       </c>
@@ -4726,7 +4906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>56</v>
       </c>
@@ -4737,7 +4917,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>206</v>
       </c>
@@ -4748,7 +4928,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -4759,7 +4939,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -4770,7 +4950,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>227</v>
       </c>
@@ -4781,7 +4961,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>251</v>
       </c>
@@ -4792,7 +4972,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>248</v>
       </c>
@@ -4803,7 +4983,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>159</v>
       </c>
@@ -4814,7 +4994,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>138</v>
       </c>
@@ -4825,7 +5005,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>155</v>
       </c>
@@ -4836,7 +5016,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>114</v>
       </c>
@@ -4847,7 +5027,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>94</v>
       </c>
@@ -4858,7 +5038,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>77</v>
       </c>
@@ -4869,7 +5049,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>61</v>
       </c>
@@ -4880,7 +5060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>102</v>
       </c>
@@ -4891,7 +5071,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>185</v>
       </c>
@@ -4902,7 +5082,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -4913,7 +5093,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>208</v>
       </c>
@@ -4924,7 +5104,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -4935,7 +5115,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>254</v>
       </c>
@@ -4946,7 +5126,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -4957,7 +5137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -4968,7 +5148,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>108</v>
       </c>
@@ -4979,7 +5159,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>107</v>
       </c>
@@ -4990,7 +5170,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>86</v>
       </c>
@@ -5001,7 +5181,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>85</v>
       </c>
@@ -5012,7 +5192,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>68</v>
       </c>
@@ -5023,7 +5203,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>38</v>
       </c>
@@ -5034,7 +5214,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -5045,7 +5225,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>194</v>
       </c>
@@ -5056,7 +5236,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>255</v>
       </c>
@@ -5067,7 +5247,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>244</v>
       </c>
@@ -5078,7 +5258,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -5089,7 +5269,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>130</v>
       </c>
@@ -5100,7 +5280,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>117</v>
       </c>
@@ -5111,7 +5291,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>121</v>
       </c>
@@ -5122,7 +5302,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -5133,7 +5313,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5324,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>98</v>
       </c>
@@ -5155,7 +5335,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>106</v>
       </c>
@@ -5166,7 +5346,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>109</v>
       </c>
@@ -5177,7 +5357,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>83</v>
       </c>
@@ -5188,7 +5368,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>88</v>
       </c>
@@ -5199,7 +5379,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>66</v>
       </c>
@@ -5210,7 +5390,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>144</v>
       </c>
@@ -5221,7 +5401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>137</v>
       </c>
@@ -5232,7 +5412,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>76</v>
       </c>
@@ -5243,7 +5423,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>93</v>
       </c>
@@ -5254,7 +5434,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -5265,7 +5445,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -5276,7 +5456,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -5287,7 +5467,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>71</v>
       </c>
@@ -5298,7 +5478,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>87</v>
       </c>
@@ -5309,7 +5489,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>84</v>
       </c>
@@ -5320,7 +5500,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>110</v>
       </c>
@@ -5331,7 +5511,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>105</v>
       </c>
@@ -5342,7 +5522,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>96</v>
       </c>
@@ -5353,7 +5533,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>100</v>
       </c>
@@ -5364,7 +5544,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>120</v>
       </c>
@@ -5375,7 +5555,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>174</v>
       </c>
@@ -5386,7 +5566,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>151</v>
       </c>
@@ -5397,7 +5577,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>141</v>
       </c>
@@ -5408,7 +5588,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>122</v>
       </c>
@@ -5419,7 +5599,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>116</v>
       </c>
@@ -5427,10 +5607,10 @@
         <v>553</v>
       </c>
       <c r="C261" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>127</v>
       </c>
@@ -5441,7 +5621,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>555</v>
       </c>
@@ -5452,7 +5632,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>556</v>
       </c>
@@ -5463,10 +5643,275 @@
         <v>557</v>
       </c>
     </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>563</v>
+      </c>
+      <c r="B265" t="s">
+        <v>568</v>
+      </c>
+      <c r="C265" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>564</v>
+      </c>
+      <c r="B266" t="s">
+        <v>568</v>
+      </c>
+      <c r="C266" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>565</v>
+      </c>
+      <c r="B267" t="s">
+        <v>568</v>
+      </c>
+      <c r="C267" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>566</v>
+      </c>
+      <c r="B268" t="s">
+        <v>569</v>
+      </c>
+      <c r="C268" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>567</v>
+      </c>
+      <c r="B269" t="s">
+        <v>569</v>
+      </c>
+      <c r="C269" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>562</v>
+      </c>
+      <c r="B270" t="s">
+        <v>569</v>
+      </c>
+      <c r="C270" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>570</v>
+      </c>
+      <c r="B271" t="s">
+        <v>571</v>
+      </c>
+      <c r="C271" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>575</v>
+      </c>
+      <c r="B272" t="s">
+        <v>572</v>
+      </c>
+      <c r="C272" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>576</v>
+      </c>
+      <c r="B273" t="s">
+        <v>573</v>
+      </c>
+      <c r="C273" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>577</v>
+      </c>
+      <c r="B274" t="s">
+        <v>574</v>
+      </c>
+      <c r="C274" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>579</v>
+      </c>
+      <c r="B275" t="s">
+        <v>587</v>
+      </c>
+      <c r="C275" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>580</v>
+      </c>
+      <c r="B276" t="s">
+        <v>587</v>
+      </c>
+      <c r="C276" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>581</v>
+      </c>
+      <c r="B277" t="s">
+        <v>587</v>
+      </c>
+      <c r="C277" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>582</v>
+      </c>
+      <c r="B278" t="s">
+        <v>587</v>
+      </c>
+      <c r="C278" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>583</v>
+      </c>
+      <c r="B279" t="s">
+        <v>587</v>
+      </c>
+      <c r="C279" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>584</v>
+      </c>
+      <c r="B280" t="s">
+        <v>587</v>
+      </c>
+      <c r="C280" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>585</v>
+      </c>
+      <c r="B281" t="s">
+        <v>587</v>
+      </c>
+      <c r="C281" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>586</v>
+      </c>
+      <c r="B282" t="s">
+        <v>587</v>
+      </c>
+      <c r="C282" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>589</v>
+      </c>
+      <c r="B283" t="s">
+        <v>595</v>
+      </c>
+      <c r="C283" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>590</v>
+      </c>
+      <c r="B284" t="s">
+        <v>595</v>
+      </c>
+      <c r="C284" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>591</v>
+      </c>
+      <c r="B285" t="s">
+        <v>595</v>
+      </c>
+      <c r="C285" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>592</v>
+      </c>
+      <c r="B286" t="s">
+        <v>595</v>
+      </c>
+      <c r="C286" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>593</v>
+      </c>
+      <c r="B287" t="s">
+        <v>595</v>
+      </c>
+      <c r="C287" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>594</v>
+      </c>
+      <c r="B288" t="s">
+        <v>595</v>
+      </c>
+      <c r="C288" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A275">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A274">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799F844-5A7C-B441-82EB-C7A287E28F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8F21B-560A-0847-8346-A990EB898487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive_captions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="723">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -1870,12 +1870,495 @@
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>2020.03.30.20047985-p9-56%0</t>
+  </si>
+  <si>
+    <t>2020.03.30.20047985-p9-56%1</t>
+  </si>
+  <si>
+    <t>2020.03.30.20047985-p9-56%2</t>
+  </si>
+  <si>
+    <t>2020.03.30.20047985-p9-56%3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 61-year-old man from Lodi (endemic city in Lombardy) attended to the emergency department of San Raffaele Hospital in Milan for fever, caught and dyspnoea. Epidemiologic, clinical evaluation and lab tests resulted highly suspicious for SARS-CoV2 infection. Nasopharyngeal swab was collected, and chest CT was immediately performed. CT showed peripheral opacity (A) with ground- glass opacities and crazy-paving pattern involving mainly the upper left lobe (B-D) and the lower right lobe (D-E), with typical posterior involvement. CT findings were highly suggestive for SARS- CoV2 pneumonia. 3D volume rendering CT reconstruction captures the overall pulmonary involvement (F). Results from the first swab (available 24 hours later) resulted negative. Another swab was taken after 3 days, resulting positive. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 178</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-novel-Coronavirus-severe-adult-respiratory-dist_2020_International-Jour-p3-89%0</t>
+  </si>
+  <si>
+    <t>2019-novel-Coronavirus-severe-adult-respiratory-dist_2020_International-Jour-p3-89%1</t>
+  </si>
+  <si>
+    <t>Patient 179</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Baseline chest CT shows tubular size increase of segmental vessel with normally ventilated adjacent lung parenchyma, (b) where after 3 days there is a ground-glass opacities. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-novel-Coronavirus-severe-adult-respiratory-dist_2020_International-Jour-p3-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient 180 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Follow-up CT after 3 days in a 65 years old woman shows increase size and density of the lesions </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 181</t>
+  </si>
+  <si>
+    <t>A Cluster of Cases of Severe Acute Respiratory Syndrome in Hong Kong-p6-90</t>
+  </si>
+  <si>
+    <t>A Major Outbreak of Severe Acute Respiratory Syndrome in Hong Kong-p5-85.png</t>
+  </si>
+  <si>
+    <t>Patient 182</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%0</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%1</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%2</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%3</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%4</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%5</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%6</t>
+  </si>
+  <si>
+    <t>bmj.m606.full-p4-22%7</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%0</t>
+  </si>
+  <si>
+    <t>Patient 183</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%1</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%2</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%3</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%4</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%5</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%6</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%7</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%8</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%9</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%10</t>
+  </si>
+  <si>
+    <t>Comparison-of-different-samples-for-2019-novel-cor_2020_International-Journa-p2-21%11</t>
+  </si>
+  <si>
+    <t>Patient 184</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 185</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 186</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 187</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 188</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 189</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehaa254-p0-63%2</t>
+  </si>
+  <si>
+    <t>ehaa254-p0-63%3</t>
+  </si>
+  <si>
+    <t>impact_of_covid19_infection_on_pregnancy_outcomes_and_the_risk_of_maternaltoneonatal_intrapartum_transmission_of_covid19_during_natural_birth-p8-41%1</t>
+  </si>
+  <si>
+    <t>impact_of_covid19_infection_on_pregnancy_outcomes_and_the_risk_of_maternaltoneonatal_intrapartum_transmission_of_covid19_during_natural_birth-p8-41%3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>impact_of_covid19_infection_on_pregnancy_outcomes_and_the_risk_of_maternaltoneonatal_intrapartum_transmission_of_covid19_during_natural_birth-p8-41%5</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 190</t>
+  </si>
+  <si>
+    <t>Patient 191</t>
+  </si>
+  <si>
+    <t>Patient 192</t>
+  </si>
+  <si>
+    <t>kjr-21-e24-p2-8</t>
+  </si>
+  <si>
+    <t>kjr-21-e24-p2-16</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e24-p2-29</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e24-p2-31</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 193</t>
+  </si>
+  <si>
+    <t>Patient 194</t>
+  </si>
+  <si>
+    <t>Patient 195</t>
+  </si>
+  <si>
+    <t>Patient 196</t>
+  </si>
+  <si>
+    <t>kjr-21-e25-p1-6</t>
+  </si>
+  <si>
+    <t>kjr-21-e25-p1-8</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e25-p1-10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e25-p1-12</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e25-p1-14</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 197</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>med-9780198814924-chapter-17-p10-515</t>
+  </si>
+  <si>
+    <t>Ni2020_Article_CombinationOfWesternMedicineAn-p3-10%0</t>
+  </si>
+  <si>
+    <t>Ni2020_Article_CombinationOfWesternMedicineAn-p3-10%1</t>
+  </si>
+  <si>
+    <t>Ni2020_Article_CombinationOfWesternMedicineAn-p4-13%0.png</t>
+  </si>
+  <si>
+    <t>Ni2020_Article_CombinationOfWesternMedicineAn-p4-13%1.png</t>
+  </si>
+  <si>
+    <t>Patient 198</t>
+  </si>
+  <si>
+    <t>Patient 199</t>
+  </si>
+  <si>
+    <t>Patient 199</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 200</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIIS0140673620301549_0%0</t>
+  </si>
+  <si>
+    <t>PIIS0140673620301549_0%1</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%0</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%1</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%2</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%3</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%4</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%5</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%6</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%7</t>
+  </si>
+  <si>
+    <t>PIIS0140673620303603%8</t>
+  </si>
+  <si>
+    <t>Recurrence-of-positive-SARS-CoV-2-RNA-in-C_2020_International-Journal-of-Inf-p1-21%0</t>
+  </si>
+  <si>
+    <t>Recurrence-of-positive-SARS-CoV-2-RNA-in-C_2020_International-Journal-of-Inf-p1-21%1</t>
+  </si>
+  <si>
+    <t>PIIS0140673620301549_1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIIS0140673620301549_2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIIS0140673620302117_1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIIS0140673620302117_2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%0</t>
+  </si>
+  <si>
+    <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%1</t>
+  </si>
+  <si>
+    <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%2</t>
+  </si>
+  <si>
+    <t>Patient 201</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 202</t>
+  </si>
+  <si>
+    <t>Patient 203</t>
+  </si>
+  <si>
+    <t>Patient 204</t>
+  </si>
+  <si>
+    <t>Patient 205</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 206</t>
+  </si>
+  <si>
+    <t>Patient 207</t>
+  </si>
+  <si>
+    <t>Patient 208</t>
+  </si>
+  <si>
+    <t>Patient 209</t>
+  </si>
+  <si>
+    <t>Patient 210</t>
+  </si>
+  <si>
+    <t>Patient 211</t>
+  </si>
+  <si>
+    <t>Patient 212</t>
+  </si>
+  <si>
+    <t>Patient 213</t>
+  </si>
+  <si>
+    <t>Patient 214</t>
+  </si>
+  <si>
+    <t>Patient 215</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 216</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a High-Reso- lution CT Scan of Patient 4 (Panel C), Showing Subpleural Areas of Consolidation and Ground-Glass Opacification with Air Bronchogram (Arrow) Affecting the Posterior Aspects of the Lungs, Particularly the Lower Lobes. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Transverse chest computed tomograms from a 32 year old man, showing ground glass opacity and consolidation of lower lobe of right lung near the pleura on day 1 after symptom onset (top panel), and bilateral ground glass opacity and consolidation on day 7 after symptom onset (bottom panel) </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CTscansofthe2019-nCoVnucleicacid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="AdvOT863180fb+20"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="AdvOT863180fb"/>
+      </rPr>
+      <t xml:space="preserve">detectedpositivepatients.Increasingandmultifocalground-glasschangeswerevisible.(A)Patient1,January30,2020(hospital day 2, illness day 5, A-1); February 1, 2020 (hospital day 4, illness day 7, A-2). (B) Patient 2, January 30, 2020 (hospital day 2, illness day 5, B-1); February 1, 2020 (hospital day 4, illness day 7, B-2). (C) Patient 3, January 30, 2020 (hospital day 1, illness day 6, C-1); February 1, 2020 (hospital day 3, illness day 8, C-2). (D) Suspected case 1, January 31, 2020 (hospital day 1, illness day 4, D-1); February 1, 2020 (hospital day 6, illness day 9, D-2). (E) Suspected case 3, February 1, 2020 (hospital day 1, illness day 6, E-1); February 5, 2020 (hospital day 5, illness day 10, E-2). (F) Suspected case 4, January 31, 2020 (hospital day 1, illness day 2, F-1); February 1, 2020 (hospital day 4, illness day 5, F-2). </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower-limb compression ultrasonography was negative. Based on these findings, treatment with low molecular weight heparin, lopinavir/ritonavir, and hydroxychloroquine was started. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">confluent lesions are mainly distributed in peripheral lung along bronchovascular bundles. Most of lesions spare juxtapleural area, and minor proportion of lesions touch pleura. Lesions contain multiple air-bronchograms, and air-bronchogram in superior segment of right lower lobe is distorted (arrows) </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline axial and coronal chest CT images show confluent pure ground-glass opacities involving both lungs. Most of confluent and patchy ground-glass opacities about pleura and fissure in peripheral lung. A few calcified granulomas are incidentally noted in left upper lobe. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Representative CT images (A, B) of COVID-19 pneumonia manifesting as radiograph-negative multiple patchy to nodular mixed ground-glass opacities and consolidations. A. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="OfficinaSansStd"/>
+      </rPr>
+      <t xml:space="preserve">Axial chest CT image shows ill-defined mixed ground-glass opacities and consolidative lesions with patchy and elongated shape (arrows) touching pleura in superior segment of right lower lobe. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="OfficinaSansStd"/>
+      </rPr>
+      <t xml:space="preserve">B. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="OfficinaSansStd"/>
+      </rPr>
+      <t xml:space="preserve">Axial chest CT image shows ill- defined part-solid nodules (arrows; mixed ground-glass opacities and solid nodules) along bronchovascular bundles in posterior segment of right upper lobe. </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-year-old female patient with Coronavirus disease 2019 pneumonia.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest CT images of case 2. (A) CT imaging obtained from case 2 on January 28, 2020 shows consolidation shadow in the left lung on illness day 3. (B) Image taken on February 6, 2020 shows the absorption of consolidation shadow after SHL treatment from January 28. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest CT images of case 3. (A) CT imaging obtained from case 3 on January 28, 2020 shows ground glass opacity in the left lung on illness day 3. (B) Image taken on February 7, 2020 shows the absorption of ground glass opacity after SHL treatment from January 28. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Figure 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Shaker2Lancet"/>
+      </rPr>
+      <t xml:space="preserve">Representative images of the thoracic CT scans showing multifocal ground-glass changes in the lungs of patient 1 (A), patient 2 (B), patient 3 (C), and patient 5 (D) </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 3: chest CT obtained on Jan 1 (3A) showed mass shadows of high density in both lungs. Bright bronchogram is seen in the lung tissue area of the lesion, which is also called bronchoinflation sign. Chest CT on Jan 15 showed improved status (3B). </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ChestHRCTimageson23January2020,showingmultiplepatchygroundglassopacitiesinbilateralsubpleuralareas(redarrows).HRCT,high-resolutioncomputed tomography. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computed tomography of the lungs revealed mass lesions in bilateral upper lobe before anti-NTM treatment (a and b; January 2017) and remarkable absorption after 3-month anti-NTM treatment (c and d; April 2017).</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NTM, nontuberculous mycobacterium. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2027,6 +2510,33 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="AdvOT863180fb"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="AdvOT863180fb+20"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="OfficinaSansStd"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="OfficinaSansStd"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Shaker2Lancet"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2727,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5907,6 +6417,725 @@
         <v>596</v>
       </c>
     </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>597</v>
+      </c>
+      <c r="B289" t="s">
+        <v>602</v>
+      </c>
+      <c r="C289" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>598</v>
+      </c>
+      <c r="B290" t="s">
+        <v>602</v>
+      </c>
+      <c r="C290" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>599</v>
+      </c>
+      <c r="B291" t="s">
+        <v>602</v>
+      </c>
+      <c r="C291" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>600</v>
+      </c>
+      <c r="B292" t="s">
+        <v>602</v>
+      </c>
+      <c r="C292" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>603</v>
+      </c>
+      <c r="B293" t="s">
+        <v>605</v>
+      </c>
+      <c r="C293" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>604</v>
+      </c>
+      <c r="B294" t="s">
+        <v>605</v>
+      </c>
+      <c r="C294" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>607</v>
+      </c>
+      <c r="B295" t="s">
+        <v>608</v>
+      </c>
+      <c r="C295" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>611</v>
+      </c>
+      <c r="B296" t="s">
+        <v>610</v>
+      </c>
+      <c r="C296" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>614</v>
+      </c>
+      <c r="B298" t="s">
+        <v>613</v>
+      </c>
+      <c r="C298" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>615</v>
+      </c>
+      <c r="B299" t="s">
+        <v>613</v>
+      </c>
+      <c r="C299" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>616</v>
+      </c>
+      <c r="B300" t="s">
+        <v>613</v>
+      </c>
+      <c r="C300" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>617</v>
+      </c>
+      <c r="B301" t="s">
+        <v>613</v>
+      </c>
+      <c r="C301" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>618</v>
+      </c>
+      <c r="B302" t="s">
+        <v>613</v>
+      </c>
+      <c r="C302" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>619</v>
+      </c>
+      <c r="B303" t="s">
+        <v>613</v>
+      </c>
+      <c r="C303" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>620</v>
+      </c>
+      <c r="B304" t="s">
+        <v>613</v>
+      </c>
+      <c r="C304" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>621</v>
+      </c>
+      <c r="B305" t="s">
+        <v>613</v>
+      </c>
+      <c r="C305" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>622</v>
+      </c>
+      <c r="B306" t="s">
+        <v>623</v>
+      </c>
+      <c r="C306" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>624</v>
+      </c>
+      <c r="B307" t="s">
+        <v>623</v>
+      </c>
+      <c r="C307" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>625</v>
+      </c>
+      <c r="B308" t="s">
+        <v>635</v>
+      </c>
+      <c r="C308" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>626</v>
+      </c>
+      <c r="B309" t="s">
+        <v>635</v>
+      </c>
+      <c r="C309" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>627</v>
+      </c>
+      <c r="B310" t="s">
+        <v>636</v>
+      </c>
+      <c r="C310" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>628</v>
+      </c>
+      <c r="B311" t="s">
+        <v>636</v>
+      </c>
+      <c r="C311" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>629</v>
+      </c>
+      <c r="B312" t="s">
+        <v>637</v>
+      </c>
+      <c r="C312" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>630</v>
+      </c>
+      <c r="B313" t="s">
+        <v>637</v>
+      </c>
+      <c r="C313" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>631</v>
+      </c>
+      <c r="B314" t="s">
+        <v>638</v>
+      </c>
+      <c r="C314" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315" t="s">
+        <v>638</v>
+      </c>
+      <c r="C315" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>633</v>
+      </c>
+      <c r="B316" t="s">
+        <v>639</v>
+      </c>
+      <c r="C316" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>634</v>
+      </c>
+      <c r="B317" t="s">
+        <v>639</v>
+      </c>
+      <c r="C317" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>641</v>
+      </c>
+      <c r="B318" t="s">
+        <v>640</v>
+      </c>
+      <c r="C318" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>642</v>
+      </c>
+      <c r="B319" t="s">
+        <v>640</v>
+      </c>
+      <c r="C319" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>643</v>
+      </c>
+      <c r="B320" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>645</v>
+      </c>
+      <c r="B322" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>649</v>
+      </c>
+      <c r="B323" t="s">
+        <v>653</v>
+      </c>
+      <c r="C323" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324" t="s">
+        <v>654</v>
+      </c>
+      <c r="C324" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>651</v>
+      </c>
+      <c r="B325" t="s">
+        <v>655</v>
+      </c>
+      <c r="C325" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>652</v>
+      </c>
+      <c r="B326" t="s">
+        <v>656</v>
+      </c>
+      <c r="C326" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>657</v>
+      </c>
+      <c r="B327" t="s">
+        <v>662</v>
+      </c>
+      <c r="C327" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" t="s">
+        <v>662</v>
+      </c>
+      <c r="C328" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>659</v>
+      </c>
+      <c r="B329" t="s">
+        <v>662</v>
+      </c>
+      <c r="C329" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>660</v>
+      </c>
+      <c r="B330" t="s">
+        <v>662</v>
+      </c>
+      <c r="C330" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>661</v>
+      </c>
+      <c r="B331" t="s">
+        <v>662</v>
+      </c>
+      <c r="C331" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>663</v>
+      </c>
+      <c r="B332" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333" t="s">
+        <v>669</v>
+      </c>
+      <c r="C333" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>665</v>
+      </c>
+      <c r="B334" t="s">
+        <v>670</v>
+      </c>
+      <c r="C334" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>666</v>
+      </c>
+      <c r="B335" t="s">
+        <v>671</v>
+      </c>
+      <c r="C335" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>667</v>
+      </c>
+      <c r="B336" t="s">
+        <v>671</v>
+      </c>
+      <c r="C336" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" t="s">
+        <v>692</v>
+      </c>
+      <c r="C337" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" t="s">
+        <v>693</v>
+      </c>
+      <c r="C338" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>685</v>
+      </c>
+      <c r="B339" t="s">
+        <v>694</v>
+      </c>
+      <c r="C339" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>686</v>
+      </c>
+      <c r="B340" t="s">
+        <v>695</v>
+      </c>
+      <c r="C340" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>687</v>
+      </c>
+      <c r="B341" t="s">
+        <v>696</v>
+      </c>
+      <c r="C341" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>688</v>
+      </c>
+      <c r="B342" t="s">
+        <v>696</v>
+      </c>
+      <c r="C342" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>674</v>
+      </c>
+      <c r="B343" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>675</v>
+      </c>
+      <c r="B344" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>676</v>
+      </c>
+      <c r="B345" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>677</v>
+      </c>
+      <c r="B346" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>678</v>
+      </c>
+      <c r="B347" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>679</v>
+      </c>
+      <c r="B348" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>680</v>
+      </c>
+      <c r="B349" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>681</v>
+      </c>
+      <c r="B350" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>682</v>
+      </c>
+      <c r="B351" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>683</v>
+      </c>
+      <c r="B352" t="s">
+        <v>706</v>
+      </c>
+      <c r="C352" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>684</v>
+      </c>
+      <c r="B353" t="s">
+        <v>706</v>
+      </c>
+      <c r="C353" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>689</v>
+      </c>
+      <c r="B354" t="s">
+        <v>707</v>
+      </c>
+      <c r="C354" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>689</v>
+      </c>
+      <c r="B355" t="s">
+        <v>707</v>
+      </c>
+      <c r="C355" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>690</v>
+      </c>
+      <c r="B356" t="s">
+        <v>707</v>
+      </c>
+      <c r="C356" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>691</v>
+      </c>
+      <c r="B357" t="s">
+        <v>707</v>
+      </c>
+      <c r="C357" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="C358" t="s">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A274">
     <sortCondition ref="A1"/>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8F21B-560A-0847-8346-A990EB898487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A41B61-00D9-B647-8896-92B77DD3E1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="741">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -1916,15 +1916,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Patient 181</t>
-  </si>
-  <si>
-    <t>A Cluster of Cases of Severe Acute Respiratory Syndrome in Hong Kong-p6-90</t>
-  </si>
-  <si>
-    <t>A Major Outbreak of Severe Acute Respiratory Syndrome in Hong Kong-p5-85.png</t>
-  </si>
-  <si>
     <t>Patient 182</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2108,9 +2099,6 @@
     <t>Ni2020_Article_CombinationOfWesternMedicineAn-p4-13%1.png</t>
   </si>
   <si>
-    <t>Patient 198</t>
-  </si>
-  <si>
     <t>Patient 199</t>
   </si>
   <si>
@@ -2235,10 +2223,6 @@
   </si>
   <si>
     <t>Patient 216</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">a High-Reso- lution CT Scan of Patient 4 (Panel C), Showing Subpleural Areas of Consolidation and Ground-Glass Opacification with Air Bronchogram (Arrow) Affecting the Posterior Aspects of the Lungs, Particularly the Lower Lobes. </t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -2351,6 +2335,81 @@
   </si>
   <si>
     <t xml:space="preserve">NTM, nontuberculous mycobacterium. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient 181</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/med/9780198814924.003.0017 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/eurheartj/ehaa254 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1017/ice.2020.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijid.2020.02.050 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.ijid.2020.02.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijid.2020.02.043 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.ijid.2020.02.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3348/kjr.2020.0132 </t>
+  </si>
+  <si>
+    <t>10.3348/kjr.2020.0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3348/kjr.2020.0112 </t>
+  </si>
+  <si>
+    <t>10.3348/kjr.2020.0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s11684-020-0757-x </t>
+  </si>
+  <si>
+    <t>10.1007/s11684-020-0757-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijid.2020.03.003 </t>
+  </si>
+  <si>
+    <t>10.1016/j.ijid.2020.02.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/ S0140-6736(20)30154-9 </t>
+  </si>
+  <si>
+    <t>10.1016/ S0140-6736(20)30154-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/ S0140-6736(20)30211-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/ S0140-6736(20)30360-3 </t>
+  </si>
+  <si>
+    <t>10.1016/ S0140-6736(20)30360-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/bmj.m606 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1136/bmj.m606</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3237,3231 +3296,3233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C358"/>
+  <dimension ref="A1:D356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="161.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="161.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>222</v>
       </c>
       <c r="B1" t="s">
         <v>387</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>387</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>387</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>387</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>388</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>388</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>388</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>388</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>388</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>388</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>388</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>388</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>257</v>
       </c>
       <c r="B13" t="s">
         <v>388</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>388</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>211</v>
       </c>
       <c r="B15" t="s">
         <v>388</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>388</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>388</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>388</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>388</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>388</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>389</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>390</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>391</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>142</v>
       </c>
       <c r="B24" t="s">
         <v>392</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>150</v>
       </c>
       <c r="B25" t="s">
         <v>393</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>172</v>
       </c>
       <c r="B26" t="s">
         <v>394</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>164</v>
       </c>
       <c r="B27" t="s">
         <v>395</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>217</v>
       </c>
       <c r="B28" t="s">
         <v>396</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>235</v>
       </c>
       <c r="B29" t="s">
         <v>397</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>259</v>
       </c>
       <c r="B30" t="s">
         <v>398</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>399</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>399</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>399</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>399</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35" t="s">
         <v>399</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>400</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>401</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>402</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>403</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>247</v>
       </c>
       <c r="B40" t="s">
         <v>404</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>253</v>
       </c>
       <c r="B41" t="s">
         <v>404</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>229</v>
       </c>
       <c r="B42" t="s">
         <v>404</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>405</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>405</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>405</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>406</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>406</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>406</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
         <v>407</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>407</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>60</v>
       </c>
       <c r="B51" t="s">
         <v>408</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>408</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>177</v>
       </c>
       <c r="B53" t="s">
         <v>409</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>160</v>
       </c>
       <c r="B54" t="s">
         <v>409</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>139</v>
       </c>
       <c r="B55" t="s">
         <v>409</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>154</v>
       </c>
       <c r="B56" t="s">
         <v>409</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>113</v>
       </c>
       <c r="B57" t="s">
         <v>409</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>409</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>410</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>411</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>412</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>413</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>414</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>168</v>
       </c>
       <c r="B64" t="s">
         <v>415</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>147</v>
       </c>
       <c r="B65" t="s">
         <v>416</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>145</v>
       </c>
       <c r="B66" t="s">
         <v>417</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>221</v>
       </c>
       <c r="B67" t="s">
         <v>418</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>231</v>
       </c>
       <c r="B68" t="s">
         <v>419</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>256</v>
       </c>
       <c r="B69" t="s">
         <v>420</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>243</v>
       </c>
       <c r="B70" t="s">
         <v>421</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>210</v>
       </c>
       <c r="B71" t="s">
         <v>422</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>201</v>
       </c>
       <c r="B72" t="s">
         <v>423</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>167</v>
       </c>
       <c r="B73" t="s">
         <v>424</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>169</v>
       </c>
       <c r="B74" t="s">
         <v>425</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>129</v>
       </c>
       <c r="B75" t="s">
         <v>426</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>133</v>
       </c>
       <c r="B76" t="s">
         <v>427</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>428</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>118</v>
       </c>
       <c r="B78" t="s">
         <v>429</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>97</v>
       </c>
       <c r="B79" t="s">
         <v>430</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>101</v>
       </c>
       <c r="B80" t="s">
         <v>431</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>195</v>
       </c>
       <c r="B81" t="s">
         <v>432</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>182</v>
       </c>
       <c r="B82" t="s">
         <v>433</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>200</v>
       </c>
       <c r="B83" t="s">
         <v>434</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>212</v>
       </c>
       <c r="B84" t="s">
         <v>435</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>242</v>
       </c>
       <c r="B85" t="s">
         <v>436</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>258</v>
       </c>
       <c r="B86" t="s">
         <v>437</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>233</v>
       </c>
       <c r="B87" t="s">
         <v>438</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>218</v>
       </c>
       <c r="B88" t="s">
         <v>439</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" t="s">
         <v>440</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>16</v>
       </c>
       <c r="B90" t="s">
         <v>441</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>216</v>
       </c>
       <c r="B91" t="s">
         <v>442</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>236</v>
       </c>
       <c r="B92" t="s">
         <v>443</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>53</v>
       </c>
       <c r="B93" t="s">
         <v>444</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>58</v>
       </c>
       <c r="B94" t="s">
         <v>445</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>111</v>
       </c>
       <c r="B95" t="s">
         <v>446</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
         <v>447</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>91</v>
       </c>
       <c r="B97" t="s">
         <v>448</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>80</v>
       </c>
       <c r="B98" t="s">
         <v>448</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>21</v>
       </c>
       <c r="B99" t="s">
         <v>448</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>34</v>
       </c>
       <c r="B100" t="s">
         <v>448</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>67</v>
       </c>
       <c r="B101" t="s">
         <v>448</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>70</v>
       </c>
       <c r="B102" t="s">
         <v>448</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>449</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>148</v>
       </c>
       <c r="B104" t="s">
         <v>449</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>171</v>
       </c>
       <c r="B105" t="s">
         <v>449</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>165</v>
       </c>
       <c r="B106" t="s">
         <v>449</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>131</v>
       </c>
       <c r="B107" t="s">
         <v>449</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>157</v>
       </c>
       <c r="B108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>179</v>
       </c>
       <c r="B109" t="s">
         <v>451</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>19</v>
       </c>
       <c r="B110" t="s">
         <v>452</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>0</v>
       </c>
       <c r="B111" t="s">
         <v>453</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>20</v>
       </c>
       <c r="B112" t="s">
         <v>454</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>63</v>
       </c>
       <c r="B113" t="s">
         <v>455</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>74</v>
       </c>
       <c r="B114" t="s">
         <v>456</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>92</v>
       </c>
       <c r="B115" t="s">
         <v>457</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>458</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>78</v>
       </c>
       <c r="B117" t="s">
         <v>459</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>158</v>
       </c>
       <c r="B118" t="s">
         <v>460</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>178</v>
       </c>
       <c r="B119" t="s">
         <v>461</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>156</v>
       </c>
       <c r="B120" t="s">
         <v>462</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>18</v>
       </c>
       <c r="B121" t="s">
         <v>463</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>1</v>
       </c>
       <c r="B122" t="s">
         <v>463</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>191</v>
       </c>
       <c r="B123" t="s">
         <v>464</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>187</v>
       </c>
       <c r="B124" t="s">
         <v>464</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>128</v>
       </c>
       <c r="B125" t="s">
         <v>465</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>134</v>
       </c>
       <c r="B126" t="s">
         <v>465</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>232</v>
       </c>
       <c r="B127" t="s">
         <v>466</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>103</v>
       </c>
       <c r="B128" t="s">
         <v>467</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>95</v>
       </c>
       <c r="B129" t="s">
         <v>467</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>197</v>
       </c>
       <c r="B130" t="s">
         <v>468</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>180</v>
       </c>
       <c r="B131" t="s">
         <v>468</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>198</v>
       </c>
       <c r="B132" t="s">
         <v>468</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>213</v>
       </c>
       <c r="B133" t="s">
         <v>469</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>239</v>
       </c>
       <c r="B134" t="s">
         <v>469</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>260</v>
       </c>
       <c r="B135" t="s">
         <v>469</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>45</v>
       </c>
       <c r="B136" t="s">
         <v>470</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>40</v>
       </c>
       <c r="B137" t="s">
         <v>471</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>54</v>
       </c>
       <c r="B138" t="s">
         <v>472</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>57</v>
       </c>
       <c r="B139" t="s">
         <v>473</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>24</v>
       </c>
       <c r="B140" t="s">
         <v>474</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>31</v>
       </c>
       <c r="B141" t="s">
         <v>475</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>13</v>
       </c>
       <c r="B142" t="s">
         <v>476</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>6</v>
       </c>
       <c r="B143" t="s">
         <v>477</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>223</v>
       </c>
       <c r="B144" t="s">
         <v>478</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>261</v>
       </c>
       <c r="B145" t="s">
         <v>479</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>238</v>
       </c>
       <c r="B146" t="s">
         <v>479</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>214</v>
       </c>
       <c r="B147" t="s">
         <v>479</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>161</v>
       </c>
       <c r="B148" t="s">
         <v>480</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>176</v>
       </c>
       <c r="B149" t="s">
         <v>480</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>153</v>
       </c>
       <c r="B150" t="s">
         <v>480</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>140</v>
       </c>
       <c r="B151" t="s">
         <v>481</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>152</v>
       </c>
       <c r="B152" t="s">
         <v>482</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153" t="s">
         <v>483</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>162</v>
       </c>
       <c r="B154" t="s">
         <v>484</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>192</v>
       </c>
       <c r="B155" t="s">
         <v>485</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>188</v>
       </c>
       <c r="B156" t="s">
         <v>486</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>204</v>
       </c>
       <c r="B157" t="s">
         <v>487</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>207</v>
       </c>
       <c r="B158" t="s">
         <v>488</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>246</v>
       </c>
       <c r="B159" t="s">
         <v>489</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>490</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>215</v>
       </c>
       <c r="B161" t="s">
         <v>491</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>237</v>
       </c>
       <c r="B162" t="s">
         <v>491</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>28</v>
       </c>
       <c r="B163" t="s">
         <v>492</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>27</v>
       </c>
       <c r="B164" t="s">
         <v>492</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
         <v>492</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>11</v>
       </c>
       <c r="B166" t="s">
         <v>492</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>132</v>
       </c>
       <c r="B167" t="s">
         <v>493</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>494</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>170</v>
       </c>
       <c r="B169" t="s">
         <v>495</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>149</v>
       </c>
       <c r="B170" t="s">
         <v>496</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>9</v>
       </c>
       <c r="B171" t="s">
         <v>497</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>10</v>
       </c>
       <c r="B172" t="s">
         <v>498</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>29</v>
       </c>
       <c r="B173" t="s">
         <v>499</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>26</v>
       </c>
       <c r="B174" t="s">
         <v>500</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>125</v>
       </c>
       <c r="B175" t="s">
         <v>501</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>136</v>
       </c>
       <c r="B176" t="s">
         <v>501</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>209</v>
       </c>
       <c r="B177" t="s">
         <v>502</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>202</v>
       </c>
       <c r="B178" t="s">
         <v>502</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>123</v>
       </c>
       <c r="B179" t="s">
         <v>503</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>115</v>
       </c>
       <c r="B180" t="s">
         <v>503</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>126</v>
       </c>
       <c r="B181" t="s">
         <v>504</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>135</v>
       </c>
       <c r="B182" t="s">
         <v>504</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>163</v>
       </c>
       <c r="B183" t="s">
         <v>505</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>173</v>
       </c>
       <c r="B184" t="s">
         <v>505</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>49</v>
       </c>
       <c r="B185" t="s">
         <v>506</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>36</v>
       </c>
       <c r="B186" t="s">
         <v>507</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>181</v>
       </c>
       <c r="B187" t="s">
         <v>508</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>240</v>
       </c>
       <c r="B188" t="s">
         <v>509</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>47</v>
       </c>
       <c r="B189" t="s">
         <v>510</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" t="s">
         <v>511</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>17</v>
       </c>
       <c r="B191" t="s">
         <v>512</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>33</v>
       </c>
       <c r="B192" t="s">
         <v>513</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>14</v>
       </c>
       <c r="B193" t="s">
         <v>514</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>515</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>44</v>
       </c>
       <c r="B195" t="s">
         <v>516</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>41</v>
       </c>
       <c r="B196" t="s">
         <v>517</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>55</v>
       </c>
       <c r="B197" t="s">
         <v>518</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>56</v>
       </c>
       <c r="B198" t="s">
         <v>519</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>206</v>
       </c>
       <c r="B199" t="s">
         <v>520</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>205</v>
       </c>
       <c r="B200" t="s">
         <v>521</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>224</v>
       </c>
       <c r="B201" t="s">
         <v>522</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>227</v>
       </c>
       <c r="B202" t="s">
         <v>523</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>251</v>
       </c>
       <c r="B203" t="s">
         <v>524</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>248</v>
       </c>
       <c r="B204" t="s">
         <v>525</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>159</v>
       </c>
       <c r="B205" t="s">
         <v>526</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>138</v>
       </c>
       <c r="B206" t="s">
         <v>526</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>155</v>
       </c>
       <c r="B207" t="s">
         <v>526</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>114</v>
       </c>
       <c r="B208" t="s">
         <v>526</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>94</v>
       </c>
       <c r="B209" t="s">
         <v>527</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>77</v>
       </c>
       <c r="B210" t="s">
         <v>527</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>61</v>
       </c>
       <c r="B211" t="s">
         <v>528</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>102</v>
       </c>
       <c r="B212" t="s">
         <v>528</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>185</v>
       </c>
       <c r="B213" t="s">
         <v>529</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>203</v>
       </c>
       <c r="B214" t="s">
         <v>529</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>208</v>
       </c>
       <c r="B215" t="s">
         <v>529</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>245</v>
       </c>
       <c r="B216" t="s">
         <v>529</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>254</v>
       </c>
       <c r="B217" t="s">
         <v>529</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>230</v>
       </c>
       <c r="B218" t="s">
         <v>529</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>99</v>
       </c>
       <c r="B219" t="s">
         <v>530</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>108</v>
       </c>
       <c r="B220" t="s">
         <v>530</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>107</v>
       </c>
       <c r="B221" t="s">
         <v>530</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>86</v>
       </c>
       <c r="B222" t="s">
         <v>530</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>85</v>
       </c>
       <c r="B223" t="s">
         <v>530</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>68</v>
       </c>
       <c r="B224" t="s">
         <v>530</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>38</v>
       </c>
       <c r="B225" t="s">
         <v>531</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>184</v>
       </c>
       <c r="B226" t="s">
         <v>531</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>194</v>
       </c>
       <c r="B227" t="s">
         <v>531</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>255</v>
       </c>
       <c r="B228" t="s">
         <v>531</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>244</v>
       </c>
       <c r="B229" t="s">
         <v>531</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>220</v>
       </c>
       <c r="B230" t="s">
         <v>531</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>130</v>
       </c>
       <c r="B231" t="s">
         <v>532</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>117</v>
       </c>
       <c r="B232" t="s">
         <v>533</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>121</v>
       </c>
       <c r="B233" t="s">
         <v>534</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>146</v>
       </c>
       <c r="B234" t="s">
         <v>535</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>5</v>
       </c>
       <c r="B235" t="s">
         <v>536</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>98</v>
       </c>
       <c r="B236" t="s">
         <v>536</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>106</v>
       </c>
       <c r="B237" t="s">
         <v>536</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>109</v>
       </c>
       <c r="B238" t="s">
         <v>536</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>83</v>
       </c>
       <c r="B239" t="s">
         <v>536</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>88</v>
       </c>
       <c r="B240" t="s">
         <v>536</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>66</v>
       </c>
       <c r="B241" t="s">
         <v>536</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>144</v>
       </c>
       <c r="B242" t="s">
         <v>536</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>137</v>
       </c>
       <c r="B243" t="s">
         <v>538</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>76</v>
       </c>
       <c r="B244" t="s">
         <v>539</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>93</v>
       </c>
       <c r="B245" t="s">
         <v>539</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>15</v>
       </c>
       <c r="B246" t="s">
         <v>540</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>32</v>
       </c>
       <c r="B247" t="s">
         <v>540</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>22</v>
       </c>
       <c r="B248" t="s">
         <v>540</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>71</v>
       </c>
       <c r="B249" t="s">
         <v>541</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>87</v>
       </c>
       <c r="B250" t="s">
         <v>542</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>84</v>
       </c>
       <c r="B251" t="s">
         <v>543</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>110</v>
       </c>
       <c r="B252" t="s">
         <v>544</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>105</v>
       </c>
       <c r="B253" t="s">
         <v>545</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>96</v>
       </c>
       <c r="B254" t="s">
         <v>546</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>100</v>
       </c>
       <c r="B255" t="s">
         <v>547</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>120</v>
       </c>
       <c r="B256" t="s">
         <v>548</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>174</v>
       </c>
       <c r="B257" t="s">
         <v>549</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>151</v>
       </c>
       <c r="B258" t="s">
         <v>550</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>141</v>
       </c>
       <c r="B259" t="s">
         <v>551</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>122</v>
       </c>
       <c r="B260" t="s">
         <v>552</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>116</v>
       </c>
       <c r="B261" t="s">
         <v>553</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>127</v>
       </c>
       <c r="B262" t="s">
         <v>554</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>555</v>
       </c>
       <c r="B263" t="s">
         <v>558</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>556</v>
       </c>
       <c r="B264" t="s">
         <v>559</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>563</v>
       </c>
       <c r="B265" t="s">
         <v>568</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>564</v>
       </c>
       <c r="B266" t="s">
         <v>568</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>565</v>
       </c>
       <c r="B267" t="s">
         <v>568</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>566</v>
       </c>
       <c r="B268" t="s">
         <v>569</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>567</v>
       </c>
       <c r="B269" t="s">
         <v>569</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>562</v>
       </c>
       <c r="B270" t="s">
         <v>569</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>570</v>
       </c>
       <c r="B271" t="s">
         <v>571</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>575</v>
       </c>
       <c r="B272" t="s">
         <v>572</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>576</v>
       </c>
       <c r="B273" t="s">
         <v>573</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>577</v>
       </c>
       <c r="B274" t="s">
         <v>574</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>579</v>
       </c>
       <c r="B275" t="s">
         <v>587</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>580</v>
       </c>
       <c r="B276" t="s">
         <v>587</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>581</v>
       </c>
       <c r="B277" t="s">
         <v>587</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>582</v>
       </c>
       <c r="B278" t="s">
         <v>587</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>583</v>
       </c>
       <c r="B279" t="s">
         <v>587</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>584</v>
       </c>
       <c r="B280" t="s">
         <v>587</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>585</v>
       </c>
       <c r="B281" t="s">
         <v>587</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>586</v>
       </c>
       <c r="B282" t="s">
         <v>587</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>589</v>
       </c>
       <c r="B283" t="s">
         <v>595</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>590</v>
       </c>
       <c r="B284" t="s">
         <v>595</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>591</v>
       </c>
       <c r="B285" t="s">
         <v>595</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>592</v>
       </c>
       <c r="B286" t="s">
         <v>595</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>593</v>
       </c>
       <c r="B287" t="s">
         <v>595</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>594</v>
       </c>
       <c r="B288" t="s">
         <v>595</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>597</v>
       </c>
       <c r="B289" t="s">
         <v>602</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>598</v>
       </c>
       <c r="B290" t="s">
         <v>602</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>599</v>
       </c>
       <c r="B291" t="s">
         <v>602</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>600</v>
       </c>
       <c r="B292" t="s">
         <v>602</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>603</v>
       </c>
@@ -6469,10 +6530,13 @@
         <v>605</v>
       </c>
       <c r="C293" t="s">
+        <v>724</v>
+      </c>
+      <c r="D293" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>604</v>
       </c>
@@ -6480,10 +6544,13 @@
         <v>605</v>
       </c>
       <c r="C294" t="s">
+        <v>724</v>
+      </c>
+      <c r="D294" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>607</v>
       </c>
@@ -6491,649 +6558,816 @@
         <v>608</v>
       </c>
       <c r="C295" t="s">
+        <v>725</v>
+      </c>
+      <c r="D295" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
+        <v>660</v>
+      </c>
+      <c r="B296" t="s">
+        <v>718</v>
+      </c>
+      <c r="C296" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
         <v>611</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>610</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C297" t="s">
+        <v>739</v>
+      </c>
+      <c r="D297" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>612</v>
+      </c>
+      <c r="B298" t="s">
+        <v>610</v>
+      </c>
+      <c r="C298" t="s">
+        <v>739</v>
+      </c>
+      <c r="D298" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>613</v>
+      </c>
+      <c r="B299" t="s">
+        <v>610</v>
+      </c>
+      <c r="C299" t="s">
+        <v>740</v>
+      </c>
+      <c r="D299" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>614</v>
+      </c>
+      <c r="B300" t="s">
+        <v>610</v>
+      </c>
+      <c r="C300" t="s">
+        <v>740</v>
+      </c>
+      <c r="D300" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>615</v>
+      </c>
+      <c r="B301" t="s">
+        <v>610</v>
+      </c>
+      <c r="C301" t="s">
+        <v>740</v>
+      </c>
+      <c r="D301" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>616</v>
+      </c>
+      <c r="B302" t="s">
+        <v>610</v>
+      </c>
+      <c r="C302" t="s">
+        <v>740</v>
+      </c>
+      <c r="D302" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>617</v>
+      </c>
+      <c r="B303" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303" t="s">
+        <v>740</v>
+      </c>
+      <c r="D303" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>618</v>
+      </c>
+      <c r="B304" t="s">
+        <v>610</v>
+      </c>
+      <c r="C304" t="s">
+        <v>740</v>
+      </c>
+      <c r="D304" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>619</v>
+      </c>
+      <c r="B305" t="s">
+        <v>620</v>
+      </c>
+      <c r="C305" t="s">
+        <v>722</v>
+      </c>
+      <c r="D305" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>621</v>
+      </c>
+      <c r="B306" t="s">
+        <v>620</v>
+      </c>
+      <c r="C306" t="s">
+        <v>722</v>
+      </c>
+      <c r="D306" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>622</v>
+      </c>
+      <c r="B307" t="s">
+        <v>632</v>
+      </c>
+      <c r="C307" t="s">
+        <v>723</v>
+      </c>
+      <c r="D307" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>623</v>
+      </c>
+      <c r="B308" t="s">
+        <v>632</v>
+      </c>
+      <c r="C308" t="s">
+        <v>723</v>
+      </c>
+      <c r="D308" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>624</v>
+      </c>
+      <c r="B309" t="s">
+        <v>633</v>
+      </c>
+      <c r="C309" t="s">
+        <v>723</v>
+      </c>
+      <c r="D309" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>625</v>
+      </c>
+      <c r="B310" t="s">
+        <v>633</v>
+      </c>
+      <c r="C310" t="s">
+        <v>723</v>
+      </c>
+      <c r="D310" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>626</v>
+      </c>
+      <c r="B311" t="s">
+        <v>634</v>
+      </c>
+      <c r="C311" t="s">
+        <v>723</v>
+      </c>
+      <c r="D311" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>627</v>
+      </c>
+      <c r="B312" t="s">
+        <v>634</v>
+      </c>
+      <c r="C312" t="s">
+        <v>723</v>
+      </c>
+      <c r="D312" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" t="s">
+        <v>635</v>
+      </c>
+      <c r="C313" t="s">
+        <v>723</v>
+      </c>
+      <c r="D313" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>629</v>
+      </c>
+      <c r="B314" t="s">
+        <v>635</v>
+      </c>
+      <c r="C314" t="s">
+        <v>723</v>
+      </c>
+      <c r="D314" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>630</v>
+      </c>
+      <c r="B315" t="s">
+        <v>636</v>
+      </c>
+      <c r="C315" t="s">
+        <v>723</v>
+      </c>
+      <c r="D315" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>631</v>
+      </c>
+      <c r="B316" t="s">
+        <v>636</v>
+      </c>
+      <c r="C316" t="s">
+        <v>723</v>
+      </c>
+      <c r="D316" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>638</v>
+      </c>
+      <c r="B317" t="s">
+        <v>637</v>
+      </c>
+      <c r="C317" t="s">
+        <v>720</v>
+      </c>
+      <c r="D317" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>639</v>
+      </c>
+      <c r="B318" t="s">
+        <v>637</v>
+      </c>
+      <c r="C318" t="s">
+        <v>720</v>
+      </c>
+      <c r="D318" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" t="s">
+        <v>643</v>
+      </c>
+      <c r="C319" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>641</v>
+      </c>
+      <c r="B320" t="s">
+        <v>644</v>
+      </c>
+      <c r="C320" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>642</v>
+      </c>
+      <c r="B321" t="s">
+        <v>645</v>
+      </c>
+      <c r="C321" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" t="s">
+        <v>650</v>
+      </c>
+      <c r="C322" t="s">
+        <v>726</v>
+      </c>
+      <c r="D322" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>647</v>
+      </c>
+      <c r="B323" t="s">
+        <v>651</v>
+      </c>
+      <c r="C323" t="s">
+        <v>726</v>
+      </c>
+      <c r="D323" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" t="s">
-        <v>614</v>
-      </c>
-      <c r="B298" t="s">
-        <v>613</v>
-      </c>
-      <c r="C298" t="s">
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>648</v>
+      </c>
+      <c r="B324" t="s">
+        <v>652</v>
+      </c>
+      <c r="C324" t="s">
+        <v>727</v>
+      </c>
+      <c r="D324" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299" t="s">
-        <v>615</v>
-      </c>
-      <c r="B299" t="s">
-        <v>613</v>
-      </c>
-      <c r="C299" t="s">
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>649</v>
+      </c>
+      <c r="B325" t="s">
+        <v>653</v>
+      </c>
+      <c r="C325" t="s">
+        <v>727</v>
+      </c>
+      <c r="D325" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" t="s">
-        <v>616</v>
-      </c>
-      <c r="B300" t="s">
-        <v>613</v>
-      </c>
-      <c r="C300" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" t="s">
-        <v>617</v>
-      </c>
-      <c r="B301" t="s">
-        <v>613</v>
-      </c>
-      <c r="C301" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" t="s">
-        <v>618</v>
-      </c>
-      <c r="B302" t="s">
-        <v>613</v>
-      </c>
-      <c r="C302" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" t="s">
-        <v>619</v>
-      </c>
-      <c r="B303" t="s">
-        <v>613</v>
-      </c>
-      <c r="C303" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" t="s">
-        <v>620</v>
-      </c>
-      <c r="B304" t="s">
-        <v>613</v>
-      </c>
-      <c r="C304" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" t="s">
-        <v>621</v>
-      </c>
-      <c r="B305" t="s">
-        <v>613</v>
-      </c>
-      <c r="C305" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" t="s">
-        <v>622</v>
-      </c>
-      <c r="B306" t="s">
-        <v>623</v>
-      </c>
-      <c r="C306" t="s">
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" t="s">
+        <v>659</v>
+      </c>
+      <c r="C326" t="s">
+        <v>728</v>
+      </c>
+      <c r="D326" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" t="s">
-        <v>624</v>
-      </c>
-      <c r="B307" t="s">
-        <v>623</v>
-      </c>
-      <c r="C307" t="s">
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>655</v>
+      </c>
+      <c r="B327" t="s">
+        <v>659</v>
+      </c>
+      <c r="C327" t="s">
+        <v>728</v>
+      </c>
+      <c r="D327" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308" t="s">
-        <v>625</v>
-      </c>
-      <c r="B308" t="s">
-        <v>635</v>
-      </c>
-      <c r="C308" t="s">
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>656</v>
+      </c>
+      <c r="B328" t="s">
+        <v>659</v>
+      </c>
+      <c r="C328" t="s">
+        <v>729</v>
+      </c>
+      <c r="D328" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="A309" t="s">
-        <v>626</v>
-      </c>
-      <c r="B309" t="s">
-        <v>635</v>
-      </c>
-      <c r="C309" t="s">
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>657</v>
+      </c>
+      <c r="B329" t="s">
+        <v>659</v>
+      </c>
+      <c r="C329" t="s">
+        <v>729</v>
+      </c>
+      <c r="D329" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="A310" t="s">
-        <v>627</v>
-      </c>
-      <c r="B310" t="s">
-        <v>636</v>
-      </c>
-      <c r="C310" t="s">
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" t="s">
+        <v>659</v>
+      </c>
+      <c r="C330" t="s">
+        <v>729</v>
+      </c>
+      <c r="D330" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="A311" t="s">
-        <v>628</v>
-      </c>
-      <c r="B311" t="s">
-        <v>636</v>
-      </c>
-      <c r="C311" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" t="s">
-        <v>629</v>
-      </c>
-      <c r="B312" t="s">
-        <v>637</v>
-      </c>
-      <c r="C312" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" t="s">
-        <v>630</v>
-      </c>
-      <c r="B313" t="s">
-        <v>637</v>
-      </c>
-      <c r="C313" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" t="s">
-        <v>631</v>
-      </c>
-      <c r="B314" t="s">
-        <v>638</v>
-      </c>
-      <c r="C314" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" t="s">
-        <v>632</v>
-      </c>
-      <c r="B315" t="s">
-        <v>638</v>
-      </c>
-      <c r="C315" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" t="s">
-        <v>633</v>
-      </c>
-      <c r="B316" t="s">
-        <v>639</v>
-      </c>
-      <c r="C316" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" t="s">
-        <v>634</v>
-      </c>
-      <c r="B317" t="s">
-        <v>639</v>
-      </c>
-      <c r="C317" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" t="s">
-        <v>641</v>
-      </c>
-      <c r="B318" t="s">
-        <v>640</v>
-      </c>
-      <c r="C318" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" t="s">
-        <v>642</v>
-      </c>
-      <c r="B319" t="s">
-        <v>640</v>
-      </c>
-      <c r="C319" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" t="s">
-        <v>643</v>
-      </c>
-      <c r="B320" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" t="s">
-        <v>644</v>
-      </c>
-      <c r="B321" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" t="s">
-        <v>645</v>
-      </c>
-      <c r="B322" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" t="s">
-        <v>649</v>
-      </c>
-      <c r="B323" t="s">
-        <v>653</v>
-      </c>
-      <c r="C323" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" t="s">
-        <v>650</v>
-      </c>
-      <c r="B324" t="s">
-        <v>654</v>
-      </c>
-      <c r="C324" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" t="s">
-        <v>651</v>
-      </c>
-      <c r="B325" t="s">
-        <v>655</v>
-      </c>
-      <c r="C325" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" t="s">
-        <v>652</v>
-      </c>
-      <c r="B326" t="s">
-        <v>656</v>
-      </c>
-      <c r="C326" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" t="s">
-        <v>657</v>
-      </c>
-      <c r="B327" t="s">
-        <v>662</v>
-      </c>
-      <c r="C327" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" t="s">
-        <v>658</v>
-      </c>
-      <c r="B328" t="s">
-        <v>662</v>
-      </c>
-      <c r="C328" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" t="s">
-        <v>659</v>
-      </c>
-      <c r="B329" t="s">
-        <v>662</v>
-      </c>
-      <c r="C329" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" t="s">
-        <v>660</v>
-      </c>
-      <c r="B330" t="s">
-        <v>662</v>
-      </c>
-      <c r="C330" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>661</v>
       </c>
       <c r="B331" t="s">
+        <v>665</v>
+      </c>
+      <c r="C331" t="s">
+        <v>730</v>
+      </c>
+      <c r="D331" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
         <v>662</v>
       </c>
-      <c r="C331" t="s">
+      <c r="B332" t="s">
+        <v>666</v>
+      </c>
+      <c r="C332" t="s">
+        <v>730</v>
+      </c>
+      <c r="D332" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>663</v>
+      </c>
+      <c r="B333" t="s">
+        <v>667</v>
+      </c>
+      <c r="C333" t="s">
+        <v>731</v>
+      </c>
+      <c r="D333" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>664</v>
+      </c>
+      <c r="B334" t="s">
+        <v>667</v>
+      </c>
+      <c r="C334" t="s">
+        <v>731</v>
+      </c>
+      <c r="D334" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" t="s">
+        <v>688</v>
+      </c>
+      <c r="C335" t="s">
+        <v>734</v>
+      </c>
+      <c r="D335" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>669</v>
+      </c>
+      <c r="B336" t="s">
+        <v>689</v>
+      </c>
+      <c r="C336" t="s">
+        <v>734</v>
+      </c>
+      <c r="D336" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>681</v>
+      </c>
+      <c r="B337" t="s">
+        <v>690</v>
+      </c>
+      <c r="C337" t="s">
+        <v>735</v>
+      </c>
+      <c r="D337" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>682</v>
+      </c>
+      <c r="B338" t="s">
+        <v>691</v>
+      </c>
+      <c r="C338" t="s">
+        <v>735</v>
+      </c>
+      <c r="D338" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>683</v>
+      </c>
+      <c r="B339" t="s">
+        <v>692</v>
+      </c>
+      <c r="C339" t="s">
+        <v>736</v>
+      </c>
+      <c r="D339" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>684</v>
+      </c>
+      <c r="B340" t="s">
+        <v>692</v>
+      </c>
+      <c r="C340" t="s">
+        <v>736</v>
+      </c>
+      <c r="D340" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>670</v>
+      </c>
+      <c r="B341" t="s">
+        <v>693</v>
+      </c>
+      <c r="C341" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>671</v>
+      </c>
+      <c r="B342" t="s">
+        <v>694</v>
+      </c>
+      <c r="C342" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>672</v>
+      </c>
+      <c r="B343" t="s">
+        <v>695</v>
+      </c>
+      <c r="C343" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>673</v>
+      </c>
+      <c r="B344" t="s">
+        <v>696</v>
+      </c>
+      <c r="C344" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>674</v>
+      </c>
+      <c r="B345" t="s">
+        <v>697</v>
+      </c>
+      <c r="C345" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>675</v>
+      </c>
+      <c r="B346" t="s">
+        <v>698</v>
+      </c>
+      <c r="C346" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>676</v>
+      </c>
+      <c r="B347" t="s">
+        <v>699</v>
+      </c>
+      <c r="C347" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>677</v>
+      </c>
+      <c r="B348" t="s">
+        <v>700</v>
+      </c>
+      <c r="C348" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>678</v>
+      </c>
+      <c r="B349" t="s">
+        <v>701</v>
+      </c>
+      <c r="C349" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>679</v>
+      </c>
+      <c r="B350" t="s">
+        <v>702</v>
+      </c>
+      <c r="C350" t="s">
+        <v>732</v>
+      </c>
+      <c r="D350" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" t="s">
-        <v>663</v>
-      </c>
-      <c r="B332" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" t="s">
-        <v>664</v>
-      </c>
-      <c r="B333" t="s">
-        <v>669</v>
-      </c>
-      <c r="C333" t="s">
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>680</v>
+      </c>
+      <c r="B351" t="s">
+        <v>702</v>
+      </c>
+      <c r="C351" t="s">
+        <v>732</v>
+      </c>
+      <c r="D351" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>685</v>
+      </c>
+      <c r="B352" t="s">
+        <v>703</v>
+      </c>
+      <c r="C352" t="s">
+        <v>733</v>
+      </c>
+      <c r="D352" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="A334" t="s">
-        <v>665</v>
-      </c>
-      <c r="B334" t="s">
-        <v>670</v>
-      </c>
-      <c r="C334" t="s">
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>685</v>
+      </c>
+      <c r="B353" t="s">
+        <v>703</v>
+      </c>
+      <c r="C353" t="s">
+        <v>733</v>
+      </c>
+      <c r="D353" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="A335" t="s">
-        <v>666</v>
-      </c>
-      <c r="B335" t="s">
-        <v>671</v>
-      </c>
-      <c r="C335" t="s">
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>686</v>
+      </c>
+      <c r="B354" t="s">
+        <v>703</v>
+      </c>
+      <c r="C354" t="s">
+        <v>733</v>
+      </c>
+      <c r="D354" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>687</v>
+      </c>
+      <c r="B355" t="s">
+        <v>703</v>
+      </c>
+      <c r="C355" t="s">
+        <v>733</v>
+      </c>
+      <c r="D355" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="D356" t="s">
         <v>717</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" t="s">
-        <v>667</v>
-      </c>
-      <c r="B336" t="s">
-        <v>671</v>
-      </c>
-      <c r="C336" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" t="s">
-        <v>672</v>
-      </c>
-      <c r="B337" t="s">
-        <v>692</v>
-      </c>
-      <c r="C337" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" t="s">
-        <v>673</v>
-      </c>
-      <c r="B338" t="s">
-        <v>693</v>
-      </c>
-      <c r="C338" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" t="s">
-        <v>685</v>
-      </c>
-      <c r="B339" t="s">
-        <v>694</v>
-      </c>
-      <c r="C339" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" t="s">
-        <v>686</v>
-      </c>
-      <c r="B340" t="s">
-        <v>695</v>
-      </c>
-      <c r="C340" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" t="s">
-        <v>687</v>
-      </c>
-      <c r="B341" t="s">
-        <v>696</v>
-      </c>
-      <c r="C341" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" t="s">
-        <v>688</v>
-      </c>
-      <c r="B342" t="s">
-        <v>696</v>
-      </c>
-      <c r="C342" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" t="s">
-        <v>674</v>
-      </c>
-      <c r="B343" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" t="s">
-        <v>675</v>
-      </c>
-      <c r="B344" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" t="s">
-        <v>676</v>
-      </c>
-      <c r="B345" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" t="s">
-        <v>677</v>
-      </c>
-      <c r="B346" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" t="s">
-        <v>678</v>
-      </c>
-      <c r="B347" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" t="s">
-        <v>679</v>
-      </c>
-      <c r="B348" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" t="s">
-        <v>680</v>
-      </c>
-      <c r="B349" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" t="s">
-        <v>681</v>
-      </c>
-      <c r="B350" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" t="s">
-        <v>682</v>
-      </c>
-      <c r="B351" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" t="s">
-        <v>683</v>
-      </c>
-      <c r="B352" t="s">
-        <v>706</v>
-      </c>
-      <c r="C352" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" t="s">
-        <v>684</v>
-      </c>
-      <c r="B353" t="s">
-        <v>706</v>
-      </c>
-      <c r="C353" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" t="s">
-        <v>689</v>
-      </c>
-      <c r="B354" t="s">
-        <v>707</v>
-      </c>
-      <c r="C354" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" t="s">
-        <v>689</v>
-      </c>
-      <c r="B355" t="s">
-        <v>707</v>
-      </c>
-      <c r="C355" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" t="s">
-        <v>690</v>
-      </c>
-      <c r="B356" t="s">
-        <v>707</v>
-      </c>
-      <c r="C356" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" t="s">
-        <v>691</v>
-      </c>
-      <c r="B357" t="s">
-        <v>707</v>
-      </c>
-      <c r="C357" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="C358" t="s">
-        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A41B61-00D9-B647-8896-92B77DD3E1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{053046A4-1FEB-004C-AED4-FB02A41E15BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="733">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
   <si>
-    <t>2020.03.03.20030668-p18-64%1.png</t>
-  </si>
-  <si>
     <t>2020.03.12.20034686-p17-91-4.png</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>2020.03.12.20034686-p17-91-5.png</t>
   </si>
   <si>
-    <t>2020.03.03.20030668-p18-64%0.png</t>
-  </si>
-  <si>
     <t>2020.03.01.20029769-p21-73_1%0.png</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>2020.03.22.20040782-p25-1546.png</t>
   </si>
   <si>
-    <t>2020.03.03.20030775-p11-90%0.png</t>
-  </si>
-  <si>
     <t>2020.02.25.20021568-p23-108%4.png</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
     <t>2020.02.25.20021568-p23-108%5.png</t>
   </si>
   <si>
-    <t>2020.03.03.20030775-p11-90%1.png</t>
-  </si>
-  <si>
     <t>2020.03.11.20033159-p12-45%3.png</t>
   </si>
   <si>
@@ -588,9 +576,6 @@
     <t>2020.03.18.20038125-p15-54-1.png</t>
   </si>
   <si>
-    <t>2020.01.24.919183-p27-134.png</t>
-  </si>
-  <si>
     <t>2020.03.03.20030775-p10-88%1.png</t>
   </si>
   <si>
@@ -966,15 +951,9 @@
     <t>['Figure 1. The typical manifestations in CT and chest X-ray for patients with COVID-19. Cross-sectional CT shows (C) Ground glass opacity in bilateral upper lobe.  ']</t>
   </si>
   <si>
-    <t>['Figure 1 Typical chest radiographs of a patient. Chest radiographs of one patient on day 1 at ICU admission (A) and day 5 (B); CT scan of chest of the same patient on day 10 and day 20 after ICU admission. ']</t>
-  </si>
-  <si>
     <t>['Figure2. 57-year old man with history of recent travel to Wuhan, presenting with fever, cough and shortness of breath. Axial thin-section non-contrast CT scan shows diffuse bilateral confluent and patchy ground-glass, air-bronchogram and consolidation, characterized by peripheral distribution. Multiple lobes were involved.']</t>
   </si>
   <si>
-    <t>['Figure 4. 57-year old man as mild NCP patients with history of recent travel to Wuhan. Ground-glass opacities with a peripheral distribution in bilateral lung (green arrow), and with enlarged image in the upper right corner of A image. Vascular enlargement sign was observed in the lesion located in the left upper lobe, and with enlarged image in the upper left corner of B image (yellow arrow). The lesions in the left lower lobe shows cobblestone/reticular pattern, and with enlarged image in the lower right corner of B image (red yellow).']</t>
-  </si>
-  <si>
     <t>['Figure 3. 76-year old man with history of recent travel to Wuhan, presenting with fever and productive cough. Axial thin-section non-contrast CT image shows diffusion lesions in bilateral lung, mainly manifested as ground-glass opacification (red arrow and red line around region), and cobble stone/Reticular pattern (blue arrow and blue line around region). Besides, Vascular enlargement sign was observed in the lesions (yellow arrow).']</t>
   </si>
   <si>
@@ -1419,13 +1398,7 @@
     <t>Patient 76</t>
   </si>
   <si>
-    <t>Patient 77</t>
-  </si>
-  <si>
     <t>Patient 78</t>
-  </si>
-  <si>
-    <t>Patient 79</t>
   </si>
   <si>
     <t>Patient 80</t>
@@ -2410,6 +2383,10 @@
   </si>
   <si>
     <t>10.1136/bmj.m606</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.24.919183-p27-134.png</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3296,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3312,1212 +3289,1212 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>732</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D42" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D47" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D53" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D58" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D67" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D69" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D70" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D72" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D73" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D75" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D76" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D77" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D78" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B84" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B92" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D97" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D98" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D100" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D101" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D108" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D109" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4525,1594 +4502,1594 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D112" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D113" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D114" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D120" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D121" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D125" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D126" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="B128" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D128" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="B129" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D130" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D131" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D134" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D135" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D136" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D138" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D140" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D141" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="B142" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D142" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D143" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="B144" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D144" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D145" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D146" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D147" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D149" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B151" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D151" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B153" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D153" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B154" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D154" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="B155" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D155" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D156" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B157" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D157" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B158" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D158" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="B159" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D159" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D161" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D162" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B163" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D163" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D164" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D165" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B166" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D166" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D167" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D168" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D169" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D170" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D171" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D172" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="B173" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D173" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="B174" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D174" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D175" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D176" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="B177" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D177" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B179" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D181" t="s">
-        <v>355</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D182" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="B184" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D184" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D185" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D186" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D187" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D188" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D189" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D190" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B191" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D191" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D192" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D193" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B194" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D194" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D195" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D196" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D197" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D198" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="B199" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D199" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B200" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D200" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="B201" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D201" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="B202" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D202" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="B203" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D203" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="B204" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D204" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="B205" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D205" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B206" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D206" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="B207" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D207" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B208" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D208" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D209" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="B210" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D210" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B211" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D211" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="B212" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D212" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B213" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D213" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D214" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="B215" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D215" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="B216" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D216" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>254</v>
+        <v>105</v>
       </c>
       <c r="B217" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D217" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="B218" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D218" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B219" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D219" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B220" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D220" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B221" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D221" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="B222" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="B223" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D223" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B224" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D224" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="B225" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D225" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B226" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D226" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="B227" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D227" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="B228" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D228" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="B229" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D229" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="B230" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D230" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D231" t="s">
-        <v>264</v>
+        <v>528</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B232" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D232" t="s">
-        <v>264</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B233" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D233" t="s">
-        <v>264</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B234" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D234" t="s">
-        <v>264</v>
+        <v>528</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B235" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D235" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B236" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D236" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B237" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D237" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B238" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D238" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B239" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D239" t="s">
-        <v>537</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B240" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D240" t="s">
-        <v>537</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B241" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D241" t="s">
-        <v>537</v>
+        <v>369</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="B242" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D242" t="s">
-        <v>537</v>
+        <v>370</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="B243" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D243" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D244" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B245" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D245" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B246" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D246" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B247" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D247" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B248" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D248" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B249" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D249" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D250" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B251" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D251" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B252" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D252" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B253" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D253" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B254" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D254" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B255" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D255" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6120,131 +6097,131 @@
         <v>120</v>
       </c>
       <c r="B256" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D256" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="B257" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D257" t="s">
-        <v>378</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B258" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D258" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>141</v>
+        <v>546</v>
       </c>
       <c r="B259" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D259" t="s">
-        <v>378</v>
+        <v>548</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>122</v>
+        <v>547</v>
       </c>
       <c r="B260" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D260" t="s">
-        <v>378</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>116</v>
+        <v>554</v>
       </c>
       <c r="B261" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D261" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>127</v>
+        <v>555</v>
       </c>
       <c r="B262" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D262" t="s">
-        <v>378</v>
+        <v>552</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B263" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D263" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B264" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D264" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B265" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D265" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B266" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D266" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B267" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D267" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6252,10 +6229,10 @@
         <v>566</v>
       </c>
       <c r="B268" t="s">
+        <v>563</v>
+      </c>
+      <c r="D268" t="s">
         <v>569</v>
-      </c>
-      <c r="D268" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6263,21 +6240,21 @@
         <v>567</v>
       </c>
       <c r="B269" t="s">
+        <v>564</v>
+      </c>
+      <c r="D269" t="s">
         <v>569</v>
-      </c>
-      <c r="D269" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B270" t="s">
+        <v>565</v>
+      </c>
+      <c r="D270" t="s">
         <v>569</v>
-      </c>
-      <c r="D270" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6285,1093 +6262,1049 @@
         <v>570</v>
       </c>
       <c r="B271" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D271" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B272" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D272" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B273" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D273" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B274" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D274" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
+        <v>574</v>
+      </c>
+      <c r="B275" t="s">
+        <v>578</v>
+      </c>
+      <c r="D275" t="s">
         <v>579</v>
-      </c>
-      <c r="B275" t="s">
-        <v>587</v>
-      </c>
-      <c r="D275" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B276" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D276" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B277" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D277" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B278" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D278" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B279" t="s">
+        <v>586</v>
+      </c>
+      <c r="D279" t="s">
         <v>587</v>
-      </c>
-      <c r="D279" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B280" t="s">
+        <v>586</v>
+      </c>
+      <c r="D280" t="s">
         <v>587</v>
-      </c>
-      <c r="D280" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B281" t="s">
+        <v>586</v>
+      </c>
+      <c r="D281" t="s">
         <v>587</v>
-      </c>
-      <c r="D281" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
+        <v>583</v>
+      </c>
+      <c r="B282" t="s">
         <v>586</v>
       </c>
-      <c r="B282" t="s">
+      <c r="D282" t="s">
         <v>587</v>
-      </c>
-      <c r="D282" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B283" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D283" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B284" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D284" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B285" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D285" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
+        <v>589</v>
+      </c>
+      <c r="B286" t="s">
+        <v>593</v>
+      </c>
+      <c r="D286" t="s">
         <v>592</v>
-      </c>
-      <c r="B286" t="s">
-        <v>595</v>
-      </c>
-      <c r="D286" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
+        <v>590</v>
+      </c>
+      <c r="B287" t="s">
         <v>593</v>
       </c>
-      <c r="B287" t="s">
-        <v>595</v>
-      </c>
       <c r="D287" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B288" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D288" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
+        <v>594</v>
+      </c>
+      <c r="B289" t="s">
+        <v>596</v>
+      </c>
+      <c r="C289" t="s">
+        <v>715</v>
+      </c>
+      <c r="D289" t="s">
         <v>597</v>
-      </c>
-      <c r="B289" t="s">
-        <v>602</v>
-      </c>
-      <c r="D289" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B290" t="s">
-        <v>602</v>
+        <v>596</v>
+      </c>
+      <c r="C290" t="s">
+        <v>715</v>
       </c>
       <c r="D290" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
+        <v>598</v>
+      </c>
+      <c r="B291" t="s">
         <v>599</v>
       </c>
-      <c r="B291" t="s">
-        <v>602</v>
+      <c r="C291" t="s">
+        <v>716</v>
       </c>
       <c r="D291" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="B292" t="s">
-        <v>602</v>
-      </c>
-      <c r="D292" t="s">
-        <v>601</v>
+        <v>709</v>
+      </c>
+      <c r="C292" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B293" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C293" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D293" t="s">
-        <v>606</v>
+        <v>695</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B294" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C294" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D294" t="s">
-        <v>606</v>
+        <v>695</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B295" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C295" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D295" t="s">
-        <v>609</v>
+        <v>695</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="B296" t="s">
-        <v>718</v>
+        <v>601</v>
       </c>
       <c r="C296" t="s">
-        <v>719</v>
+        <v>731</v>
+      </c>
+      <c r="D296" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B297" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C297" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D297" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B298" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C298" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D298" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B299" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C299" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D299" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B300" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C300" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D300" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B301" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C301" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="D301" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B302" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C302" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="D302" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B303" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="C303" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="D303" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B304" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="C304" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="D304" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B305" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C305" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D305" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B306" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C306" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D306" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B307" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C307" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D307" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B308" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C308" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D308" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B309" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C309" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D309" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B310" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C310" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D310" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B311" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C311" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D311" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" t="s">
         <v>627</v>
       </c>
-      <c r="B312" t="s">
-        <v>634</v>
-      </c>
       <c r="C312" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D312" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313" t="s">
         <v>628</v>
       </c>
-      <c r="B313" t="s">
-        <v>635</v>
-      </c>
       <c r="C313" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D313" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B314" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C314" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D314" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B315" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C315" t="s">
-        <v>723</v>
-      </c>
-      <c r="D315" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B316" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C316" t="s">
-        <v>723</v>
-      </c>
-      <c r="D316" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B317" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C317" t="s">
-        <v>720</v>
-      </c>
-      <c r="D317" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B318" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C318" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D318" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B319" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C319" t="s">
-        <v>721</v>
+        <v>717</v>
+      </c>
+      <c r="D319" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B320" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C320" t="s">
-        <v>721</v>
+        <v>718</v>
+      </c>
+      <c r="D320" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B321" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C321" t="s">
-        <v>721</v>
+        <v>718</v>
+      </c>
+      <c r="D321" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B322" t="s">
         <v>650</v>
       </c>
       <c r="C322" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D322" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B323" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C323" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D323" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B324" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C324" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D324" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B325" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C325" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D325" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B326" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C326" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D326" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B327" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C327" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D327" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B328" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C328" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D328" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B329" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C329" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D329" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
+        <v>655</v>
+      </c>
+      <c r="B330" t="s">
         <v>658</v>
       </c>
-      <c r="B330" t="s">
-        <v>659</v>
-      </c>
       <c r="C330" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D330" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B331" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="C331" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D331" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B332" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="C332" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D332" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B333" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D333" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B334" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D334" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B335" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C335" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D335" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B336" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C336" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D336" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="B337" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C337" t="s">
-        <v>735</v>
-      </c>
-      <c r="D337" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="B338" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C338" t="s">
-        <v>735</v>
-      </c>
-      <c r="D338" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="B339" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C339" t="s">
-        <v>736</v>
-      </c>
-      <c r="D339" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="B340" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C340" t="s">
-        <v>736</v>
-      </c>
-      <c r="D340" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B341" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C341" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B342" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C342" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B343" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C343" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B344" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C344" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B345" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C345" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B346" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C346" t="s">
-        <v>738</v>
+        <v>723</v>
+      </c>
+      <c r="D346" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B347" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C347" t="s">
-        <v>738</v>
+        <v>723</v>
+      </c>
+      <c r="D347" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B348" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C348" t="s">
-        <v>738</v>
+        <v>724</v>
+      </c>
+      <c r="D348" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B349" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C349" t="s">
-        <v>738</v>
+        <v>724</v>
+      </c>
+      <c r="D349" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B350" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C350" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D350" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B351" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C351" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D351" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" t="s">
-        <v>685</v>
-      </c>
-      <c r="B352" t="s">
-        <v>703</v>
-      </c>
-      <c r="C352" t="s">
-        <v>733</v>
-      </c>
       <c r="D352" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353" t="s">
-        <v>685</v>
-      </c>
-      <c r="B353" t="s">
-        <v>703</v>
-      </c>
-      <c r="C353" t="s">
-        <v>733</v>
-      </c>
-      <c r="D353" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" t="s">
-        <v>686</v>
-      </c>
-      <c r="B354" t="s">
-        <v>703</v>
-      </c>
-      <c r="C354" t="s">
-        <v>733</v>
-      </c>
-      <c r="D354" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="A355" t="s">
-        <v>687</v>
-      </c>
-      <c r="B355" t="s">
-        <v>703</v>
-      </c>
-      <c r="C355" t="s">
-        <v>733</v>
-      </c>
-      <c r="D355" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="D356" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A274">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A270">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{053046A4-1FEB-004C-AED4-FB02A41E15BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE9A84-CEBF-C744-B6D9-5AF30C197D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2008,18 +2008,6 @@
   </si>
   <si>
     <t>kjr-21-e24-p2-8</t>
-  </si>
-  <si>
-    <t>kjr-21-e24-p2-16</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>kjr-21-e24-p2-29</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>kjr-21-e24-p2-31</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Patient 193</t>
@@ -2387,6 +2375,18 @@
   </si>
   <si>
     <t>2020.01.24.919183-p27-134.png</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e24-p3-16</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e24-p5-29</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjr-21-e24-p5-31</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B3" t="s">
         <v>380</v>
@@ -6463,7 +6463,7 @@
         <v>596</v>
       </c>
       <c r="C289" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D289" t="s">
         <v>597</v>
@@ -6477,7 +6477,7 @@
         <v>596</v>
       </c>
       <c r="C290" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D290" t="s">
         <v>597</v>
@@ -6491,7 +6491,7 @@
         <v>599</v>
       </c>
       <c r="C291" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D291" t="s">
         <v>600</v>
@@ -6499,13 +6499,13 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B292" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C292" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6516,10 +6516,10 @@
         <v>601</v>
       </c>
       <c r="C293" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D293" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6530,10 +6530,10 @@
         <v>601</v>
       </c>
       <c r="C294" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D294" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6544,10 +6544,10 @@
         <v>601</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D295" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6558,10 +6558,10 @@
         <v>601</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D296" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6572,10 +6572,10 @@
         <v>601</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D297" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6586,10 +6586,10 @@
         <v>601</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D298" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6600,10 +6600,10 @@
         <v>601</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6614,10 +6614,10 @@
         <v>601</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D300" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6628,10 +6628,10 @@
         <v>611</v>
       </c>
       <c r="C301" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D301" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6642,10 +6642,10 @@
         <v>611</v>
       </c>
       <c r="C302" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D302" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6656,10 +6656,10 @@
         <v>623</v>
       </c>
       <c r="C303" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D303" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6670,10 +6670,10 @@
         <v>623</v>
       </c>
       <c r="C304" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D304" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6684,10 +6684,10 @@
         <v>624</v>
       </c>
       <c r="C305" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D305" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6698,10 +6698,10 @@
         <v>624</v>
       </c>
       <c r="C306" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D306" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6712,10 +6712,10 @@
         <v>625</v>
       </c>
       <c r="C307" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D307" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6726,10 +6726,10 @@
         <v>625</v>
       </c>
       <c r="C308" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D308" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6740,10 +6740,10 @@
         <v>626</v>
       </c>
       <c r="C309" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D309" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6754,10 +6754,10 @@
         <v>626</v>
       </c>
       <c r="C310" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D310" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6768,10 +6768,10 @@
         <v>627</v>
       </c>
       <c r="C311" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D311" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6782,10 +6782,10 @@
         <v>627</v>
       </c>
       <c r="C312" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D312" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6796,10 +6796,10 @@
         <v>628</v>
       </c>
       <c r="C313" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D313" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6810,10 +6810,10 @@
         <v>628</v>
       </c>
       <c r="C314" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D314" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6824,7 +6824,7 @@
         <v>634</v>
       </c>
       <c r="C315" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6835,7 +6835,7 @@
         <v>635</v>
       </c>
       <c r="C316" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6846,7 +6846,7 @@
         <v>636</v>
       </c>
       <c r="C317" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6854,453 +6854,453 @@
         <v>637</v>
       </c>
       <c r="B318" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C318" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D318" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>638</v>
+        <v>730</v>
       </c>
       <c r="B319" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C319" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D319" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="B320" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C320" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D320" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
       <c r="B321" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C321" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D321" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B322" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C322" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D322" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B323" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C323" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D323" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
+        <v>644</v>
+      </c>
+      <c r="B324" t="s">
         <v>647</v>
       </c>
-      <c r="B324" t="s">
-        <v>650</v>
-      </c>
       <c r="C324" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D324" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B325" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C325" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D325" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B326" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C326" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D326" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B327" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C327" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D327" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B328" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C328" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D328" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B329" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C329" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D329" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
+        <v>652</v>
+      </c>
+      <c r="B330" t="s">
         <v>655</v>
       </c>
-      <c r="B330" t="s">
-        <v>658</v>
-      </c>
       <c r="C330" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D330" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B331" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C331" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D331" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B332" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C332" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D332" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B333" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C333" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D333" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B334" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C334" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D334" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B335" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C335" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D335" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B336" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C336" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D336" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B337" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B338" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C338" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B339" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C339" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B340" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C340" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B341" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C341" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B342" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C342" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B343" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C343" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B344" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C344" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B345" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C345" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B346" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C346" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D346" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B347" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C347" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D347" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B348" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C348" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D348" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B349" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C349" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D349" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B350" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C350" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D350" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B351" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C351" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D351" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="D352" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE9A84-CEBF-C744-B6D9-5AF30C197D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B6EA9-D37B-C34F-9262-7C4096C41C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="732">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -573,9 +573,6 @@
     <t>2020.03.19.20038539-p10-58.png</t>
   </si>
   <si>
-    <t>2020.03.18.20038125-p15-54-1.png</t>
-  </si>
-  <si>
     <t>2020.03.03.20030775-p10-88%1.png</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
   </si>
   <si>
     <t>2020.03.04.20031047-p13-84%3.png</t>
-  </si>
-  <si>
-    <t>2020.03.18.20038125-p15-54-3.png</t>
   </si>
   <si>
     <t>2020.03.10.20032136-p34-118_2%0.png</t>
@@ -2124,9 +2118,6 @@
   <si>
     <t>PIIS0140673620302117_2</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%0</t>
   </si>
   <si>
     <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%1</t>
@@ -2387,6 +2378,14 @@
   </si>
   <si>
     <t>kjr-21-e24-p5-31</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%3</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3273,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3289,178 +3288,178 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3468,21 +3467,21 @@
         <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3490,10 +3489,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3501,10 +3500,10 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3512,10 +3511,10 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3523,10 +3522,10 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3534,10 +3533,10 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3545,10 +3544,10 @@
         <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3556,10 +3555,10 @@
         <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3567,10 +3566,10 @@
         <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3578,43 +3577,43 @@
         <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3622,10 +3621,10 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3633,10 +3632,10 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3644,10 +3643,10 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3655,10 +3654,10 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3666,10 +3665,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3677,10 +3676,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3688,10 +3687,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3699,10 +3698,10 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3710,43 +3709,43 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3754,10 +3753,10 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3765,10 +3764,10 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3776,10 +3775,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3787,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3798,10 +3797,10 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3809,10 +3808,10 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3820,10 +3819,10 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3831,10 +3830,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3842,10 +3841,10 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3853,10 +3852,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3864,10 +3863,10 @@
         <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3875,10 +3874,10 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3886,10 +3885,10 @@
         <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3897,10 +3896,10 @@
         <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3908,10 +3907,10 @@
         <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3919,10 +3918,10 @@
         <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3930,10 +3929,10 @@
         <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3941,10 +3940,10 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3952,10 +3951,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3963,10 +3962,10 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3974,10 +3973,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3985,10 +3984,10 @@
         <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3996,10 +3995,10 @@
         <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4007,76 +4006,76 @@
         <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B70" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4084,10 +4083,10 @@
         <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4095,10 +4094,10 @@
         <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4106,10 +4105,10 @@
         <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4117,10 +4116,10 @@
         <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4128,10 +4127,10 @@
         <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4139,10 +4138,10 @@
         <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4150,10 +4149,10 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4161,21 +4160,21 @@
         <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4183,76 +4182,76 @@
         <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4260,10 +4259,10 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4271,32 +4270,32 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4304,10 +4303,10 @@
         <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4315,10 +4314,10 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4326,10 +4325,10 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D95" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4337,10 +4336,10 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4348,10 +4347,10 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4359,10 +4358,10 @@
         <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4370,10 +4369,10 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4381,10 +4380,10 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4392,10 +4391,10 @@
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4403,10 +4402,10 @@
         <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D102" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4414,10 +4413,10 @@
         <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4425,10 +4424,10 @@
         <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4436,10 +4435,10 @@
         <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D105" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4447,10 +4446,10 @@
         <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4458,10 +4457,10 @@
         <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4469,10 +4468,10 @@
         <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4480,10 +4479,10 @@
         <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D109" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4491,10 +4490,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D110" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4502,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4513,10 +4512,10 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4524,10 +4523,10 @@
         <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D113" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4535,10 +4534,10 @@
         <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D114" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4546,10 +4545,10 @@
         <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4557,10 +4556,10 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D116" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4568,10 +4567,10 @@
         <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4579,10 +4578,10 @@
         <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4590,10 +4589,10 @@
         <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4601,43 +4600,43 @@
         <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D120" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D122" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D123" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4645,10 +4644,10 @@
         <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D124" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4656,21 +4655,21 @@
         <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D125" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D126" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4678,54 +4677,54 @@
         <v>176</v>
       </c>
       <c r="B127" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D127" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D129" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D130" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D131" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4733,10 +4732,10 @@
         <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D132" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4744,10 +4743,10 @@
         <v>38</v>
       </c>
       <c r="B133" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D133" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4755,10 +4754,10 @@
         <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D134" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4766,10 +4765,10 @@
         <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4777,10 +4776,10 @@
         <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D136" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4788,10 +4787,10 @@
         <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D137" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4799,10 +4798,10 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D138" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4810,54 +4809,54 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B140" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D141" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B142" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D143" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4865,10 +4864,10 @@
         <v>157</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D144" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4876,10 +4875,10 @@
         <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D145" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4887,10 +4886,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D146" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4898,10 +4897,10 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D147" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4909,10 +4908,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4920,10 +4919,10 @@
         <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4931,98 +4930,98 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D150" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D151" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D152" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B153" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D153" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D154" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B155" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D155" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D156" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D157" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D158" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5030,10 +5029,10 @@
         <v>26</v>
       </c>
       <c r="B159" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D159" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5041,10 +5040,10 @@
         <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D160" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5052,10 +5051,10 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5063,10 +5062,10 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D162" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5074,10 +5073,10 @@
         <v>129</v>
       </c>
       <c r="B163" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D163" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5085,10 +5084,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D164" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5096,10 +5095,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D165" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5107,10 +5106,10 @@
         <v>145</v>
       </c>
       <c r="B166" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D166" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5118,10 +5117,10 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D167" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5129,10 +5128,10 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D168" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5140,10 +5139,10 @@
         <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D169" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5151,10 +5150,10 @@
         <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D170" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5162,10 +5161,10 @@
         <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5173,32 +5172,32 @@
         <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D172" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5206,10 +5205,10 @@
         <v>121</v>
       </c>
       <c r="B175" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5217,10 +5216,10 @@
         <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5228,10 +5227,10 @@
         <v>124</v>
       </c>
       <c r="B177" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5239,10 +5238,10 @@
         <v>131</v>
       </c>
       <c r="B178" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5250,10 +5249,10 @@
         <v>159</v>
       </c>
       <c r="B179" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5261,10 +5260,10 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5272,10 +5271,10 @@
         <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D181" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5283,10 +5282,10 @@
         <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D182" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5294,21 +5293,21 @@
         <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D183" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B184" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D184" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5316,10 +5315,10 @@
         <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D185" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5327,10 +5326,10 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5338,10 +5337,10 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D187" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5349,10 +5348,10 @@
         <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D188" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5360,10 +5359,10 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D189" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5371,10 +5370,10 @@
         <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D190" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5382,10 +5381,10 @@
         <v>42</v>
       </c>
       <c r="B191" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D191" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5393,10 +5392,10 @@
         <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D192" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5404,10 +5403,10 @@
         <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D193" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5415,76 +5414,76 @@
         <v>54</v>
       </c>
       <c r="B194" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D194" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D195" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D196" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B197" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D197" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D198" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B199" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D199" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B200" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5492,10 +5491,10 @@
         <v>155</v>
       </c>
       <c r="B201" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5503,10 +5502,10 @@
         <v>134</v>
       </c>
       <c r="B202" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D202" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5514,10 +5513,10 @@
         <v>151</v>
       </c>
       <c r="B203" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D203" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5525,10 +5524,10 @@
         <v>112</v>
       </c>
       <c r="B204" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D204" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5536,10 +5535,10 @@
         <v>92</v>
       </c>
       <c r="B205" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D205" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5547,10 +5546,10 @@
         <v>75</v>
       </c>
       <c r="B206" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D206" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5558,10 +5557,10 @@
         <v>59</v>
       </c>
       <c r="B207" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D207" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5569,51 +5568,51 @@
         <v>100</v>
       </c>
       <c r="B208" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D208" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B209" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D209" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="B210" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D210" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="B211" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D211" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D212" t="s">
         <v>362</v>
@@ -5621,10 +5620,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="B213" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D213" t="s">
         <v>363</v>
@@ -5632,329 +5631,329 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="B214" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B215" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D216" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B217" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B218" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D218" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B219" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D219" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B220" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D220" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="B221" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D221" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="B222" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D222" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B223" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D223" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B224" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D224" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B225" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B226" t="s">
         <v>522</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B227" t="s">
         <v>523</v>
       </c>
       <c r="D227" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B228" t="s">
         <v>524</v>
       </c>
       <c r="D228" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
         <v>525</v>
       </c>
       <c r="D229" t="s">
-        <v>259</v>
+        <v>526</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B230" t="s">
+        <v>525</v>
+      </c>
+      <c r="D230" t="s">
         <v>526</v>
-      </c>
-      <c r="D230" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B231" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D231" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B232" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D232" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B233" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D233" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B234" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D234" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B235" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D235" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B236" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D236" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B237" t="s">
         <v>527</v>
       </c>
       <c r="D237" t="s">
-        <v>528</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B238" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D238" t="s">
-        <v>528</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B239" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D239" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D240" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D241" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D242" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B243" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D243" t="s">
         <v>370</v>
@@ -5962,18 +5961,18 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B244" t="s">
         <v>531</v>
       </c>
       <c r="D244" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B245" t="s">
         <v>532</v>
@@ -5984,7 +5983,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B246" t="s">
         <v>533</v>
@@ -5995,7 +5994,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B247" t="s">
         <v>534</v>
@@ -6006,7 +6005,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B248" t="s">
         <v>535</v>
@@ -6017,7 +6016,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B249" t="s">
         <v>536</v>
@@ -6028,7 +6027,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B250" t="s">
         <v>537</v>
@@ -6039,112 +6038,112 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B251" t="s">
         <v>538</v>
       </c>
       <c r="D251" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B252" t="s">
         <v>539</v>
       </c>
       <c r="D252" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B253" t="s">
         <v>540</v>
       </c>
       <c r="D253" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B254" t="s">
         <v>541</v>
       </c>
       <c r="D254" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B255" t="s">
         <v>542</v>
       </c>
       <c r="D255" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B256" t="s">
         <v>543</v>
       </c>
       <c r="D256" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>114</v>
+        <v>544</v>
       </c>
       <c r="B257" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D257" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>125</v>
+        <v>545</v>
       </c>
       <c r="B258" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D258" t="s">
-        <v>371</v>
+        <v>546</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B259" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D259" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B260" t="s">
+        <v>557</v>
+      </c>
+      <c r="D260" t="s">
         <v>550</v>
-      </c>
-      <c r="D260" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6152,10 +6151,10 @@
         <v>554</v>
       </c>
       <c r="B261" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D261" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6163,10 +6162,10 @@
         <v>555</v>
       </c>
       <c r="B262" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D262" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6174,54 +6173,54 @@
         <v>556</v>
       </c>
       <c r="B263" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D263" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B264" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D264" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B265" t="s">
         <v>560</v>
       </c>
       <c r="D265" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B266" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D266" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B267" t="s">
         <v>562</v>
       </c>
       <c r="D267" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6232,29 +6231,29 @@
         <v>563</v>
       </c>
       <c r="D268" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B269" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D269" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B270" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D270" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6262,10 +6261,10 @@
         <v>570</v>
       </c>
       <c r="B271" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D271" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6273,10 +6272,10 @@
         <v>571</v>
       </c>
       <c r="B272" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D272" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6284,10 +6283,10 @@
         <v>572</v>
       </c>
       <c r="B273" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D273" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6295,10 +6294,10 @@
         <v>573</v>
       </c>
       <c r="B274" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D274" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6306,10 +6305,10 @@
         <v>574</v>
       </c>
       <c r="B275" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D275" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6317,32 +6316,32 @@
         <v>575</v>
       </c>
       <c r="B276" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B277" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D277" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B278" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D278" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6350,10 +6349,10 @@
         <v>580</v>
       </c>
       <c r="B279" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D279" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6361,10 +6360,10 @@
         <v>581</v>
       </c>
       <c r="B280" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D280" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6372,10 +6371,10 @@
         <v>582</v>
       </c>
       <c r="B281" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D281" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6383,32 +6382,32 @@
         <v>583</v>
       </c>
       <c r="B282" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D282" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B283" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D283" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B284" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D284" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6416,10 +6415,10 @@
         <v>588</v>
       </c>
       <c r="B285" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D285" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6427,85 +6426,91 @@
         <v>589</v>
       </c>
       <c r="B286" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D286" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B287" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+      <c r="C287" t="s">
+        <v>709</v>
       </c>
       <c r="D287" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B288" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+      <c r="C288" t="s">
+        <v>709</v>
       </c>
       <c r="D288" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B289" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C289" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D289" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="B290" t="s">
-        <v>596</v>
+        <v>703</v>
       </c>
       <c r="C290" t="s">
-        <v>712</v>
-      </c>
-      <c r="D290" t="s">
-        <v>597</v>
+        <v>704</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B291" t="s">
         <v>599</v>
       </c>
       <c r="C291" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="D291" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="B292" t="s">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="C292" t="s">
-        <v>707</v>
+        <v>724</v>
+      </c>
+      <c r="D292" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6513,13 +6518,13 @@
         <v>602</v>
       </c>
       <c r="B293" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C293" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D293" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6527,13 +6532,13 @@
         <v>603</v>
       </c>
       <c r="B294" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C294" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D294" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6541,13 +6546,13 @@
         <v>604</v>
       </c>
       <c r="B295" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C295" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D295" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6555,13 +6560,13 @@
         <v>605</v>
       </c>
       <c r="B296" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C296" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D296" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6569,13 +6574,13 @@
         <v>606</v>
       </c>
       <c r="B297" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C297" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D297" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6583,13 +6588,13 @@
         <v>607</v>
       </c>
       <c r="B298" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D298" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6597,41 +6602,41 @@
         <v>608</v>
       </c>
       <c r="B299" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C299" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="D299" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
+        <v>610</v>
+      </c>
+      <c r="B300" t="s">
         <v>609</v>
       </c>
-      <c r="B300" t="s">
-        <v>601</v>
-      </c>
       <c r="C300" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="D300" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B301" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C301" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D301" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6639,13 +6644,13 @@
         <v>612</v>
       </c>
       <c r="B302" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C302" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D302" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6653,13 +6658,13 @@
         <v>613</v>
       </c>
       <c r="B303" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C303" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D303" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6667,13 +6672,13 @@
         <v>614</v>
       </c>
       <c r="B304" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C304" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D304" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6681,13 +6686,13 @@
         <v>615</v>
       </c>
       <c r="B305" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C305" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D305" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6695,13 +6700,13 @@
         <v>616</v>
       </c>
       <c r="B306" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C306" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D306" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6709,13 +6714,13 @@
         <v>617</v>
       </c>
       <c r="B307" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C307" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D307" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6723,13 +6728,13 @@
         <v>618</v>
       </c>
       <c r="B308" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C308" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D308" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6737,13 +6742,13 @@
         <v>619</v>
       </c>
       <c r="B309" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C309" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D309" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6751,41 +6756,41 @@
         <v>620</v>
       </c>
       <c r="B310" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C310" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D310" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B311" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C311" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D311" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B312" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C312" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D312" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6793,13 +6798,10 @@
         <v>629</v>
       </c>
       <c r="B313" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C313" t="s">
-        <v>708</v>
-      </c>
-      <c r="D313" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6807,13 +6809,10 @@
         <v>630</v>
       </c>
       <c r="B314" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C314" t="s">
-        <v>708</v>
-      </c>
-      <c r="D314" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6824,85 +6823,91 @@
         <v>634</v>
       </c>
       <c r="C315" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B316" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C316" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="D316" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>633</v>
+        <v>727</v>
       </c>
       <c r="B317" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C317" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="D317" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>637</v>
+        <v>728</v>
       </c>
       <c r="B318" t="s">
         <v>638</v>
       </c>
       <c r="C318" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D318" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B319" t="s">
         <v>639</v>
       </c>
       <c r="C319" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D319" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>731</v>
+        <v>640</v>
       </c>
       <c r="B320" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C320" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D320" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>732</v>
+        <v>641</v>
       </c>
       <c r="B321" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C321" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D321" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6910,13 +6915,13 @@
         <v>642</v>
       </c>
       <c r="B322" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C322" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D322" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6924,13 +6929,13 @@
         <v>643</v>
       </c>
       <c r="B323" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C323" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D323" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6938,41 +6943,41 @@
         <v>644</v>
       </c>
       <c r="B324" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C324" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D324" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B325" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C325" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D325" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B326" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C326" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D326" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6983,10 +6988,10 @@
         <v>653</v>
       </c>
       <c r="C327" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D327" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6994,69 +6999,69 @@
         <v>650</v>
       </c>
       <c r="B328" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C328" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D328" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B329" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="C329" t="s">
         <v>719</v>
       </c>
       <c r="D329" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B330" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="C330" t="s">
         <v>719</v>
       </c>
       <c r="D330" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="B331" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C331" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D331" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="B332" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C332" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D332" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7064,13 +7069,13 @@
         <v>669</v>
       </c>
       <c r="B333" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C333" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D333" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7078,41 +7083,35 @@
         <v>670</v>
       </c>
       <c r="B334" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C334" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D334" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B335" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C335" t="s">
-        <v>724</v>
-      </c>
-      <c r="D335" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="B336" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C336" t="s">
-        <v>724</v>
-      </c>
-      <c r="D336" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7120,10 +7119,10 @@
         <v>658</v>
       </c>
       <c r="B337" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C337" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7131,10 +7130,10 @@
         <v>659</v>
       </c>
       <c r="B338" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C338" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7142,10 +7141,10 @@
         <v>660</v>
       </c>
       <c r="B339" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C339" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7153,10 +7152,10 @@
         <v>661</v>
       </c>
       <c r="B340" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C340" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7164,10 +7163,10 @@
         <v>662</v>
       </c>
       <c r="B341" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C341" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7175,10 +7174,10 @@
         <v>663</v>
       </c>
       <c r="B342" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C342" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7186,10 +7185,10 @@
         <v>664</v>
       </c>
       <c r="B343" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C343" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7197,10 +7196,13 @@
         <v>665</v>
       </c>
       <c r="B344" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C344" t="s">
-        <v>726</v>
+        <v>717</v>
+      </c>
+      <c r="D344" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7208,103 +7210,78 @@
         <v>666</v>
       </c>
       <c r="B345" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C345" t="s">
-        <v>726</v>
+        <v>717</v>
+      </c>
+      <c r="D345" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="B346" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C346" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D346" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>668</v>
+        <v>730</v>
       </c>
       <c r="B347" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C347" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D347" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B348" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C348" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D348" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B349" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C349" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D349" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" t="s">
-        <v>674</v>
-      </c>
-      <c r="B350" t="s">
-        <v>691</v>
-      </c>
-      <c r="C350" t="s">
-        <v>721</v>
-      </c>
       <c r="D350" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351" t="s">
-        <v>675</v>
-      </c>
-      <c r="B351" t="s">
-        <v>691</v>
-      </c>
-      <c r="C351" t="s">
-        <v>721</v>
-      </c>
-      <c r="D351" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
-      <c r="D352" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A270">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A268">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPT's Lab/COVID-CT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPTLab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B6EA9-D37B-C34F-9262-7C4096C41C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AA989-8827-724B-9B44-6B54A5DAD0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive_captions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="743">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -2386,6 +2386,50 @@
   </si>
   <si>
     <t>Talaromyces-marneffei-infection-relapse-presenting-as-ost_2020_International-p1-12%3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Severity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other diseases</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical history</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOI</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Captions</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>File name</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3272,4017 +3316,4053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="161.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="161.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H1" t="s">
+        <v>735</v>
+      </c>
+      <c r="I1" t="s">
+        <v>736</v>
+      </c>
+      <c r="J1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>726</v>
       </c>
       <c r="B4" t="s">
         <v>378</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>379</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
         <v>379</v>
       </c>
-      <c r="D7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="K7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="D9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="K9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>379</v>
       </c>
-      <c r="D10" t="s">
+      <c r="K10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>379</v>
       </c>
-      <c r="D11" t="s">
+      <c r="K11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
         <v>379</v>
       </c>
-      <c r="D12" t="s">
+      <c r="K12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
         <v>379</v>
       </c>
-      <c r="D13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="K13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
         <v>379</v>
       </c>
-      <c r="D14" t="s">
+      <c r="K14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>379</v>
       </c>
-      <c r="D15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="K15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
         <v>379</v>
       </c>
-      <c r="D16" t="s">
+      <c r="K16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
         <v>379</v>
       </c>
-      <c r="D17" t="s">
+      <c r="K17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
         <v>379</v>
       </c>
-      <c r="D18" t="s">
+      <c r="K18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
         <v>379</v>
       </c>
-      <c r="D19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="K19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>379</v>
       </c>
-      <c r="D20" t="s">
+      <c r="K20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="K21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>380</v>
       </c>
-      <c r="D21" t="s">
+      <c r="K22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>381</v>
       </c>
-      <c r="D22" t="s">
+      <c r="K23" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>382</v>
       </c>
-      <c r="D23" t="s">
+      <c r="K24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>138</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>383</v>
       </c>
-      <c r="D24" t="s">
+      <c r="K25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>146</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>384</v>
       </c>
-      <c r="D25" t="s">
+      <c r="K26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>385</v>
       </c>
-      <c r="D26" t="s">
+      <c r="K27" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>160</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>386</v>
       </c>
-      <c r="D27" t="s">
+      <c r="K28" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>387</v>
       </c>
-      <c r="D28" t="s">
+      <c r="K29" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
         <v>228</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>388</v>
       </c>
-      <c r="D29" t="s">
+      <c r="K30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>252</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>389</v>
       </c>
-      <c r="D30" t="s">
+      <c r="K31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>390</v>
-      </c>
-      <c r="D31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>390</v>
       </c>
-      <c r="D32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>390</v>
       </c>
-      <c r="D33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>390</v>
       </c>
-      <c r="D34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>390</v>
       </c>
-      <c r="D35" t="s">
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="K36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>391</v>
       </c>
-      <c r="D36" t="s">
+      <c r="K37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>392</v>
       </c>
-      <c r="D37" t="s">
+      <c r="K38" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>393</v>
       </c>
-      <c r="D38" t="s">
+      <c r="K39" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>394</v>
       </c>
-      <c r="D39" t="s">
+      <c r="K40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
         <v>240</v>
-      </c>
-      <c r="B40" t="s">
-        <v>395</v>
-      </c>
-      <c r="D40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>246</v>
       </c>
       <c r="B41" t="s">
         <v>395</v>
       </c>
-      <c r="D41" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="K41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
         <v>395</v>
       </c>
-      <c r="D42" t="s">
+      <c r="K42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
+        <v>395</v>
+      </c>
+      <c r="K43" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>396</v>
-      </c>
-      <c r="D43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>396</v>
       </c>
-      <c r="D44" t="s">
+      <c r="K44" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>396</v>
       </c>
-      <c r="D45" t="s">
+      <c r="K45" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
         <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>397</v>
-      </c>
-      <c r="D46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>397</v>
       </c>
-      <c r="D47" t="s">
+      <c r="K47" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>397</v>
       </c>
-      <c r="D48" t="s">
+      <c r="K48" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
         <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>398</v>
-      </c>
-      <c r="D49" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>398</v>
       </c>
-      <c r="D50" t="s">
+      <c r="K50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
         <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>399</v>
-      </c>
-      <c r="D51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>399</v>
       </c>
-      <c r="D52" t="s">
+      <c r="K52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>399</v>
+      </c>
+      <c r="K53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
         <v>173</v>
-      </c>
-      <c r="B53" t="s">
-        <v>400</v>
-      </c>
-      <c r="D53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>400</v>
       </c>
-      <c r="D54" t="s">
+      <c r="K54" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
         <v>400</v>
       </c>
-      <c r="D55" t="s">
+      <c r="K55" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
         <v>400</v>
       </c>
-      <c r="D56" t="s">
+      <c r="K56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
         <v>400</v>
       </c>
-      <c r="D57" t="s">
+      <c r="K57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
         <v>400</v>
       </c>
-      <c r="D58" t="s">
+      <c r="K58" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
         <v>88</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>401</v>
       </c>
-      <c r="D59" t="s">
+      <c r="K60" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>402</v>
       </c>
-      <c r="D60" t="s">
+      <c r="K61" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>403</v>
       </c>
-      <c r="D61" t="s">
+      <c r="K62" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>404</v>
       </c>
-      <c r="D62" t="s">
+      <c r="K63" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>405</v>
       </c>
-      <c r="D63" t="s">
+      <c r="K64" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
         <v>164</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>406</v>
       </c>
-      <c r="D64" t="s">
+      <c r="K65" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
         <v>143</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>407</v>
       </c>
-      <c r="D65" t="s">
+      <c r="K66" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>408</v>
       </c>
-      <c r="D66" t="s">
+      <c r="K67" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
         <v>214</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>409</v>
       </c>
-      <c r="D67" t="s">
+      <c r="K68" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
         <v>224</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>410</v>
       </c>
-      <c r="D68" t="s">
+      <c r="K69" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
         <v>249</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>411</v>
       </c>
-      <c r="D69" t="s">
+      <c r="K70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
         <v>236</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>412</v>
       </c>
-      <c r="D70" t="s">
+      <c r="K71" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
         <v>203</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>413</v>
       </c>
-      <c r="D71" t="s">
+      <c r="K72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
         <v>195</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>414</v>
       </c>
-      <c r="D72" t="s">
+      <c r="K73" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
         <v>163</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>415</v>
       </c>
-      <c r="D73" t="s">
+      <c r="K74" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
         <v>165</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>416</v>
       </c>
-      <c r="D74" t="s">
+      <c r="K75" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
         <v>126</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>417</v>
       </c>
-      <c r="D75" t="s">
+      <c r="K76" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
         <v>130</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>418</v>
       </c>
-      <c r="D76" t="s">
+      <c r="K77" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
         <v>117</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>419</v>
       </c>
-      <c r="D77" t="s">
+      <c r="K78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
         <v>116</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>420</v>
       </c>
-      <c r="D78" t="s">
+      <c r="K79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
         <v>95</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>421</v>
       </c>
-      <c r="D79" t="s">
+      <c r="K80" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
         <v>99</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>422</v>
       </c>
-      <c r="D80" t="s">
+      <c r="K81" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
         <v>189</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>423</v>
       </c>
-      <c r="D81" t="s">
+      <c r="K82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
         <v>178</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>424</v>
       </c>
-      <c r="D82" t="s">
+      <c r="K83" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
         <v>194</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>425</v>
       </c>
-      <c r="D83" t="s">
+      <c r="K84" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
         <v>205</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>426</v>
       </c>
-      <c r="D84" t="s">
+      <c r="K85" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
         <v>235</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>427</v>
       </c>
-      <c r="D85" t="s">
+      <c r="K86" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
         <v>251</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>428</v>
       </c>
-      <c r="D86" t="s">
+      <c r="K87" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
         <v>226</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>429</v>
       </c>
-      <c r="D87" t="s">
+      <c r="K88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
         <v>211</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>430</v>
       </c>
-      <c r="D88" t="s">
+      <c r="K89" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
         <v>2</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>431</v>
       </c>
-      <c r="D89" t="s">
+      <c r="K90" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
         <v>15</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>432</v>
       </c>
-      <c r="D90" t="s">
+      <c r="K91" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
         <v>209</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>433</v>
       </c>
-      <c r="D91" t="s">
+      <c r="K92" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
         <v>229</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>434</v>
       </c>
-      <c r="D92" t="s">
+      <c r="K93" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
         <v>51</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>435</v>
       </c>
-      <c r="D93" t="s">
+      <c r="K94" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
         <v>56</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>436</v>
       </c>
-      <c r="D94" t="s">
+      <c r="K95" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
         <v>109</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>437</v>
       </c>
-      <c r="D95" t="s">
+      <c r="K96" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>438</v>
       </c>
-      <c r="D96" t="s">
+      <c r="K97" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
         <v>89</v>
-      </c>
-      <c r="B97" t="s">
-        <v>439</v>
-      </c>
-      <c r="D97" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>78</v>
       </c>
       <c r="B98" t="s">
         <v>439</v>
       </c>
-      <c r="D98" t="s">
+      <c r="K98" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
         <v>439</v>
       </c>
-      <c r="D99" t="s">
+      <c r="K99" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
         <v>439</v>
       </c>
-      <c r="D100" t="s">
+      <c r="K100" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
         <v>439</v>
       </c>
-      <c r="D101" t="s">
+      <c r="K101" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
         <v>439</v>
       </c>
-      <c r="D102" t="s">
+      <c r="K102" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" t="s">
+        <v>439</v>
+      </c>
+      <c r="K103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
         <v>139</v>
-      </c>
-      <c r="B103" t="s">
-        <v>440</v>
-      </c>
-      <c r="D103" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>440</v>
       </c>
-      <c r="D104" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="K104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
         <v>440</v>
       </c>
-      <c r="D105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="K105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
         <v>440</v>
       </c>
-      <c r="D106" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="K106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
         <v>440</v>
       </c>
-      <c r="D107" t="s">
+      <c r="K107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" t="s">
+        <v>440</v>
+      </c>
+      <c r="K108" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
         <v>153</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>441</v>
       </c>
-      <c r="D108" t="s">
+      <c r="K109" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
         <v>175</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>442</v>
       </c>
-      <c r="D109" t="s">
+      <c r="K110" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
         <v>17</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>443</v>
       </c>
-      <c r="D110" t="s">
+      <c r="K111" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
         <v>0</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>444</v>
       </c>
-      <c r="D111" t="s">
+      <c r="K112" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
         <v>18</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>445</v>
       </c>
-      <c r="D112" t="s">
+      <c r="K113" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
         <v>61</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>446</v>
       </c>
-      <c r="D113" t="s">
+      <c r="K114" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
         <v>72</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>447</v>
       </c>
-      <c r="D114" t="s">
+      <c r="K115" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
         <v>90</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>448</v>
       </c>
-      <c r="D115" t="s">
+      <c r="K116" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
         <v>110</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>449</v>
       </c>
-      <c r="D116" t="s">
+      <c r="K117" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
         <v>76</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>450</v>
       </c>
-      <c r="D117" t="s">
+      <c r="K118" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
         <v>154</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>451</v>
       </c>
-      <c r="D118" t="s">
+      <c r="K119" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
         <v>174</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>452</v>
       </c>
-      <c r="D119" t="s">
+      <c r="K120" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
         <v>152</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>453</v>
       </c>
-      <c r="D120" t="s">
+      <c r="K121" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
         <v>185</v>
-      </c>
-      <c r="B121" t="s">
-        <v>454</v>
-      </c>
-      <c r="D121" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>181</v>
       </c>
       <c r="B122" t="s">
         <v>454</v>
       </c>
-      <c r="D122" t="s">
+      <c r="K122" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" t="s">
+        <v>454</v>
+      </c>
+      <c r="K123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
         <v>225</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>455</v>
       </c>
-      <c r="D123" t="s">
+      <c r="K124" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
         <v>101</v>
-      </c>
-      <c r="B124" t="s">
-        <v>456</v>
-      </c>
-      <c r="D124" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>456</v>
       </c>
-      <c r="D125" t="s">
+      <c r="K125" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>456</v>
+      </c>
+      <c r="K126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
         <v>191</v>
-      </c>
-      <c r="B126" t="s">
-        <v>457</v>
-      </c>
-      <c r="D126" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>176</v>
       </c>
       <c r="B127" t="s">
         <v>457</v>
       </c>
-      <c r="D127" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="K127" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
         <v>457</v>
       </c>
-      <c r="D128" t="s">
+      <c r="K128" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>457</v>
+      </c>
+      <c r="K129" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
         <v>206</v>
-      </c>
-      <c r="B129" t="s">
-        <v>458</v>
-      </c>
-      <c r="D129" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>232</v>
       </c>
       <c r="B130" t="s">
         <v>458</v>
       </c>
-      <c r="D130" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="K130" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
         <v>458</v>
       </c>
-      <c r="D131" t="s">
+      <c r="K131" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>253</v>
+      </c>
+      <c r="B132" t="s">
+        <v>458</v>
+      </c>
+      <c r="K132" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
         <v>43</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>459</v>
       </c>
-      <c r="D132" t="s">
+      <c r="K133" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
         <v>38</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>460</v>
       </c>
-      <c r="D133" t="s">
+      <c r="K134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
         <v>52</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>461</v>
       </c>
-      <c r="D134" t="s">
+      <c r="K135" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
         <v>55</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>462</v>
       </c>
-      <c r="D135" t="s">
+      <c r="K136" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
         <v>22</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>463</v>
       </c>
-      <c r="D136" t="s">
+      <c r="K137" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
         <v>29</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>464</v>
       </c>
-      <c r="D137" t="s">
+      <c r="K138" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
         <v>12</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>465</v>
       </c>
-      <c r="D138" t="s">
+      <c r="K139" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
         <v>5</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>466</v>
       </c>
-      <c r="D139" t="s">
+      <c r="K140" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
         <v>216</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>467</v>
       </c>
-      <c r="D140" t="s">
+      <c r="K141" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
         <v>254</v>
-      </c>
-      <c r="B141" t="s">
-        <v>468</v>
-      </c>
-      <c r="D141" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>231</v>
       </c>
       <c r="B142" t="s">
         <v>468</v>
       </c>
-      <c r="D142" t="s">
+      <c r="K142" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B143" t="s">
         <v>468</v>
       </c>
-      <c r="D143" t="s">
+      <c r="K143" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
+        <v>207</v>
+      </c>
+      <c r="B144" t="s">
+        <v>468</v>
+      </c>
+      <c r="K144" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
         <v>157</v>
-      </c>
-      <c r="B144" t="s">
-        <v>469</v>
-      </c>
-      <c r="D144" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>172</v>
       </c>
       <c r="B145" t="s">
         <v>469</v>
       </c>
-      <c r="D145" t="s">
+      <c r="K145" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
         <v>469</v>
       </c>
-      <c r="D146" t="s">
+      <c r="K146" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>469</v>
+      </c>
+      <c r="K147" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
         <v>136</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>470</v>
       </c>
-      <c r="D147" t="s">
+      <c r="K148" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>471</v>
       </c>
-      <c r="D148" t="s">
+      <c r="K149" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
         <v>171</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>472</v>
       </c>
-      <c r="D149" t="s">
+      <c r="K150" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
         <v>158</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>473</v>
       </c>
-      <c r="D150" t="s">
+      <c r="K151" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
         <v>186</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>474</v>
       </c>
-      <c r="D151" t="s">
+      <c r="K152" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
         <v>182</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>475</v>
       </c>
-      <c r="D152" t="s">
+      <c r="K153" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
         <v>198</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>476</v>
       </c>
-      <c r="D153" t="s">
+      <c r="K154" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
         <v>201</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>477</v>
       </c>
-      <c r="D154" t="s">
+      <c r="K155" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
         <v>239</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>478</v>
       </c>
-      <c r="D155" t="s">
+      <c r="K156" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
         <v>245</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>479</v>
       </c>
-      <c r="D156" t="s">
+      <c r="K157" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
         <v>208</v>
-      </c>
-      <c r="B157" t="s">
-        <v>480</v>
-      </c>
-      <c r="D157" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>230</v>
       </c>
       <c r="B158" t="s">
         <v>480</v>
       </c>
-      <c r="D158" t="s">
+      <c r="K158" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" t="s">
+        <v>480</v>
+      </c>
+      <c r="K159" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
         <v>26</v>
-      </c>
-      <c r="B159" t="s">
-        <v>481</v>
-      </c>
-      <c r="D159" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>25</v>
       </c>
       <c r="B160" t="s">
         <v>481</v>
       </c>
-      <c r="D160" t="s">
+      <c r="K160" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B161" t="s">
         <v>481</v>
       </c>
-      <c r="D161" t="s">
+      <c r="K161" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
         <v>481</v>
       </c>
-      <c r="D162" t="s">
+      <c r="K162" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>481</v>
+      </c>
+      <c r="K163" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
         <v>129</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>482</v>
       </c>
-      <c r="D163" t="s">
+      <c r="K164" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>483</v>
       </c>
-      <c r="D164" t="s">
+      <c r="K165" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>484</v>
       </c>
-      <c r="D165" t="s">
+      <c r="K166" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
         <v>145</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>485</v>
       </c>
-      <c r="D166" t="s">
+      <c r="K167" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
         <v>8</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>486</v>
       </c>
-      <c r="D167" t="s">
+      <c r="K168" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
         <v>9</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>487</v>
       </c>
-      <c r="D168" t="s">
+      <c r="K169" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
         <v>27</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>488</v>
       </c>
-      <c r="D169" t="s">
+      <c r="K170" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
         <v>24</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>489</v>
       </c>
-      <c r="D170" t="s">
+      <c r="K171" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
         <v>123</v>
-      </c>
-      <c r="B171" t="s">
-        <v>490</v>
-      </c>
-      <c r="D171" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>132</v>
       </c>
       <c r="B172" t="s">
         <v>490</v>
       </c>
-      <c r="D172" t="s">
+      <c r="K172" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
+        <v>132</v>
+      </c>
+      <c r="B173" t="s">
+        <v>490</v>
+      </c>
+      <c r="K173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
         <v>202</v>
-      </c>
-      <c r="B173" t="s">
-        <v>491</v>
-      </c>
-      <c r="D173" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>196</v>
       </c>
       <c r="B174" t="s">
         <v>491</v>
       </c>
-      <c r="D174" t="s">
+      <c r="K174" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" t="s">
+        <v>491</v>
+      </c>
+      <c r="K175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
         <v>121</v>
-      </c>
-      <c r="B175" t="s">
-        <v>492</v>
-      </c>
-      <c r="D175" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>113</v>
       </c>
       <c r="B176" t="s">
         <v>492</v>
       </c>
-      <c r="D176" t="s">
+      <c r="K176" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" t="s">
+        <v>492</v>
+      </c>
+      <c r="K177" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
         <v>124</v>
-      </c>
-      <c r="B177" t="s">
-        <v>493</v>
-      </c>
-      <c r="D177" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>131</v>
       </c>
       <c r="B178" t="s">
         <v>493</v>
       </c>
-      <c r="D178" t="s">
+      <c r="K178" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>131</v>
+      </c>
+      <c r="B179" t="s">
+        <v>493</v>
+      </c>
+      <c r="K179" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
         <v>159</v>
-      </c>
-      <c r="B179" t="s">
-        <v>494</v>
-      </c>
-      <c r="D179" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>169</v>
       </c>
       <c r="B180" t="s">
         <v>494</v>
       </c>
-      <c r="D180" t="s">
+      <c r="K180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" t="s">
+        <v>494</v>
+      </c>
+      <c r="K181" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
         <v>47</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>495</v>
       </c>
-      <c r="D181" t="s">
+      <c r="K182" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
         <v>34</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>496</v>
       </c>
-      <c r="D182" t="s">
+      <c r="K183" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
         <v>177</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>497</v>
       </c>
-      <c r="D183" t="s">
+      <c r="K184" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+    <row r="185" spans="1:11">
+      <c r="A185" t="s">
         <v>233</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>498</v>
       </c>
-      <c r="D184" t="s">
+      <c r="K185" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+    <row r="186" spans="1:11">
+      <c r="A186" t="s">
         <v>45</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>499</v>
       </c>
-      <c r="D185" t="s">
+      <c r="K186" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+    <row r="187" spans="1:11">
+      <c r="A187" t="s">
         <v>1</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>500</v>
       </c>
-      <c r="D186" t="s">
+      <c r="K187" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+    <row r="188" spans="1:11">
+      <c r="A188" t="s">
         <v>16</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>501</v>
       </c>
-      <c r="D187" t="s">
+      <c r="K188" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
+    <row r="189" spans="1:11">
+      <c r="A189" t="s">
         <v>31</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>502</v>
       </c>
-      <c r="D188" t="s">
+      <c r="K189" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
         <v>13</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>503</v>
       </c>
-      <c r="D189" t="s">
+      <c r="K190" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+    <row r="191" spans="1:11">
+      <c r="A191" t="s">
         <v>3</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>504</v>
       </c>
-      <c r="D190" t="s">
+      <c r="K191" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+    <row r="192" spans="1:11">
+      <c r="A192" t="s">
         <v>42</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>505</v>
       </c>
-      <c r="D191" t="s">
+      <c r="K192" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+    <row r="193" spans="1:11">
+      <c r="A193" t="s">
         <v>39</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>506</v>
       </c>
-      <c r="D192" t="s">
+      <c r="K193" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+    <row r="194" spans="1:11">
+      <c r="A194" t="s">
         <v>53</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>507</v>
       </c>
-      <c r="D193" t="s">
+      <c r="K194" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
+    <row r="195" spans="1:11">
+      <c r="A195" t="s">
         <v>54</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>508</v>
       </c>
-      <c r="D194" t="s">
+      <c r="K195" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
+    <row r="196" spans="1:11">
+      <c r="A196" t="s">
         <v>200</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>509</v>
       </c>
-      <c r="D195" t="s">
+      <c r="K196" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+    <row r="197" spans="1:11">
+      <c r="A197" t="s">
         <v>199</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>510</v>
       </c>
-      <c r="D196" t="s">
+      <c r="K197" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+    <row r="198" spans="1:11">
+      <c r="A198" t="s">
         <v>217</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>511</v>
       </c>
-      <c r="D197" t="s">
+      <c r="K198" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
         <v>220</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>512</v>
       </c>
-      <c r="D198" t="s">
+      <c r="K199" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+    <row r="200" spans="1:11">
+      <c r="A200" t="s">
         <v>244</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>513</v>
       </c>
-      <c r="D199" t="s">
+      <c r="K200" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+    <row r="201" spans="1:11">
+      <c r="A201" t="s">
         <v>241</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>514</v>
       </c>
-      <c r="D200" t="s">
+      <c r="K201" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
+    <row r="202" spans="1:11">
+      <c r="A202" t="s">
         <v>155</v>
-      </c>
-      <c r="B201" t="s">
-        <v>515</v>
-      </c>
-      <c r="D201" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>134</v>
       </c>
       <c r="B202" t="s">
         <v>515</v>
       </c>
-      <c r="D202" t="s">
+      <c r="K202" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B203" t="s">
         <v>515</v>
       </c>
-      <c r="D203" t="s">
+      <c r="K203" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B204" t="s">
         <v>515</v>
       </c>
-      <c r="D204" t="s">
+      <c r="K204" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
+        <v>112</v>
+      </c>
+      <c r="B205" t="s">
+        <v>515</v>
+      </c>
+      <c r="K205" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" t="s">
         <v>92</v>
-      </c>
-      <c r="B205" t="s">
-        <v>516</v>
-      </c>
-      <c r="D205" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>75</v>
       </c>
       <c r="B206" t="s">
         <v>516</v>
       </c>
-      <c r="D206" t="s">
+      <c r="K206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" t="s">
+        <v>516</v>
+      </c>
+      <c r="K207" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+    <row r="208" spans="1:11">
+      <c r="A208" t="s">
         <v>59</v>
-      </c>
-      <c r="B207" t="s">
-        <v>517</v>
-      </c>
-      <c r="D207" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>100</v>
       </c>
       <c r="B208" t="s">
         <v>517</v>
       </c>
-      <c r="D208" t="s">
+      <c r="K208" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" t="s">
+        <v>100</v>
+      </c>
+      <c r="B209" t="s">
+        <v>517</v>
+      </c>
+      <c r="K209" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
+    <row r="210" spans="1:11">
+      <c r="A210" t="s">
         <v>197</v>
-      </c>
-      <c r="B209" t="s">
-        <v>518</v>
-      </c>
-      <c r="D209" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>238</v>
       </c>
       <c r="B210" t="s">
         <v>518</v>
       </c>
-      <c r="D210" t="s">
+      <c r="K210" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B211" t="s">
         <v>518</v>
       </c>
-      <c r="D211" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="K211" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B212" t="s">
         <v>518</v>
       </c>
-      <c r="D212" t="s">
+      <c r="K212" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" t="s">
+        <v>223</v>
+      </c>
+      <c r="B213" t="s">
+        <v>518</v>
+      </c>
+      <c r="K213" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
         <v>97</v>
-      </c>
-      <c r="B213" t="s">
-        <v>519</v>
-      </c>
-      <c r="D213" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>106</v>
       </c>
       <c r="B214" t="s">
         <v>519</v>
       </c>
-      <c r="D214" t="s">
+      <c r="K214" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B215" t="s">
         <v>519</v>
       </c>
-      <c r="D215" t="s">
+      <c r="K215" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B216" t="s">
         <v>519</v>
       </c>
-      <c r="D216" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="K216" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B217" t="s">
         <v>519</v>
       </c>
-      <c r="D217" t="s">
+      <c r="K217" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B218" t="s">
         <v>519</v>
       </c>
-      <c r="D218" t="s">
+      <c r="K218" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
+        <v>66</v>
+      </c>
+      <c r="B219" t="s">
+        <v>519</v>
+      </c>
+      <c r="K219" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
         <v>36</v>
-      </c>
-      <c r="B219" t="s">
-        <v>520</v>
-      </c>
-      <c r="D219" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>180</v>
       </c>
       <c r="B220" t="s">
         <v>520</v>
       </c>
-      <c r="D220" t="s">
+      <c r="K220" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B221" t="s">
         <v>520</v>
       </c>
-      <c r="D221" t="s">
+      <c r="K221" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="B222" t="s">
         <v>520</v>
       </c>
-      <c r="D222" t="s">
+      <c r="K222" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B223" t="s">
         <v>520</v>
       </c>
-      <c r="D223" t="s">
+      <c r="K223" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B224" t="s">
         <v>520</v>
       </c>
-      <c r="D224" t="s">
+      <c r="K224" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
+        <v>213</v>
+      </c>
+      <c r="B225" t="s">
+        <v>520</v>
+      </c>
+      <c r="K225" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" t="s">
         <v>127</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>521</v>
       </c>
-      <c r="D225" t="s">
+      <c r="K226" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
+    <row r="227" spans="1:11">
+      <c r="A227" t="s">
         <v>115</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>522</v>
       </c>
-      <c r="D226" t="s">
+      <c r="K227" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
+    <row r="228" spans="1:11">
+      <c r="A228" t="s">
         <v>119</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>523</v>
       </c>
-      <c r="D227" t="s">
+      <c r="K228" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
+    <row r="229" spans="1:11">
+      <c r="A229" t="s">
         <v>142</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>524</v>
       </c>
-      <c r="D228" t="s">
+      <c r="K229" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
+    <row r="230" spans="1:11">
+      <c r="A230" t="s">
         <v>4</v>
-      </c>
-      <c r="B229" t="s">
-        <v>525</v>
-      </c>
-      <c r="D229" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>96</v>
       </c>
       <c r="B230" t="s">
         <v>525</v>
       </c>
-      <c r="D230" t="s">
+      <c r="K230" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B231" t="s">
         <v>525</v>
       </c>
-      <c r="D231" t="s">
+      <c r="K231" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B232" t="s">
         <v>525</v>
       </c>
-      <c r="D232" t="s">
+      <c r="K232" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B233" t="s">
         <v>525</v>
       </c>
-      <c r="D233" t="s">
+      <c r="K233" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B234" t="s">
         <v>525</v>
       </c>
-      <c r="D234" t="s">
+      <c r="K234" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B235" t="s">
         <v>525</v>
       </c>
-      <c r="D235" t="s">
+      <c r="K235" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B236" t="s">
         <v>525</v>
       </c>
-      <c r="D236" t="s">
+      <c r="K236" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
+        <v>140</v>
+      </c>
+      <c r="B237" t="s">
+        <v>525</v>
+      </c>
+      <c r="K237" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" t="s">
         <v>133</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>527</v>
       </c>
-      <c r="D237" t="s">
+      <c r="K238" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
+    <row r="239" spans="1:11">
+      <c r="A239" t="s">
         <v>74</v>
-      </c>
-      <c r="B238" t="s">
-        <v>528</v>
-      </c>
-      <c r="D238" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>91</v>
       </c>
       <c r="B239" t="s">
         <v>528</v>
       </c>
-      <c r="D239" t="s">
+      <c r="K239" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
+        <v>91</v>
+      </c>
+      <c r="B240" t="s">
+        <v>528</v>
+      </c>
+      <c r="K240" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" t="s">
         <v>14</v>
-      </c>
-      <c r="B240" t="s">
-        <v>529</v>
-      </c>
-      <c r="D240" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>30</v>
       </c>
       <c r="B241" t="s">
         <v>529</v>
       </c>
-      <c r="D241" t="s">
+      <c r="K241" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B242" t="s">
         <v>529</v>
       </c>
-      <c r="D242" t="s">
+      <c r="K242" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s">
+        <v>529</v>
+      </c>
+      <c r="K243" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" t="s">
         <v>69</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>530</v>
       </c>
-      <c r="D243" t="s">
+      <c r="K244" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
+    <row r="245" spans="1:11">
+      <c r="A245" t="s">
         <v>85</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>531</v>
       </c>
-      <c r="D244" t="s">
+      <c r="K245" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+    <row r="246" spans="1:11">
+      <c r="A246" t="s">
         <v>82</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>532</v>
       </c>
-      <c r="D245" t="s">
+      <c r="K246" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
+    <row r="247" spans="1:11">
+      <c r="A247" t="s">
         <v>108</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>533</v>
       </c>
-      <c r="D246" t="s">
+      <c r="K247" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
+    <row r="248" spans="1:11">
+      <c r="A248" t="s">
         <v>103</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>534</v>
       </c>
-      <c r="D247" t="s">
+      <c r="K248" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
+    <row r="249" spans="1:11">
+      <c r="A249" t="s">
         <v>94</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>535</v>
       </c>
-      <c r="D248" t="s">
+      <c r="K249" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
+    <row r="250" spans="1:11">
+      <c r="A250" t="s">
         <v>98</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>536</v>
       </c>
-      <c r="D249" t="s">
+      <c r="K250" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
+    <row r="251" spans="1:11">
+      <c r="A251" t="s">
         <v>118</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>537</v>
       </c>
-      <c r="D250" t="s">
+      <c r="K251" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
+    <row r="252" spans="1:11">
+      <c r="A252" t="s">
         <v>170</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>538</v>
       </c>
-      <c r="D251" t="s">
+      <c r="K252" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
+    <row r="253" spans="1:11">
+      <c r="A253" t="s">
         <v>147</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>539</v>
       </c>
-      <c r="D252" t="s">
+      <c r="K253" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+    <row r="254" spans="1:11">
+      <c r="A254" t="s">
         <v>137</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>540</v>
       </c>
-      <c r="D253" t="s">
+      <c r="K254" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+    <row r="255" spans="1:11">
+      <c r="A255" t="s">
         <v>120</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>541</v>
       </c>
-      <c r="D254" t="s">
+      <c r="K255" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
+    <row r="256" spans="1:11">
+      <c r="A256" t="s">
         <v>114</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>542</v>
       </c>
-      <c r="D255" t="s">
+      <c r="K256" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
+    <row r="257" spans="1:11">
+      <c r="A257" t="s">
         <v>125</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>543</v>
       </c>
-      <c r="D256" t="s">
+      <c r="K257" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
+    <row r="258" spans="1:11">
+      <c r="A258" t="s">
         <v>544</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>547</v>
       </c>
-      <c r="D257" t="s">
+      <c r="K258" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
+    <row r="259" spans="1:11">
+      <c r="A259" t="s">
         <v>545</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>548</v>
       </c>
-      <c r="D258" t="s">
+      <c r="K259" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
+    <row r="260" spans="1:11">
+      <c r="A260" t="s">
         <v>552</v>
-      </c>
-      <c r="B259" t="s">
-        <v>557</v>
-      </c>
-      <c r="D259" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>553</v>
       </c>
       <c r="B260" t="s">
         <v>557</v>
       </c>
-      <c r="D260" t="s">
+      <c r="K260" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B261" t="s">
         <v>557</v>
       </c>
-      <c r="D261" t="s">
+      <c r="K261" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
+        <v>554</v>
+      </c>
+      <c r="B262" t="s">
+        <v>557</v>
+      </c>
+      <c r="K262" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" t="s">
         <v>555</v>
-      </c>
-      <c r="B262" t="s">
-        <v>558</v>
-      </c>
-      <c r="D262" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
-        <v>556</v>
       </c>
       <c r="B263" t="s">
         <v>558</v>
       </c>
-      <c r="D263" t="s">
+      <c r="K263" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B264" t="s">
         <v>558</v>
       </c>
-      <c r="D264" t="s">
+      <c r="K264" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
+        <v>551</v>
+      </c>
+      <c r="B265" t="s">
+        <v>558</v>
+      </c>
+      <c r="K265" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" t="s">
         <v>559</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>560</v>
       </c>
-      <c r="D265" t="s">
+      <c r="K266" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
+    <row r="267" spans="1:11">
+      <c r="A267" t="s">
         <v>564</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>561</v>
       </c>
-      <c r="D266" t="s">
+      <c r="K267" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
+    <row r="268" spans="1:11">
+      <c r="A268" t="s">
         <v>565</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>562</v>
       </c>
-      <c r="D267" t="s">
+      <c r="K268" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
+    <row r="269" spans="1:11">
+      <c r="A269" t="s">
         <v>566</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>563</v>
       </c>
-      <c r="D268" t="s">
+      <c r="K269" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
+    <row r="270" spans="1:11">
+      <c r="A270" t="s">
         <v>568</v>
-      </c>
-      <c r="B269" t="s">
-        <v>576</v>
-      </c>
-      <c r="D269" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
-        <v>569</v>
       </c>
       <c r="B270" t="s">
         <v>576</v>
       </c>
-      <c r="D270" t="s">
+      <c r="K270" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B271" t="s">
         <v>576</v>
       </c>
-      <c r="D271" t="s">
+      <c r="K271" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B272" t="s">
         <v>576</v>
       </c>
-      <c r="D272" t="s">
+      <c r="K272" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B273" t="s">
         <v>576</v>
       </c>
-      <c r="D273" t="s">
+      <c r="K273" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B274" t="s">
         <v>576</v>
       </c>
-      <c r="D274" t="s">
+      <c r="K274" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B275" t="s">
         <v>576</v>
       </c>
-      <c r="D275" t="s">
+      <c r="K275" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B276" t="s">
         <v>576</v>
       </c>
-      <c r="D276" t="s">
+      <c r="K276" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
+        <v>575</v>
+      </c>
+      <c r="B277" t="s">
+        <v>576</v>
+      </c>
+      <c r="K277" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" t="s">
         <v>578</v>
-      </c>
-      <c r="B277" t="s">
-        <v>584</v>
-      </c>
-      <c r="D277" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" t="s">
-        <v>579</v>
       </c>
       <c r="B278" t="s">
         <v>584</v>
       </c>
-      <c r="D278" t="s">
+      <c r="K278" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B279" t="s">
         <v>584</v>
       </c>
-      <c r="D279" t="s">
+      <c r="K279" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B280" t="s">
         <v>584</v>
       </c>
-      <c r="D280" t="s">
+      <c r="K280" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B281" t="s">
         <v>584</v>
       </c>
-      <c r="D281" t="s">
+      <c r="K281" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B282" t="s">
         <v>584</v>
       </c>
-      <c r="D282" t="s">
+      <c r="K282" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
+        <v>583</v>
+      </c>
+      <c r="B283" t="s">
+        <v>584</v>
+      </c>
+      <c r="K283" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" t="s">
         <v>586</v>
-      </c>
-      <c r="B283" t="s">
-        <v>591</v>
-      </c>
-      <c r="D283" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
-        <v>587</v>
       </c>
       <c r="B284" t="s">
         <v>591</v>
       </c>
-      <c r="D284" t="s">
+      <c r="K284" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B285" t="s">
         <v>591</v>
       </c>
-      <c r="D285" t="s">
+      <c r="K285" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B286" t="s">
         <v>591</v>
       </c>
-      <c r="D286" t="s">
+      <c r="K286" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
+        <v>589</v>
+      </c>
+      <c r="B287" t="s">
+        <v>591</v>
+      </c>
+      <c r="K287" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" t="s">
         <v>592</v>
-      </c>
-      <c r="B287" t="s">
-        <v>594</v>
-      </c>
-      <c r="C287" t="s">
-        <v>709</v>
-      </c>
-      <c r="D287" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
-        <v>593</v>
       </c>
       <c r="B288" t="s">
         <v>594</v>
       </c>
-      <c r="C288" t="s">
+      <c r="J288" t="s">
         <v>709</v>
       </c>
-      <c r="D288" t="s">
+      <c r="K288" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
+        <v>593</v>
+      </c>
+      <c r="B289" t="s">
+        <v>594</v>
+      </c>
+      <c r="J289" t="s">
+        <v>709</v>
+      </c>
+      <c r="K289" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" t="s">
         <v>596</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>597</v>
       </c>
-      <c r="C289" t="s">
+      <c r="J290" t="s">
         <v>710</v>
       </c>
-      <c r="D289" t="s">
+      <c r="K290" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
+    <row r="291" spans="1:11">
+      <c r="A291" t="s">
         <v>646</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>703</v>
       </c>
-      <c r="C290" t="s">
+      <c r="J291" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
+    <row r="292" spans="1:11">
+      <c r="A292" t="s">
         <v>600</v>
-      </c>
-      <c r="B291" t="s">
-        <v>599</v>
-      </c>
-      <c r="C291" t="s">
-        <v>724</v>
-      </c>
-      <c r="D291" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
-        <v>601</v>
       </c>
       <c r="B292" t="s">
         <v>599</v>
       </c>
-      <c r="C292" t="s">
+      <c r="J292" t="s">
         <v>724</v>
       </c>
-      <c r="D292" t="s">
+      <c r="K292" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B293" t="s">
         <v>599</v>
       </c>
-      <c r="C293" t="s">
-        <v>725</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="J293" t="s">
+        <v>724</v>
+      </c>
+      <c r="K293" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B294" t="s">
         <v>599</v>
       </c>
-      <c r="C294" t="s">
+      <c r="J294" t="s">
         <v>725</v>
       </c>
-      <c r="D294" t="s">
+      <c r="K294" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B295" t="s">
         <v>599</v>
       </c>
-      <c r="C295" t="s">
+      <c r="J295" t="s">
         <v>725</v>
       </c>
-      <c r="D295" t="s">
+      <c r="K295" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B296" t="s">
         <v>599</v>
       </c>
-      <c r="C296" t="s">
+      <c r="J296" t="s">
         <v>725</v>
       </c>
-      <c r="D296" t="s">
+      <c r="K296" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B297" t="s">
         <v>599</v>
       </c>
-      <c r="C297" t="s">
+      <c r="J297" t="s">
         <v>725</v>
       </c>
-      <c r="D297" t="s">
+      <c r="K297" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B298" t="s">
         <v>599</v>
       </c>
-      <c r="C298" t="s">
+      <c r="J298" t="s">
         <v>725</v>
       </c>
-      <c r="D298" t="s">
+      <c r="K298" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
+        <v>607</v>
+      </c>
+      <c r="B299" t="s">
+        <v>599</v>
+      </c>
+      <c r="J299" t="s">
+        <v>725</v>
+      </c>
+      <c r="K299" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" t="s">
         <v>608</v>
-      </c>
-      <c r="B299" t="s">
-        <v>609</v>
-      </c>
-      <c r="C299" t="s">
-        <v>707</v>
-      </c>
-      <c r="D299" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>610</v>
       </c>
       <c r="B300" t="s">
         <v>609</v>
       </c>
-      <c r="C300" t="s">
+      <c r="J300" t="s">
         <v>707</v>
       </c>
-      <c r="D300" t="s">
+      <c r="K300" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:11">
       <c r="A301" t="s">
+        <v>610</v>
+      </c>
+      <c r="B301" t="s">
+        <v>609</v>
+      </c>
+      <c r="J301" t="s">
+        <v>707</v>
+      </c>
+      <c r="K301" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" t="s">
         <v>611</v>
-      </c>
-      <c r="B301" t="s">
-        <v>621</v>
-      </c>
-      <c r="C301" t="s">
-        <v>708</v>
-      </c>
-      <c r="D301" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
-        <v>612</v>
       </c>
       <c r="B302" t="s">
         <v>621</v>
       </c>
-      <c r="C302" t="s">
+      <c r="J302" t="s">
         <v>708</v>
       </c>
-      <c r="D302" t="s">
+      <c r="K302" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
+        <v>612</v>
+      </c>
+      <c r="B303" t="s">
+        <v>621</v>
+      </c>
+      <c r="J303" t="s">
+        <v>708</v>
+      </c>
+      <c r="K303" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" t="s">
         <v>613</v>
-      </c>
-      <c r="B303" t="s">
-        <v>622</v>
-      </c>
-      <c r="C303" t="s">
-        <v>708</v>
-      </c>
-      <c r="D303" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
-        <v>614</v>
       </c>
       <c r="B304" t="s">
         <v>622</v>
       </c>
-      <c r="C304" t="s">
+      <c r="J304" t="s">
         <v>708</v>
       </c>
-      <c r="D304" t="s">
+      <c r="K304" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:11">
       <c r="A305" t="s">
+        <v>614</v>
+      </c>
+      <c r="B305" t="s">
+        <v>622</v>
+      </c>
+      <c r="J305" t="s">
+        <v>708</v>
+      </c>
+      <c r="K305" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" t="s">
         <v>615</v>
-      </c>
-      <c r="B305" t="s">
-        <v>623</v>
-      </c>
-      <c r="C305" t="s">
-        <v>708</v>
-      </c>
-      <c r="D305" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" t="s">
-        <v>616</v>
       </c>
       <c r="B306" t="s">
         <v>623</v>
       </c>
-      <c r="C306" t="s">
+      <c r="J306" t="s">
         <v>708</v>
       </c>
-      <c r="D306" t="s">
+      <c r="K306" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:11">
       <c r="A307" t="s">
+        <v>616</v>
+      </c>
+      <c r="B307" t="s">
+        <v>623</v>
+      </c>
+      <c r="J307" t="s">
+        <v>708</v>
+      </c>
+      <c r="K307" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" t="s">
         <v>617</v>
-      </c>
-      <c r="B307" t="s">
-        <v>624</v>
-      </c>
-      <c r="C307" t="s">
-        <v>708</v>
-      </c>
-      <c r="D307" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
-        <v>618</v>
       </c>
       <c r="B308" t="s">
         <v>624</v>
       </c>
-      <c r="C308" t="s">
+      <c r="J308" t="s">
         <v>708</v>
       </c>
-      <c r="D308" t="s">
+      <c r="K308" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:11">
       <c r="A309" t="s">
+        <v>618</v>
+      </c>
+      <c r="B309" t="s">
+        <v>624</v>
+      </c>
+      <c r="J309" t="s">
+        <v>708</v>
+      </c>
+      <c r="K309" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" t="s">
         <v>619</v>
-      </c>
-      <c r="B309" t="s">
-        <v>625</v>
-      </c>
-      <c r="C309" t="s">
-        <v>708</v>
-      </c>
-      <c r="D309" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
-        <v>620</v>
       </c>
       <c r="B310" t="s">
         <v>625</v>
       </c>
-      <c r="C310" t="s">
+      <c r="J310" t="s">
         <v>708</v>
       </c>
-      <c r="D310" t="s">
+      <c r="K310" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:11">
       <c r="A311" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" t="s">
+        <v>625</v>
+      </c>
+      <c r="J311" t="s">
+        <v>708</v>
+      </c>
+      <c r="K311" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" t="s">
         <v>627</v>
-      </c>
-      <c r="B311" t="s">
-        <v>626</v>
-      </c>
-      <c r="C311" t="s">
-        <v>705</v>
-      </c>
-      <c r="D311" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
-        <v>628</v>
       </c>
       <c r="B312" t="s">
         <v>626</v>
       </c>
-      <c r="C312" t="s">
+      <c r="J312" t="s">
         <v>705</v>
       </c>
-      <c r="D312" t="s">
+      <c r="K312" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:11">
       <c r="A313" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" t="s">
+        <v>626</v>
+      </c>
+      <c r="J313" t="s">
+        <v>705</v>
+      </c>
+      <c r="K313" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" t="s">
         <v>629</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>632</v>
       </c>
-      <c r="C313" t="s">
+      <c r="J314" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
+    <row r="315" spans="1:11">
+      <c r="A315" t="s">
         <v>630</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>633</v>
       </c>
-      <c r="C314" t="s">
+      <c r="J315" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" t="s">
+    <row r="316" spans="1:11">
+      <c r="A316" t="s">
         <v>631</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>634</v>
       </c>
-      <c r="C315" t="s">
+      <c r="J316" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" t="s">
+    <row r="317" spans="1:11">
+      <c r="A317" t="s">
         <v>635</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>636</v>
       </c>
-      <c r="C316" t="s">
+      <c r="J317" t="s">
         <v>711</v>
       </c>
-      <c r="D316" t="s">
+      <c r="K317" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" t="s">
+    <row r="318" spans="1:11">
+      <c r="A318" t="s">
         <v>727</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>637</v>
       </c>
-      <c r="C317" t="s">
+      <c r="J318" t="s">
         <v>711</v>
       </c>
-      <c r="D317" t="s">
+      <c r="K318" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" t="s">
+    <row r="319" spans="1:11">
+      <c r="A319" t="s">
         <v>728</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>638</v>
       </c>
-      <c r="C318" t="s">
+      <c r="J319" t="s">
         <v>712</v>
       </c>
-      <c r="D318" t="s">
+      <c r="K319" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" t="s">
+    <row r="320" spans="1:11">
+      <c r="A320" t="s">
         <v>729</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>639</v>
       </c>
-      <c r="C319" t="s">
+      <c r="J320" t="s">
         <v>712</v>
       </c>
-      <c r="D319" t="s">
+      <c r="K320" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" t="s">
+    <row r="321" spans="1:11">
+      <c r="A321" t="s">
         <v>640</v>
-      </c>
-      <c r="B320" t="s">
-        <v>645</v>
-      </c>
-      <c r="C320" t="s">
-        <v>713</v>
-      </c>
-      <c r="D320" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" t="s">
-        <v>641</v>
       </c>
       <c r="B321" t="s">
         <v>645</v>
       </c>
-      <c r="C321" t="s">
+      <c r="J321" t="s">
         <v>713</v>
       </c>
-      <c r="D321" t="s">
+      <c r="K321" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B322" t="s">
         <v>645</v>
       </c>
-      <c r="C322" t="s">
-        <v>714</v>
-      </c>
-      <c r="D322" t="s">
+      <c r="J322" t="s">
+        <v>713</v>
+      </c>
+      <c r="K322" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B323" t="s">
         <v>645</v>
       </c>
-      <c r="C323" t="s">
+      <c r="J323" t="s">
         <v>714</v>
       </c>
-      <c r="D323" t="s">
+      <c r="K323" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B324" t="s">
         <v>645</v>
       </c>
-      <c r="C324" t="s">
+      <c r="J324" t="s">
         <v>714</v>
       </c>
-      <c r="D324" t="s">
+      <c r="K324" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:11">
       <c r="A325" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" t="s">
+        <v>645</v>
+      </c>
+      <c r="J325" t="s">
+        <v>714</v>
+      </c>
+      <c r="K325" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" t="s">
         <v>647</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>651</v>
       </c>
-      <c r="C325" t="s">
+      <c r="J326" t="s">
         <v>715</v>
       </c>
-      <c r="D325" t="s">
+      <c r="K326" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" t="s">
+    <row r="327" spans="1:11">
+      <c r="A327" t="s">
         <v>648</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>652</v>
       </c>
-      <c r="C326" t="s">
+      <c r="J327" t="s">
         <v>715</v>
       </c>
-      <c r="D326" t="s">
+      <c r="K327" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" t="s">
+    <row r="328" spans="1:11">
+      <c r="A328" t="s">
         <v>649</v>
-      </c>
-      <c r="B327" t="s">
-        <v>653</v>
-      </c>
-      <c r="C327" t="s">
-        <v>716</v>
-      </c>
-      <c r="D327" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" t="s">
-        <v>650</v>
       </c>
       <c r="B328" t="s">
         <v>653</v>
       </c>
-      <c r="C328" t="s">
+      <c r="J328" t="s">
         <v>716</v>
       </c>
-      <c r="D328" t="s">
+      <c r="K328" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:11">
       <c r="A329" t="s">
+        <v>650</v>
+      </c>
+      <c r="B329" t="s">
+        <v>653</v>
+      </c>
+      <c r="J329" t="s">
+        <v>716</v>
+      </c>
+      <c r="K329" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" t="s">
         <v>654</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>673</v>
       </c>
-      <c r="C329" t="s">
+      <c r="J330" t="s">
         <v>719</v>
       </c>
-      <c r="D329" t="s">
+      <c r="K330" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" t="s">
+    <row r="331" spans="1:11">
+      <c r="A331" t="s">
         <v>655</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>674</v>
       </c>
-      <c r="C330" t="s">
+      <c r="J331" t="s">
         <v>719</v>
       </c>
-      <c r="D330" t="s">
+      <c r="K331" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" t="s">
+    <row r="332" spans="1:11">
+      <c r="A332" t="s">
         <v>667</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>675</v>
       </c>
-      <c r="C331" t="s">
+      <c r="J332" t="s">
         <v>720</v>
       </c>
-      <c r="D331" t="s">
+      <c r="K332" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" t="s">
+    <row r="333" spans="1:11">
+      <c r="A333" t="s">
         <v>668</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>676</v>
       </c>
-      <c r="C332" t="s">
+      <c r="J333" t="s">
         <v>720</v>
       </c>
-      <c r="D332" t="s">
+      <c r="K333" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" t="s">
+    <row r="334" spans="1:11">
+      <c r="A334" t="s">
         <v>669</v>
-      </c>
-      <c r="B333" t="s">
-        <v>677</v>
-      </c>
-      <c r="C333" t="s">
-        <v>721</v>
-      </c>
-      <c r="D333" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" t="s">
-        <v>670</v>
       </c>
       <c r="B334" t="s">
         <v>677</v>
       </c>
-      <c r="C334" t="s">
+      <c r="J334" t="s">
         <v>721</v>
       </c>
-      <c r="D334" t="s">
+      <c r="K334" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:11">
       <c r="A335" t="s">
+        <v>670</v>
+      </c>
+      <c r="B335" t="s">
+        <v>677</v>
+      </c>
+      <c r="J335" t="s">
+        <v>721</v>
+      </c>
+      <c r="K335" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" t="s">
         <v>656</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>678</v>
       </c>
-      <c r="C335" t="s">
+      <c r="J336" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" t="s">
+    <row r="337" spans="1:11">
+      <c r="A337" t="s">
         <v>657</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>679</v>
       </c>
-      <c r="C336" t="s">
+      <c r="J337" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" t="s">
+    <row r="338" spans="1:11">
+      <c r="A338" t="s">
         <v>658</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>680</v>
       </c>
-      <c r="C337" t="s">
+      <c r="J338" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" t="s">
+    <row r="339" spans="1:11">
+      <c r="A339" t="s">
         <v>659</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>681</v>
       </c>
-      <c r="C338" t="s">
+      <c r="J339" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" t="s">
+    <row r="340" spans="1:11">
+      <c r="A340" t="s">
         <v>660</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>682</v>
       </c>
-      <c r="C339" t="s">
+      <c r="J340" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" t="s">
+    <row r="341" spans="1:11">
+      <c r="A341" t="s">
         <v>661</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>683</v>
       </c>
-      <c r="C340" t="s">
+      <c r="J341" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" t="s">
+    <row r="342" spans="1:11">
+      <c r="A342" t="s">
         <v>662</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>684</v>
       </c>
-      <c r="C341" t="s">
+      <c r="J342" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" t="s">
+    <row r="343" spans="1:11">
+      <c r="A343" t="s">
         <v>663</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B343" t="s">
         <v>685</v>
       </c>
-      <c r="C342" t="s">
+      <c r="J343" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" t="s">
+    <row r="344" spans="1:11">
+      <c r="A344" t="s">
         <v>664</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>686</v>
       </c>
-      <c r="C343" t="s">
+      <c r="J344" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" t="s">
+    <row r="345" spans="1:11">
+      <c r="A345" t="s">
         <v>665</v>
-      </c>
-      <c r="B344" t="s">
-        <v>687</v>
-      </c>
-      <c r="C344" t="s">
-        <v>717</v>
-      </c>
-      <c r="D344" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" t="s">
-        <v>666</v>
       </c>
       <c r="B345" t="s">
         <v>687</v>
       </c>
-      <c r="C345" t="s">
+      <c r="J345" t="s">
         <v>717</v>
       </c>
-      <c r="D345" t="s">
+      <c r="K345" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:11">
       <c r="A346" t="s">
+        <v>666</v>
+      </c>
+      <c r="B346" t="s">
+        <v>687</v>
+      </c>
+      <c r="J346" t="s">
+        <v>717</v>
+      </c>
+      <c r="K346" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" t="s">
         <v>731</v>
-      </c>
-      <c r="B346" t="s">
-        <v>688</v>
-      </c>
-      <c r="C346" t="s">
-        <v>718</v>
-      </c>
-      <c r="D346" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" t="s">
-        <v>730</v>
       </c>
       <c r="B347" t="s">
         <v>688</v>
       </c>
-      <c r="C347" t="s">
+      <c r="J347" t="s">
         <v>718</v>
       </c>
-      <c r="D347" t="s">
+      <c r="K347" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:11">
       <c r="A348" t="s">
-        <v>671</v>
+        <v>730</v>
       </c>
       <c r="B348" t="s">
         <v>688</v>
       </c>
-      <c r="C348" t="s">
+      <c r="J348" t="s">
         <v>718</v>
       </c>
-      <c r="D348" t="s">
+      <c r="K348" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:11">
       <c r="A349" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B349" t="s">
         <v>688</v>
       </c>
-      <c r="C349" t="s">
+      <c r="J349" t="s">
         <v>718</v>
       </c>
-      <c r="D349" t="s">
+      <c r="K349" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="D350" t="s">
+    <row r="350" spans="1:11">
+      <c r="A350" t="s">
+        <v>672</v>
+      </c>
+      <c r="B350" t="s">
+        <v>688</v>
+      </c>
+      <c r="J350" t="s">
+        <v>718</v>
+      </c>
+      <c r="K350" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="K351" t="s">
         <v>702</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A268">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A269">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPTLab/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AA989-8827-724B-9B44-6B54A5DAD0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B30D8-6011-9C45-87E3-3759D67A37CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="786">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -2430,6 +2430,144 @@
   </si>
   <si>
     <t>File name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuhan, China </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient 9, a 49-year-old female admitted on 1 day post onset of illness (dpoi), showed the most obvious pulmonary image improvement. On 10 dpoi, one dose of 200 mL transfusion of CP was given. The SARS-CoV-2 RNA converted to negative on 12 dpoi. Compared with the result on 7 dpoi, massive infiltration and ground-glass attenuation disappeared on CT image performed on 13 dpoi, accompanied bya much better pulmonary function. </t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe </t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient 10, a 50-year-old male, was admitted on 3 dpoi and was given a 200 mL transfusion of CP on 20 dpoi. His chest CT presented massive infiltration and widespread ground-glass attenuation on admission andstarted to show a gradual absorption of lung lesions 5 days after CP transfusion. The SARS-CoV-2 RNA became negative on 25 dpoi. </t>
+  </si>
+  <si>
+    <t>19 days</t>
+  </si>
+  <si>
+    <t>29 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a cruise ship “Diamond Princess” in Japan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The patchy non-segmental ground grass opacity (GGO) adjacent to the parietal pleura in the right upper lobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asymptomatic </t>
+  </si>
+  <si>
+    <t>The GGO with interlobular septal thickening (crazy-paving appearance) adjacent to the parietal pleura in the both lower lobes</t>
+  </si>
+  <si>
+    <t>the GGO with consolidation, bronchial wall thickening, and bronchiectasis in the left lower lobe</t>
+  </si>
+  <si>
+    <t>On the fourth day of admission, he showed tachypnea and hypoxemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On the day of admission</t>
+  </si>
+  <si>
+    <t>an increase of extent of GGO with crazy-paving appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On the tenth day of admission</t>
+  </si>
+  <si>
+    <t>Hainan, China</t>
+  </si>
+  <si>
+    <t>ground glass opacity in both lungs on day 10 after symptom onset.</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fibrous cord shadows in both lungs, and the absorption of inflammation. </t>
+  </si>
+  <si>
+    <t>23 days</t>
+  </si>
+  <si>
+    <t>symptoms of fever, cough, and dyspnoea</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mild </t>
+  </si>
+  <si>
+    <t>symptoms of fever and dyspnoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xi'an, China </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At day 22, the intrapulmonary lesions were significantly absorbed and dissipated by meplazumab addon treatment.</t>
+  </si>
+  <si>
+    <t>22 days</t>
+  </si>
+  <si>
+    <t>40+</t>
+  </si>
+  <si>
+    <t>Feb. 20, the next day after admission to hospital. Both lower lungs showed multiple diffuse patch-shape areas and GGO, especially obvious in the left lower lung. 36.4 °C (Feb. 20).</t>
+  </si>
+  <si>
+    <t>Feb. 14, admission to hospital. Subpleural area of the right lower lung showed GGO. 36.5 °C (Feb. 14). Chest distress (Feb. 14).</t>
+  </si>
+  <si>
+    <t>Feb. 17, 3 days after lopinavir/ritonavir treatment. Right lower lung showed further consolidation, along with GGO and patch-shape areas. Weak positive (Feb. 17) Weak positive (Feb. 18). 37 °C (Feb. 17)
+Chest distress (Feb. 17).</t>
+  </si>
+  <si>
+    <t>Feb. 10, next day after admission to hospital. Subpleural areas of both lower lungs and the tongue-like segment of the left lung showed GGO and patch-shape areas.  
+37.4 °C (Feb. 10) Slight cough (Feb. 10).</t>
+  </si>
+  <si>
+    <t>Feb. 13, 4 days after lopinavir/ritonavir treatment. GGO and patch-shape areas showed a slightly higher density compared to previous CT image. 36.4 °C (Feb. 13)
+Diarrhea with yellow thin stool (Feb. 13).</t>
+  </si>
+  <si>
+    <t>Feb. 17, 8 days after lopinavir/ritonavir treatment. No significant changes were observed compared to previous CT image. The opacities at tongue-like segment increased. 36.5 °C (Feb. 17)
+Slight cough with white sputum (Feb. 17).</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3318,7 +3456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -5617,6 +5757,24 @@
       <c r="B206" t="s">
         <v>516</v>
       </c>
+      <c r="C206">
+        <v>49</v>
+      </c>
+      <c r="D206" t="s">
+        <v>743</v>
+      </c>
+      <c r="E206" t="s">
+        <v>744</v>
+      </c>
+      <c r="F206" t="s">
+        <v>745</v>
+      </c>
+      <c r="G206" t="s">
+        <v>746</v>
+      </c>
+      <c r="H206" t="s">
+        <v>747</v>
+      </c>
       <c r="K206" t="s">
         <v>356</v>
       </c>
@@ -5628,6 +5786,24 @@
       <c r="B207" t="s">
         <v>516</v>
       </c>
+      <c r="C207">
+        <v>49</v>
+      </c>
+      <c r="D207" t="s">
+        <v>743</v>
+      </c>
+      <c r="E207" t="s">
+        <v>744</v>
+      </c>
+      <c r="F207" t="s">
+        <v>745</v>
+      </c>
+      <c r="G207" t="s">
+        <v>748</v>
+      </c>
+      <c r="H207" t="s">
+        <v>747</v>
+      </c>
       <c r="K207" t="s">
         <v>357</v>
       </c>
@@ -5639,6 +5815,24 @@
       <c r="B208" t="s">
         <v>517</v>
       </c>
+      <c r="C208">
+        <v>50</v>
+      </c>
+      <c r="D208" t="s">
+        <v>749</v>
+      </c>
+      <c r="E208" t="s">
+        <v>744</v>
+      </c>
+      <c r="F208" t="s">
+        <v>750</v>
+      </c>
+      <c r="G208" t="s">
+        <v>751</v>
+      </c>
+      <c r="H208" t="s">
+        <v>747</v>
+      </c>
       <c r="K208" t="s">
         <v>358</v>
       </c>
@@ -5650,6 +5844,24 @@
       <c r="B209" t="s">
         <v>517</v>
       </c>
+      <c r="C209">
+        <v>50</v>
+      </c>
+      <c r="D209" t="s">
+        <v>749</v>
+      </c>
+      <c r="E209" t="s">
+        <v>744</v>
+      </c>
+      <c r="F209" t="s">
+        <v>750</v>
+      </c>
+      <c r="G209" t="s">
+        <v>752</v>
+      </c>
+      <c r="H209" t="s">
+        <v>747</v>
+      </c>
       <c r="K209" t="s">
         <v>359</v>
       </c>
@@ -5661,6 +5873,21 @@
       <c r="B210" t="s">
         <v>518</v>
       </c>
+      <c r="C210">
+        <v>73</v>
+      </c>
+      <c r="D210" t="s">
+        <v>743</v>
+      </c>
+      <c r="E210" t="s">
+        <v>753</v>
+      </c>
+      <c r="F210" t="s">
+        <v>754</v>
+      </c>
+      <c r="H210" t="s">
+        <v>755</v>
+      </c>
       <c r="K210" t="s">
         <v>360</v>
       </c>
@@ -5672,6 +5899,21 @@
       <c r="B211" t="s">
         <v>518</v>
       </c>
+      <c r="C211">
+        <v>73</v>
+      </c>
+      <c r="D211" t="s">
+        <v>743</v>
+      </c>
+      <c r="E211" t="s">
+        <v>753</v>
+      </c>
+      <c r="F211" t="s">
+        <v>754</v>
+      </c>
+      <c r="H211" t="s">
+        <v>755</v>
+      </c>
       <c r="K211" t="s">
         <v>360</v>
       </c>
@@ -5683,6 +5925,21 @@
       <c r="B212" t="s">
         <v>518</v>
       </c>
+      <c r="C212">
+        <v>70</v>
+      </c>
+      <c r="D212" t="s">
+        <v>743</v>
+      </c>
+      <c r="E212" t="s">
+        <v>753</v>
+      </c>
+      <c r="F212" t="s">
+        <v>756</v>
+      </c>
+      <c r="H212" t="s">
+        <v>755</v>
+      </c>
       <c r="K212" t="s">
         <v>361</v>
       </c>
@@ -5694,6 +5951,21 @@
       <c r="B213" t="s">
         <v>518</v>
       </c>
+      <c r="C213">
+        <v>76</v>
+      </c>
+      <c r="D213" t="s">
+        <v>749</v>
+      </c>
+      <c r="E213" t="s">
+        <v>753</v>
+      </c>
+      <c r="F213" t="s">
+        <v>757</v>
+      </c>
+      <c r="H213" t="s">
+        <v>755</v>
+      </c>
       <c r="K213" t="s">
         <v>362</v>
       </c>
@@ -5705,6 +5977,24 @@
       <c r="B214" t="s">
         <v>519</v>
       </c>
+      <c r="C214">
+        <v>75</v>
+      </c>
+      <c r="D214" t="s">
+        <v>749</v>
+      </c>
+      <c r="E214" t="s">
+        <v>753</v>
+      </c>
+      <c r="F214" t="s">
+        <v>758</v>
+      </c>
+      <c r="G214" t="s">
+        <v>759</v>
+      </c>
+      <c r="H214" t="s">
+        <v>747</v>
+      </c>
       <c r="K214" t="s">
         <v>363</v>
       </c>
@@ -5716,6 +6006,24 @@
       <c r="B215" t="s">
         <v>519</v>
       </c>
+      <c r="C215">
+        <v>75</v>
+      </c>
+      <c r="D215" t="s">
+        <v>749</v>
+      </c>
+      <c r="E215" t="s">
+        <v>753</v>
+      </c>
+      <c r="F215" t="s">
+        <v>758</v>
+      </c>
+      <c r="G215" t="s">
+        <v>759</v>
+      </c>
+      <c r="H215" t="s">
+        <v>747</v>
+      </c>
       <c r="K215" t="s">
         <v>363</v>
       </c>
@@ -5727,6 +6035,24 @@
       <c r="B216" t="s">
         <v>519</v>
       </c>
+      <c r="C216">
+        <v>75</v>
+      </c>
+      <c r="D216" t="s">
+        <v>749</v>
+      </c>
+      <c r="E216" t="s">
+        <v>753</v>
+      </c>
+      <c r="F216" t="s">
+        <v>758</v>
+      </c>
+      <c r="G216" t="s">
+        <v>759</v>
+      </c>
+      <c r="H216" t="s">
+        <v>747</v>
+      </c>
       <c r="K216" t="s">
         <v>363</v>
       </c>
@@ -5738,6 +6064,24 @@
       <c r="B217" t="s">
         <v>519</v>
       </c>
+      <c r="C217">
+        <v>75</v>
+      </c>
+      <c r="D217" t="s">
+        <v>749</v>
+      </c>
+      <c r="E217" t="s">
+        <v>753</v>
+      </c>
+      <c r="F217" t="s">
+        <v>760</v>
+      </c>
+      <c r="G217" t="s">
+        <v>761</v>
+      </c>
+      <c r="H217" t="s">
+        <v>747</v>
+      </c>
       <c r="K217" t="s">
         <v>364</v>
       </c>
@@ -5749,6 +6093,24 @@
       <c r="B218" t="s">
         <v>519</v>
       </c>
+      <c r="C218">
+        <v>75</v>
+      </c>
+      <c r="D218" t="s">
+        <v>749</v>
+      </c>
+      <c r="E218" t="s">
+        <v>753</v>
+      </c>
+      <c r="F218" t="s">
+        <v>760</v>
+      </c>
+      <c r="G218" t="s">
+        <v>761</v>
+      </c>
+      <c r="H218" t="s">
+        <v>747</v>
+      </c>
       <c r="K218" t="s">
         <v>364</v>
       </c>
@@ -5760,6 +6122,24 @@
       <c r="B219" t="s">
         <v>519</v>
       </c>
+      <c r="C219">
+        <v>75</v>
+      </c>
+      <c r="D219" t="s">
+        <v>749</v>
+      </c>
+      <c r="E219" t="s">
+        <v>753</v>
+      </c>
+      <c r="F219" t="s">
+        <v>760</v>
+      </c>
+      <c r="G219" t="s">
+        <v>761</v>
+      </c>
+      <c r="H219" t="s">
+        <v>747</v>
+      </c>
       <c r="K219" t="s">
         <v>364</v>
       </c>
@@ -5771,6 +6151,21 @@
       <c r="B220" t="s">
         <v>520</v>
       </c>
+      <c r="C220">
+        <v>50</v>
+      </c>
+      <c r="E220" t="s">
+        <v>762</v>
+      </c>
+      <c r="F220" t="s">
+        <v>763</v>
+      </c>
+      <c r="G220" t="s">
+        <v>764</v>
+      </c>
+      <c r="H220" t="s">
+        <v>747</v>
+      </c>
       <c r="K220" t="s">
         <v>365</v>
       </c>
@@ -5782,6 +6177,21 @@
       <c r="B221" t="s">
         <v>520</v>
       </c>
+      <c r="C221">
+        <v>50</v>
+      </c>
+      <c r="E221" t="s">
+        <v>762</v>
+      </c>
+      <c r="F221" t="s">
+        <v>763</v>
+      </c>
+      <c r="G221" t="s">
+        <v>764</v>
+      </c>
+      <c r="H221" t="s">
+        <v>747</v>
+      </c>
       <c r="K221" t="s">
         <v>365</v>
       </c>
@@ -5793,6 +6203,21 @@
       <c r="B222" t="s">
         <v>520</v>
       </c>
+      <c r="C222">
+        <v>50</v>
+      </c>
+      <c r="E222" t="s">
+        <v>762</v>
+      </c>
+      <c r="F222" t="s">
+        <v>763</v>
+      </c>
+      <c r="G222" t="s">
+        <v>764</v>
+      </c>
+      <c r="H222" t="s">
+        <v>747</v>
+      </c>
       <c r="K222" t="s">
         <v>365</v>
       </c>
@@ -5804,6 +6229,21 @@
       <c r="B223" t="s">
         <v>520</v>
       </c>
+      <c r="C223">
+        <v>50</v>
+      </c>
+      <c r="E223" t="s">
+        <v>762</v>
+      </c>
+      <c r="F223" t="s">
+        <v>765</v>
+      </c>
+      <c r="G223" t="s">
+        <v>766</v>
+      </c>
+      <c r="H223" t="s">
+        <v>747</v>
+      </c>
       <c r="K223" t="s">
         <v>365</v>
       </c>
@@ -5815,6 +6255,21 @@
       <c r="B224" t="s">
         <v>520</v>
       </c>
+      <c r="C224">
+        <v>50</v>
+      </c>
+      <c r="E224" t="s">
+        <v>762</v>
+      </c>
+      <c r="F224" t="s">
+        <v>765</v>
+      </c>
+      <c r="G224" t="s">
+        <v>766</v>
+      </c>
+      <c r="H224" t="s">
+        <v>747</v>
+      </c>
       <c r="K224" t="s">
         <v>365</v>
       </c>
@@ -5826,6 +6281,21 @@
       <c r="B225" t="s">
         <v>520</v>
       </c>
+      <c r="C225">
+        <v>50</v>
+      </c>
+      <c r="E225" t="s">
+        <v>762</v>
+      </c>
+      <c r="F225" t="s">
+        <v>765</v>
+      </c>
+      <c r="G225" t="s">
+        <v>766</v>
+      </c>
+      <c r="H225" t="s">
+        <v>747</v>
+      </c>
       <c r="K225" t="s">
         <v>365</v>
       </c>
@@ -5837,6 +6307,24 @@
       <c r="B226" t="s">
         <v>521</v>
       </c>
+      <c r="C226">
+        <v>32</v>
+      </c>
+      <c r="D226" t="s">
+        <v>749</v>
+      </c>
+      <c r="E226" t="s">
+        <v>744</v>
+      </c>
+      <c r="F226" t="s">
+        <v>767</v>
+      </c>
+      <c r="G226" t="s">
+        <v>768</v>
+      </c>
+      <c r="H226" t="s">
+        <v>769</v>
+      </c>
       <c r="K226" t="s">
         <v>257</v>
       </c>
@@ -5848,6 +6336,24 @@
       <c r="B227" t="s">
         <v>522</v>
       </c>
+      <c r="C227">
+        <v>32</v>
+      </c>
+      <c r="D227" t="s">
+        <v>749</v>
+      </c>
+      <c r="E227" t="s">
+        <v>744</v>
+      </c>
+      <c r="F227" t="s">
+        <v>767</v>
+      </c>
+      <c r="G227" t="s">
+        <v>768</v>
+      </c>
+      <c r="H227" t="s">
+        <v>769</v>
+      </c>
       <c r="K227" t="s">
         <v>257</v>
       </c>
@@ -5859,6 +6365,24 @@
       <c r="B228" t="s">
         <v>523</v>
       </c>
+      <c r="C228">
+        <v>64</v>
+      </c>
+      <c r="D228" t="s">
+        <v>749</v>
+      </c>
+      <c r="E228" t="s">
+        <v>744</v>
+      </c>
+      <c r="F228" t="s">
+        <v>770</v>
+      </c>
+      <c r="G228" t="s">
+        <v>768</v>
+      </c>
+      <c r="H228" t="s">
+        <v>769</v>
+      </c>
       <c r="K228" t="s">
         <v>257</v>
       </c>
@@ -5870,6 +6394,24 @@
       <c r="B229" t="s">
         <v>524</v>
       </c>
+      <c r="C229">
+        <v>64</v>
+      </c>
+      <c r="D229" t="s">
+        <v>749</v>
+      </c>
+      <c r="E229" t="s">
+        <v>744</v>
+      </c>
+      <c r="F229" t="s">
+        <v>770</v>
+      </c>
+      <c r="G229" t="s">
+        <v>768</v>
+      </c>
+      <c r="H229" t="s">
+        <v>769</v>
+      </c>
       <c r="K229" t="s">
         <v>257</v>
       </c>
@@ -5881,6 +6423,21 @@
       <c r="B230" t="s">
         <v>525</v>
       </c>
+      <c r="C230">
+        <v>65</v>
+      </c>
+      <c r="D230" t="s">
+        <v>749</v>
+      </c>
+      <c r="E230" t="s">
+        <v>771</v>
+      </c>
+      <c r="F230" t="s">
+        <v>772</v>
+      </c>
+      <c r="G230" t="s">
+        <v>773</v>
+      </c>
       <c r="K230" t="s">
         <v>526</v>
       </c>
@@ -5892,6 +6449,21 @@
       <c r="B231" t="s">
         <v>525</v>
       </c>
+      <c r="C231">
+        <v>65</v>
+      </c>
+      <c r="D231" t="s">
+        <v>749</v>
+      </c>
+      <c r="E231" t="s">
+        <v>771</v>
+      </c>
+      <c r="F231" t="s">
+        <v>772</v>
+      </c>
+      <c r="G231" t="s">
+        <v>773</v>
+      </c>
       <c r="K231" t="s">
         <v>526</v>
       </c>
@@ -5903,6 +6475,21 @@
       <c r="B232" t="s">
         <v>525</v>
       </c>
+      <c r="C232">
+        <v>65</v>
+      </c>
+      <c r="D232" t="s">
+        <v>749</v>
+      </c>
+      <c r="E232" t="s">
+        <v>771</v>
+      </c>
+      <c r="F232" t="s">
+        <v>772</v>
+      </c>
+      <c r="G232" t="s">
+        <v>773</v>
+      </c>
       <c r="K232" t="s">
         <v>526</v>
       </c>
@@ -5914,6 +6501,21 @@
       <c r="B233" t="s">
         <v>525</v>
       </c>
+      <c r="C233">
+        <v>65</v>
+      </c>
+      <c r="D233" t="s">
+        <v>749</v>
+      </c>
+      <c r="E233" t="s">
+        <v>771</v>
+      </c>
+      <c r="F233" t="s">
+        <v>772</v>
+      </c>
+      <c r="G233" t="s">
+        <v>773</v>
+      </c>
       <c r="K233" t="s">
         <v>526</v>
       </c>
@@ -5925,6 +6527,21 @@
       <c r="B234" t="s">
         <v>525</v>
       </c>
+      <c r="C234">
+        <v>65</v>
+      </c>
+      <c r="D234" t="s">
+        <v>749</v>
+      </c>
+      <c r="E234" t="s">
+        <v>771</v>
+      </c>
+      <c r="F234" t="s">
+        <v>772</v>
+      </c>
+      <c r="G234" t="s">
+        <v>773</v>
+      </c>
       <c r="K234" t="s">
         <v>526</v>
       </c>
@@ -5936,6 +6553,21 @@
       <c r="B235" t="s">
         <v>525</v>
       </c>
+      <c r="C235">
+        <v>65</v>
+      </c>
+      <c r="D235" t="s">
+        <v>749</v>
+      </c>
+      <c r="E235" t="s">
+        <v>771</v>
+      </c>
+      <c r="F235" t="s">
+        <v>772</v>
+      </c>
+      <c r="G235" t="s">
+        <v>773</v>
+      </c>
       <c r="K235" t="s">
         <v>526</v>
       </c>
@@ -5947,6 +6579,21 @@
       <c r="B236" t="s">
         <v>525</v>
       </c>
+      <c r="C236">
+        <v>65</v>
+      </c>
+      <c r="D236" t="s">
+        <v>749</v>
+      </c>
+      <c r="E236" t="s">
+        <v>771</v>
+      </c>
+      <c r="F236" t="s">
+        <v>772</v>
+      </c>
+      <c r="G236" t="s">
+        <v>773</v>
+      </c>
       <c r="K236" t="s">
         <v>526</v>
       </c>
@@ -5958,6 +6605,21 @@
       <c r="B237" t="s">
         <v>525</v>
       </c>
+      <c r="C237">
+        <v>65</v>
+      </c>
+      <c r="D237" t="s">
+        <v>749</v>
+      </c>
+      <c r="E237" t="s">
+        <v>771</v>
+      </c>
+      <c r="F237" t="s">
+        <v>772</v>
+      </c>
+      <c r="G237" t="s">
+        <v>773</v>
+      </c>
       <c r="K237" t="s">
         <v>526</v>
       </c>
@@ -5969,6 +6631,18 @@
       <c r="B238" t="s">
         <v>527</v>
       </c>
+      <c r="C238" t="s">
+        <v>774</v>
+      </c>
+      <c r="D238" t="s">
+        <v>743</v>
+      </c>
+      <c r="E238" t="s">
+        <v>744</v>
+      </c>
+      <c r="F238" t="s">
+        <v>775</v>
+      </c>
       <c r="K238" t="s">
         <v>366</v>
       </c>
@@ -5980,6 +6654,18 @@
       <c r="B239" t="s">
         <v>528</v>
       </c>
+      <c r="C239" t="s">
+        <v>774</v>
+      </c>
+      <c r="D239" t="s">
+        <v>749</v>
+      </c>
+      <c r="E239" t="s">
+        <v>744</v>
+      </c>
+      <c r="F239" t="s">
+        <v>776</v>
+      </c>
       <c r="K239" t="s">
         <v>367</v>
       </c>
@@ -5991,6 +6677,18 @@
       <c r="B240" t="s">
         <v>528</v>
       </c>
+      <c r="C240" t="s">
+        <v>774</v>
+      </c>
+      <c r="D240" t="s">
+        <v>749</v>
+      </c>
+      <c r="E240" t="s">
+        <v>744</v>
+      </c>
+      <c r="F240" t="s">
+        <v>777</v>
+      </c>
       <c r="K240" t="s">
         <v>367</v>
       </c>
@@ -6002,6 +6700,18 @@
       <c r="B241" t="s">
         <v>529</v>
       </c>
+      <c r="C241" t="s">
+        <v>774</v>
+      </c>
+      <c r="D241" t="s">
+        <v>743</v>
+      </c>
+      <c r="E241" t="s">
+        <v>744</v>
+      </c>
+      <c r="F241" t="s">
+        <v>778</v>
+      </c>
       <c r="K241" t="s">
         <v>368</v>
       </c>
@@ -6013,6 +6723,18 @@
       <c r="B242" t="s">
         <v>529</v>
       </c>
+      <c r="C242" t="s">
+        <v>774</v>
+      </c>
+      <c r="D242" t="s">
+        <v>743</v>
+      </c>
+      <c r="E242" t="s">
+        <v>744</v>
+      </c>
+      <c r="F242" t="s">
+        <v>779</v>
+      </c>
       <c r="K242" t="s">
         <v>368</v>
       </c>
@@ -6024,6 +6746,18 @@
       <c r="B243" t="s">
         <v>529</v>
       </c>
+      <c r="C243" t="s">
+        <v>774</v>
+      </c>
+      <c r="D243" t="s">
+        <v>743</v>
+      </c>
+      <c r="E243" t="s">
+        <v>744</v>
+      </c>
+      <c r="F243" t="s">
+        <v>780</v>
+      </c>
       <c r="K243" t="s">
         <v>368</v>
       </c>
@@ -6519,6 +7253,15 @@
       <c r="B288" t="s">
         <v>594</v>
       </c>
+      <c r="C288">
+        <v>65</v>
+      </c>
+      <c r="D288" t="s">
+        <v>782</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
       <c r="J288" t="s">
         <v>709</v>
       </c>
@@ -6533,6 +7276,15 @@
       <c r="B289" t="s">
         <v>594</v>
       </c>
+      <c r="C289">
+        <v>65</v>
+      </c>
+      <c r="D289" t="s">
+        <v>782</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
       <c r="J289" t="s">
         <v>709</v>
       </c>
@@ -6547,6 +7299,15 @@
       <c r="B290" t="s">
         <v>597</v>
       </c>
+      <c r="C290">
+        <v>65</v>
+      </c>
+      <c r="D290" t="s">
+        <v>782</v>
+      </c>
+      <c r="G290">
+        <v>3</v>
+      </c>
       <c r="J290" t="s">
         <v>710</v>
       </c>
@@ -6561,6 +7322,15 @@
       <c r="B291" t="s">
         <v>703</v>
       </c>
+      <c r="C291">
+        <v>46</v>
+      </c>
+      <c r="D291" t="s">
+        <v>783</v>
+      </c>
+      <c r="G291">
+        <v>4</v>
+      </c>
       <c r="J291" t="s">
         <v>704</v>
       </c>
@@ -6572,6 +7342,15 @@
       <c r="B292" t="s">
         <v>599</v>
       </c>
+      <c r="C292">
+        <v>32</v>
+      </c>
+      <c r="D292" t="s">
+        <v>783</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
       <c r="J292" t="s">
         <v>724</v>
       </c>
@@ -6586,6 +7365,15 @@
       <c r="B293" t="s">
         <v>599</v>
       </c>
+      <c r="C293">
+        <v>32</v>
+      </c>
+      <c r="D293" t="s">
+        <v>783</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
       <c r="J293" t="s">
         <v>724</v>
       </c>
@@ -6600,6 +7388,15 @@
       <c r="B294" t="s">
         <v>599</v>
       </c>
+      <c r="C294">
+        <v>32</v>
+      </c>
+      <c r="D294" t="s">
+        <v>783</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
       <c r="J294" t="s">
         <v>725</v>
       </c>
@@ -6614,6 +7411,15 @@
       <c r="B295" t="s">
         <v>599</v>
       </c>
+      <c r="C295">
+        <v>32</v>
+      </c>
+      <c r="D295" t="s">
+        <v>783</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
       <c r="J295" t="s">
         <v>725</v>
       </c>
@@ -6628,6 +7434,15 @@
       <c r="B296" t="s">
         <v>599</v>
       </c>
+      <c r="C296">
+        <v>32</v>
+      </c>
+      <c r="D296" t="s">
+        <v>783</v>
+      </c>
+      <c r="G296">
+        <v>7</v>
+      </c>
       <c r="J296" t="s">
         <v>725</v>
       </c>
@@ -6642,6 +7457,15 @@
       <c r="B297" t="s">
         <v>599</v>
       </c>
+      <c r="C297">
+        <v>32</v>
+      </c>
+      <c r="D297" t="s">
+        <v>783</v>
+      </c>
+      <c r="G297">
+        <v>7</v>
+      </c>
       <c r="J297" t="s">
         <v>725</v>
       </c>
@@ -6656,6 +7480,15 @@
       <c r="B298" t="s">
         <v>599</v>
       </c>
+      <c r="C298">
+        <v>32</v>
+      </c>
+      <c r="D298" t="s">
+        <v>783</v>
+      </c>
+      <c r="G298">
+        <v>7</v>
+      </c>
       <c r="J298" t="s">
         <v>725</v>
       </c>
@@ -6670,6 +7503,15 @@
       <c r="B299" t="s">
         <v>599</v>
       </c>
+      <c r="C299">
+        <v>32</v>
+      </c>
+      <c r="D299" t="s">
+        <v>783</v>
+      </c>
+      <c r="G299">
+        <v>7</v>
+      </c>
       <c r="J299" t="s">
         <v>725</v>
       </c>
@@ -6684,6 +7526,15 @@
       <c r="B300" t="s">
         <v>609</v>
       </c>
+      <c r="C300">
+        <v>62</v>
+      </c>
+      <c r="D300" t="s">
+        <v>782</v>
+      </c>
+      <c r="G300">
+        <v>5</v>
+      </c>
       <c r="J300" t="s">
         <v>707</v>
       </c>
@@ -6698,6 +7549,15 @@
       <c r="B301" t="s">
         <v>609</v>
       </c>
+      <c r="C301">
+        <v>62</v>
+      </c>
+      <c r="D301" t="s">
+        <v>782</v>
+      </c>
+      <c r="G301">
+        <v>7</v>
+      </c>
       <c r="J301" t="s">
         <v>707</v>
       </c>
@@ -6712,6 +7572,15 @@
       <c r="B302" t="s">
         <v>621</v>
       </c>
+      <c r="C302">
+        <v>45</v>
+      </c>
+      <c r="D302" t="s">
+        <v>782</v>
+      </c>
+      <c r="G302">
+        <v>5</v>
+      </c>
       <c r="J302" t="s">
         <v>708</v>
       </c>
@@ -6726,6 +7595,15 @@
       <c r="B303" t="s">
         <v>621</v>
       </c>
+      <c r="C303">
+        <v>45</v>
+      </c>
+      <c r="D303" t="s">
+        <v>782</v>
+      </c>
+      <c r="G303">
+        <v>7</v>
+      </c>
       <c r="J303" t="s">
         <v>708</v>
       </c>
@@ -6740,6 +7618,15 @@
       <c r="B304" t="s">
         <v>622</v>
       </c>
+      <c r="C304">
+        <v>59</v>
+      </c>
+      <c r="D304" t="s">
+        <v>782</v>
+      </c>
+      <c r="G304">
+        <v>6</v>
+      </c>
       <c r="J304" t="s">
         <v>708</v>
       </c>
@@ -6754,6 +7641,15 @@
       <c r="B305" t="s">
         <v>622</v>
       </c>
+      <c r="C305">
+        <v>59</v>
+      </c>
+      <c r="D305" t="s">
+        <v>782</v>
+      </c>
+      <c r="G305">
+        <v>8</v>
+      </c>
       <c r="J305" t="s">
         <v>708</v>
       </c>
@@ -6768,6 +7664,15 @@
       <c r="B306" t="s">
         <v>623</v>
       </c>
+      <c r="C306">
+        <v>31</v>
+      </c>
+      <c r="D306" t="s">
+        <v>784</v>
+      </c>
+      <c r="G306">
+        <v>4</v>
+      </c>
       <c r="J306" t="s">
         <v>708</v>
       </c>
@@ -6782,6 +7687,15 @@
       <c r="B307" t="s">
         <v>623</v>
       </c>
+      <c r="C307">
+        <v>31</v>
+      </c>
+      <c r="D307" t="s">
+        <v>784</v>
+      </c>
+      <c r="G307">
+        <v>6</v>
+      </c>
       <c r="J307" t="s">
         <v>708</v>
       </c>
@@ -6796,6 +7710,15 @@
       <c r="B308" t="s">
         <v>624</v>
       </c>
+      <c r="C308">
+        <v>33</v>
+      </c>
+      <c r="D308" t="s">
+        <v>784</v>
+      </c>
+      <c r="G308">
+        <v>6</v>
+      </c>
       <c r="J308" t="s">
         <v>708</v>
       </c>
@@ -6810,6 +7733,15 @@
       <c r="B309" t="s">
         <v>624</v>
       </c>
+      <c r="C309">
+        <v>33</v>
+      </c>
+      <c r="D309" t="s">
+        <v>784</v>
+      </c>
+      <c r="G309">
+        <v>10</v>
+      </c>
       <c r="J309" t="s">
         <v>708</v>
       </c>
@@ -6824,6 +7756,15 @@
       <c r="B310" t="s">
         <v>625</v>
       </c>
+      <c r="C310">
+        <v>39</v>
+      </c>
+      <c r="D310" t="s">
+        <v>784</v>
+      </c>
+      <c r="G310">
+        <v>2</v>
+      </c>
       <c r="J310" t="s">
         <v>708</v>
       </c>
@@ -6838,6 +7779,15 @@
       <c r="B311" t="s">
         <v>625</v>
       </c>
+      <c r="C311">
+        <v>39</v>
+      </c>
+      <c r="D311" t="s">
+        <v>784</v>
+      </c>
+      <c r="G311">
+        <v>5</v>
+      </c>
       <c r="J311" t="s">
         <v>708</v>
       </c>
@@ -6852,6 +7802,15 @@
       <c r="B312" t="s">
         <v>626</v>
       </c>
+      <c r="C312">
+        <v>75</v>
+      </c>
+      <c r="D312" t="s">
+        <v>782</v>
+      </c>
+      <c r="G312">
+        <v>10</v>
+      </c>
       <c r="J312" t="s">
         <v>705</v>
       </c>
@@ -6866,6 +7825,15 @@
       <c r="B313" t="s">
         <v>626</v>
       </c>
+      <c r="C313">
+        <v>75</v>
+      </c>
+      <c r="D313" t="s">
+        <v>782</v>
+      </c>
+      <c r="G313">
+        <v>10</v>
+      </c>
       <c r="J313" t="s">
         <v>705</v>
       </c>
@@ -6880,6 +7848,15 @@
       <c r="B314" t="s">
         <v>632</v>
       </c>
+      <c r="C314">
+        <v>28</v>
+      </c>
+      <c r="D314" t="s">
+        <v>782</v>
+      </c>
+      <c r="I314" t="s">
+        <v>781</v>
+      </c>
       <c r="J314" t="s">
         <v>706</v>
       </c>
@@ -6891,6 +7868,15 @@
       <c r="B315" t="s">
         <v>633</v>
       </c>
+      <c r="C315">
+        <v>27</v>
+      </c>
+      <c r="D315" t="s">
+        <v>782</v>
+      </c>
+      <c r="I315" t="s">
+        <v>781</v>
+      </c>
       <c r="J315" t="s">
         <v>706</v>
       </c>
@@ -6902,6 +7888,15 @@
       <c r="B316" t="s">
         <v>634</v>
       </c>
+      <c r="C316">
+        <v>33</v>
+      </c>
+      <c r="D316" t="s">
+        <v>782</v>
+      </c>
+      <c r="I316" t="s">
+        <v>781</v>
+      </c>
       <c r="J316" t="s">
         <v>706</v>
       </c>
@@ -6969,6 +7964,12 @@
       <c r="B321" t="s">
         <v>645</v>
       </c>
+      <c r="C321">
+        <v>40</v>
+      </c>
+      <c r="D321" t="s">
+        <v>785</v>
+      </c>
       <c r="J321" t="s">
         <v>713</v>
       </c>
@@ -6983,6 +7984,12 @@
       <c r="B322" t="s">
         <v>645</v>
       </c>
+      <c r="C322">
+        <v>40</v>
+      </c>
+      <c r="D322" t="s">
+        <v>785</v>
+      </c>
       <c r="J322" t="s">
         <v>713</v>
       </c>
@@ -6997,6 +8004,12 @@
       <c r="B323" t="s">
         <v>645</v>
       </c>
+      <c r="C323">
+        <v>40</v>
+      </c>
+      <c r="D323" t="s">
+        <v>785</v>
+      </c>
       <c r="J323" t="s">
         <v>714</v>
       </c>
@@ -7011,6 +8024,12 @@
       <c r="B324" t="s">
         <v>645</v>
       </c>
+      <c r="C324">
+        <v>40</v>
+      </c>
+      <c r="D324" t="s">
+        <v>785</v>
+      </c>
       <c r="J324" t="s">
         <v>714</v>
       </c>
@@ -7024,6 +8043,12 @@
       </c>
       <c r="B325" t="s">
         <v>645</v>
+      </c>
+      <c r="C325">
+        <v>40</v>
+      </c>
+      <c r="D325" t="s">
+        <v>785</v>
       </c>
       <c r="J325" t="s">
         <v>714</v>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fischer/UCSD/XPTLab/COVID-CT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSD\ct-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B30D8-6011-9C45-87E3-3759D67A37CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D601B4-A304-4D20-9C58-ABEACED34C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive_captions" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="849">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -997,12 +994,6 @@
   </si>
   <si>
     <t>['Figure 1. Representative chest CT images from multiple patients. Various radiographic abnormalities are present as follows: 9. Bilateral diffuse consolidation with air bronchograms.']</t>
-  </si>
-  <si>
-    <t>['Figure 2 A: Chest computed tomographic images obtained from a 47-year-old male patient on day 6 after symptom onset, showed extensive and fused ground glass opacity (red arrow) in both lungs.']</t>
-  </si>
-  <si>
-    <t>['Figure 2 B: Chest computed tomographic images obtained from a 59year-old female on day 7 after symptom onset, showed extensive and fused ground glass opacity (red arrow) in both lungs.']</t>
   </si>
   <si>
     <t>['FIGURE 1, Typical imaging for heart failure and COVID-19 pneumonia. A, Heart failure with bilateral diffuse disease. The disease presented with a gradient distribution and partial GGO and consolidation inside, accompanied with subpleural effusion. Peribronchovascular and septal thickening were also found. ']</t>
@@ -2570,12 +2561,250 @@
     <t>F</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;=3d course of disease group</t>
+  </si>
+  <si>
+    <t>&gt;3d course of disease group</t>
+  </si>
+  <si>
+    <t>['Figure 1 A: chest CT of two patients.']</t>
+  </si>
+  <si>
+    <t>['Figure 1 B: chest CT of two patients.']</t>
+  </si>
+  <si>
+    <t>10.1101/2020.03.04.20031039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuhan, China </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wuhan, China</t>
+  </si>
+  <si>
+    <t>Heart failure with bilateral diffuse disease</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart failure with bilateral diffuse GGO disease</t>
+  </si>
+  <si>
+    <t>single rounded subpleural GGO in left lung.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>COVID-19 with rounded GGO in bilateral lungs</t>
+  </si>
+  <si>
+    <t>Big patchy GGO in left lung and sporadic GGO in right lung. Peribronchovascular thickening, fissural thickening (arrow) were also found with subpleural effusion.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subpleural GGO with band-shaped morphology (arrow) in the dorsal segment of bilateral lungs. Interlobular septal thickening and cardiac enlargement were also found</t>
+  </si>
+  <si>
+    <t>Patchy lesion of Crazy Paving Pattern in right upper lung with partial consolidation inside. Small pulmonary vein enlargement (arrow) was also found, accompanied with subpleural effusion in the right lung</t>
+  </si>
+  <si>
+    <t>Multiple disease mixed with GGO and consolidation in bilateral lungs.</t>
+  </si>
+  <si>
+    <t>Patchy lesion of Crazy Paving Pattern in right upper lung with partial consolidation inside</t>
+  </si>
+  <si>
+    <t>Patchy lesion of Crazy Paving Pattern in left upper lung with partial consolidation inside.</t>
+  </si>
+  <si>
+    <t>Changsha, China.</t>
+  </si>
+  <si>
+    <t>Changsha, China.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffuse disease mixed with GGO and consolidation in bilateral upper lungs, accompanied with interlobular septal thickening and subpleural effusion</t>
+  </si>
+  <si>
+    <t>Big patchy GGO with irregular morphology in bilateral lungs. Peribronchovascular thickening and subpleural effusion were also found</t>
+  </si>
+  <si>
+    <t>10.1101/2020.03.04.20031047</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.07.20031393</t>
+  </si>
+  <si>
+    <t>Jingmen, Hubei, China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymptomatic</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.07.20031393</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>bilateral patchy patterns</t>
+  </si>
+  <si>
+    <t>10.1101/2020.03.08.20031658</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 14</t>
+  </si>
+  <si>
+    <t>day 6</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">day 7 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.10.20032136</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.09.20033118</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.11.20033159</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>first day</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 13</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>no obvious abnormality</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>no change in CT imaging during hospitalization</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qingdao, China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Child</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.12.20027185</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.12.20034686</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 14</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 11-12 after treatment</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 4-5 after admission</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.13.20035212</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilateral pleural effusion and pericardial effusion</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>severe coughing and dyspnea with normal blood cell count</t>
+  </si>
+  <si>
+    <t>viral infection</t>
+  </si>
+  <si>
+    <t>10.1101/2020.03.16.20035105</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fever without obvious cause, the highest body temperature was 39 ℃, with fatigue, without cough, asthma
+and dyspnea</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 5</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 1 after symptom onset</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 9 after symptom onset</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 13 after symptom onset</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 17 after symptom onset</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mild Covid-19</t>
+  </si>
+  <si>
+    <t>high fever (40℃) at night, developed weakness of both lower limbs with urinary and bowel
+incontinence, culminating in flaccid lower extremity paralysis</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2754,6 +2983,22 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="Shaker2Lancet"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3053,7 +3298,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3096,11 +3341,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3126,6 +3378,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -3456,54 +3709,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C326" sqref="C326"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="161.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="44.77734375" customWidth="1"/>
+    <col min="11" max="11" width="161.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J1" t="s">
+        <v>737</v>
+      </c>
+      <c r="K1" t="s">
         <v>738</v>
-      </c>
-      <c r="D1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E1" t="s">
-        <v>733</v>
-      </c>
-      <c r="F1" t="s">
-        <v>737</v>
-      </c>
-      <c r="G1" t="s">
-        <v>734</v>
-      </c>
-      <c r="H1" t="s">
-        <v>735</v>
-      </c>
-      <c r="I1" t="s">
-        <v>736</v>
-      </c>
-      <c r="J1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3511,7 +3765,7 @@
         <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K2" t="s">
         <v>258</v>
@@ -3522,7 +3776,7 @@
         <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K3" t="s">
         <v>258</v>
@@ -3530,10 +3784,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K4" t="s">
         <v>258</v>
@@ -3544,7 +3798,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K5" t="s">
         <v>258</v>
@@ -3555,7 +3809,7 @@
         <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K6" t="s">
         <v>259</v>
@@ -3566,7 +3820,7 @@
         <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K7" t="s">
         <v>259</v>
@@ -3577,7 +3831,7 @@
         <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K8" t="s">
         <v>261</v>
@@ -3588,7 +3842,7 @@
         <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K9" t="s">
         <v>261</v>
@@ -3599,7 +3853,7 @@
         <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K10" t="s">
         <v>262</v>
@@ -3610,7 +3864,7 @@
         <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K11" t="s">
         <v>262</v>
@@ -3621,7 +3875,7 @@
         <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K12" t="s">
         <v>262</v>
@@ -3632,7 +3886,7 @@
         <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K13" t="s">
         <v>262</v>
@@ -3643,7 +3897,7 @@
         <v>250</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K14" t="s">
         <v>259</v>
@@ -3654,7 +3908,7 @@
         <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K15" t="s">
         <v>259</v>
@@ -3665,7 +3919,7 @@
         <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K16" t="s">
         <v>260</v>
@@ -3676,7 +3930,7 @@
         <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K17" t="s">
         <v>260</v>
@@ -3687,7 +3941,7 @@
         <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K18" t="s">
         <v>260</v>
@@ -3698,7 +3952,7 @@
         <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K19" t="s">
         <v>260</v>
@@ -3709,7 +3963,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K20" t="s">
         <v>261</v>
@@ -3720,7 +3974,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K21" t="s">
         <v>261</v>
@@ -3731,7 +3985,7 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K22" t="s">
         <v>255</v>
@@ -3742,7 +3996,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K23" t="s">
         <v>255</v>
@@ -3753,7 +4007,7 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K24" t="s">
         <v>255</v>
@@ -3764,7 +4018,7 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K25" t="s">
         <v>263</v>
@@ -3775,7 +4029,7 @@
         <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K26" t="s">
         <v>264</v>
@@ -3786,7 +4040,7 @@
         <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K27" t="s">
         <v>265</v>
@@ -3797,7 +4051,7 @@
         <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K28" t="s">
         <v>266</v>
@@ -3808,7 +4062,7 @@
         <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K29" t="s">
         <v>267</v>
@@ -3819,7 +4073,7 @@
         <v>228</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K30" t="s">
         <v>267</v>
@@ -3830,7 +4084,7 @@
         <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K31" t="s">
         <v>267</v>
@@ -3841,7 +4095,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K32" t="s">
         <v>268</v>
@@ -3852,7 +4106,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K33" t="s">
         <v>269</v>
@@ -3863,7 +4117,7 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K34" t="s">
         <v>270</v>
@@ -3874,7 +4128,7 @@
         <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K35" t="s">
         <v>271</v>
@@ -3885,7 +4139,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K36" t="s">
         <v>272</v>
@@ -3896,7 +4150,7 @@
         <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K37" t="s">
         <v>273</v>
@@ -3907,7 +4161,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
         <v>274</v>
@@ -3918,7 +4172,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K39" t="s">
         <v>274</v>
@@ -3929,7 +4183,7 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K40" t="s">
         <v>275</v>
@@ -3940,7 +4194,7 @@
         <v>240</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K41" t="s">
         <v>276</v>
@@ -3951,7 +4205,7 @@
         <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K42" t="s">
         <v>277</v>
@@ -3962,7 +4216,7 @@
         <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
         <v>278</v>
@@ -3973,7 +4227,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
         <v>279</v>
@@ -3984,7 +4238,7 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
         <v>279</v>
@@ -3995,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s">
         <v>279</v>
@@ -4006,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K47" t="s">
         <v>280</v>
@@ -4017,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s">
         <v>280</v>
@@ -4028,7 +4282,7 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K49" t="s">
         <v>280</v>
@@ -4039,7 +4293,7 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s">
         <v>281</v>
@@ -4050,7 +4304,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
         <v>281</v>
@@ -4061,7 +4315,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K52" t="s">
         <v>282</v>
@@ -4072,7 +4326,7 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s">
         <v>282</v>
@@ -4083,7 +4337,7 @@
         <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K54" t="s">
         <v>283</v>
@@ -4094,7 +4348,7 @@
         <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K55" t="s">
         <v>283</v>
@@ -4105,7 +4359,7 @@
         <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K56" t="s">
         <v>283</v>
@@ -4116,7 +4370,7 @@
         <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K57" t="s">
         <v>283</v>
@@ -4127,7 +4381,7 @@
         <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
         <v>283</v>
@@ -4138,7 +4392,7 @@
         <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K59" t="s">
         <v>283</v>
@@ -4149,7 +4403,7 @@
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s">
         <v>284</v>
@@ -4160,7 +4414,7 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K61" t="s">
         <v>284</v>
@@ -4171,7 +4425,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K62" t="s">
         <v>284</v>
@@ -4182,7 +4436,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K63" t="s">
         <v>284</v>
@@ -4193,7 +4447,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K64" t="s">
         <v>285</v>
@@ -4204,7 +4458,7 @@
         <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K65" t="s">
         <v>285</v>
@@ -4215,7 +4469,7 @@
         <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K66" t="s">
         <v>286</v>
@@ -4226,7 +4480,7 @@
         <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K67" t="s">
         <v>286</v>
@@ -4237,7 +4491,7 @@
         <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K68" t="s">
         <v>286</v>
@@ -4248,7 +4502,7 @@
         <v>224</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K69" t="s">
         <v>286</v>
@@ -4259,7 +4513,7 @@
         <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K70" t="s">
         <v>286</v>
@@ -4270,7 +4524,7 @@
         <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K71" t="s">
         <v>286</v>
@@ -4281,7 +4535,7 @@
         <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K72" t="s">
         <v>286</v>
@@ -4292,7 +4546,7 @@
         <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K73" t="s">
         <v>286</v>
@@ -4303,7 +4557,7 @@
         <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K74" t="s">
         <v>286</v>
@@ -4314,7 +4568,7 @@
         <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K75" t="s">
         <v>286</v>
@@ -4325,7 +4579,7 @@
         <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K76" t="s">
         <v>286</v>
@@ -4336,7 +4590,7 @@
         <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K77" t="s">
         <v>286</v>
@@ -4347,7 +4601,7 @@
         <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K78" t="s">
         <v>286</v>
@@ -4358,7 +4612,7 @@
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K79" t="s">
         <v>286</v>
@@ -4369,7 +4623,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K80" t="s">
         <v>286</v>
@@ -4380,7 +4634,7 @@
         <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K81" t="s">
         <v>286</v>
@@ -4391,7 +4645,7 @@
         <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K82" t="s">
         <v>287</v>
@@ -4402,7 +4656,7 @@
         <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K83" t="s">
         <v>287</v>
@@ -4413,7 +4667,7 @@
         <v>194</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K84" t="s">
         <v>287</v>
@@ -4424,7 +4678,7 @@
         <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K85" t="s">
         <v>287</v>
@@ -4435,7 +4689,7 @@
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K86" t="s">
         <v>287</v>
@@ -4446,7 +4700,7 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K87" t="s">
         <v>288</v>
@@ -4457,7 +4711,7 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K88" t="s">
         <v>288</v>
@@ -4468,7 +4722,7 @@
         <v>211</v>
       </c>
       <c r="B89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K89" t="s">
         <v>288</v>
@@ -4479,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K90" t="s">
         <v>288</v>
@@ -4490,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K91" t="s">
         <v>288</v>
@@ -4501,7 +4755,7 @@
         <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K92" t="s">
         <v>289</v>
@@ -4512,7 +4766,7 @@
         <v>229</v>
       </c>
       <c r="B93" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K93" t="s">
         <v>290</v>
@@ -4523,7 +4777,7 @@
         <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K94" t="s">
         <v>291</v>
@@ -4534,7 +4788,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K95" t="s">
         <v>291</v>
@@ -4545,7 +4799,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K96" t="s">
         <v>291</v>
@@ -4556,7 +4810,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K97" t="s">
         <v>291</v>
@@ -4567,7 +4821,7 @@
         <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K98" t="s">
         <v>292</v>
@@ -4578,7 +4832,7 @@
         <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K99" t="s">
         <v>292</v>
@@ -4589,7 +4843,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K100" t="s">
         <v>292</v>
@@ -4600,7 +4854,7 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K101" t="s">
         <v>292</v>
@@ -4611,7 +4865,7 @@
         <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K102" t="s">
         <v>292</v>
@@ -4622,7 +4876,7 @@
         <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K103" t="s">
         <v>292</v>
@@ -4633,7 +4887,7 @@
         <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K104" t="s">
         <v>293</v>
@@ -4644,7 +4898,7 @@
         <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K105" t="s">
         <v>294</v>
@@ -4655,7 +4909,7 @@
         <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K106" t="s">
         <v>295</v>
@@ -4666,7 +4920,7 @@
         <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K107" t="s">
         <v>296</v>
@@ -4677,7 +4931,7 @@
         <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K108" t="s">
         <v>297</v>
@@ -4688,7 +4942,7 @@
         <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K109" t="s">
         <v>298</v>
@@ -4699,7 +4953,7 @@
         <v>175</v>
       </c>
       <c r="B110" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K110" t="s">
         <v>299</v>
@@ -4710,7 +4964,7 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K111" t="s">
         <v>300</v>
@@ -4721,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K112" t="s">
         <v>300</v>
@@ -4732,7 +4986,7 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K113" t="s">
         <v>300</v>
@@ -4743,7 +4997,7 @@
         <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K114" t="s">
         <v>300</v>
@@ -4754,7 +5008,7 @@
         <v>72</v>
       </c>
       <c r="B115" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K115" t="s">
         <v>300</v>
@@ -4765,7 +5019,7 @@
         <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K116" t="s">
         <v>300</v>
@@ -4776,7 +5030,7 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K117" t="s">
         <v>301</v>
@@ -4787,7 +5041,7 @@
         <v>76</v>
       </c>
       <c r="B118" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K118" t="s">
         <v>301</v>
@@ -4798,7 +5052,7 @@
         <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K119" t="s">
         <v>302</v>
@@ -4809,7 +5063,7 @@
         <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K120" t="s">
         <v>303</v>
@@ -4820,7 +5074,7 @@
         <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K121" t="s">
         <v>304</v>
@@ -4831,7 +5085,7 @@
         <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K122" t="s">
         <v>305</v>
@@ -4842,7 +5096,7 @@
         <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K123" t="s">
         <v>305</v>
@@ -4853,7 +5107,7 @@
         <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K124" t="s">
         <v>306</v>
@@ -4864,7 +5118,7 @@
         <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K125" t="s">
         <v>307</v>
@@ -4875,7 +5129,7 @@
         <v>93</v>
       </c>
       <c r="B126" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K126" t="s">
         <v>307</v>
@@ -4886,7 +5140,7 @@
         <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K127" t="s">
         <v>308</v>
@@ -4897,7 +5151,7 @@
         <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K128" t="s">
         <v>309</v>
@@ -4908,7 +5162,7 @@
         <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K129" t="s">
         <v>310</v>
@@ -4919,7 +5173,7 @@
         <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K130" t="s">
         <v>311</v>
@@ -4930,7 +5184,7 @@
         <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K131" t="s">
         <v>312</v>
@@ -4941,7 +5195,7 @@
         <v>253</v>
       </c>
       <c r="B132" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K132" t="s">
         <v>313</v>
@@ -4952,7 +5206,7 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K133" t="s">
         <v>314</v>
@@ -4963,7 +5217,7 @@
         <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K134" t="s">
         <v>315</v>
@@ -4974,7 +5228,7 @@
         <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K135" t="s">
         <v>316</v>
@@ -4985,7 +5239,7 @@
         <v>55</v>
       </c>
       <c r="B136" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K136" t="s">
         <v>317</v>
@@ -4996,7 +5250,7 @@
         <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K137" t="s">
         <v>318</v>
@@ -5007,7 +5261,7 @@
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K138" t="s">
         <v>319</v>
@@ -5018,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K139" t="s">
         <v>320</v>
@@ -5029,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K140" t="s">
         <v>321</v>
@@ -5040,7 +5294,7 @@
         <v>216</v>
       </c>
       <c r="B141" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K141" t="s">
         <v>322</v>
@@ -5051,10 +5305,25 @@
         <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>468</v>
-      </c>
-      <c r="K142" t="s">
-        <v>323</v>
+        <v>466</v>
+      </c>
+      <c r="C142">
+        <v>72</v>
+      </c>
+      <c r="E142" t="s">
+        <v>789</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5062,10 +5331,25 @@
         <v>231</v>
       </c>
       <c r="B143" t="s">
-        <v>468</v>
-      </c>
-      <c r="K143" t="s">
-        <v>323</v>
+        <v>466</v>
+      </c>
+      <c r="C143" s="4">
+        <v>72</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5073,10 +5357,25 @@
         <v>207</v>
       </c>
       <c r="B144" t="s">
-        <v>468</v>
-      </c>
-      <c r="K144" t="s">
-        <v>323</v>
+        <v>466</v>
+      </c>
+      <c r="C144" s="4">
+        <v>72</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5084,10 +5383,25 @@
         <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>469</v>
-      </c>
-      <c r="K145" t="s">
-        <v>324</v>
+        <v>467</v>
+      </c>
+      <c r="C145">
+        <v>71</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5095,10 +5409,25 @@
         <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>469</v>
-      </c>
-      <c r="K146" t="s">
-        <v>324</v>
+        <v>467</v>
+      </c>
+      <c r="C146" s="4">
+        <v>71</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5106,10 +5435,25 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
-      </c>
-      <c r="K147" t="s">
-        <v>324</v>
+        <v>467</v>
+      </c>
+      <c r="C147" s="4">
+        <v>71</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5117,10 +5461,16 @@
         <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>470</v>
+        <v>468</v>
+      </c>
+      <c r="I148" t="s">
+        <v>791</v>
+      </c>
+      <c r="J148" t="s">
+        <v>805</v>
       </c>
       <c r="K148" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5128,10 +5478,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="I149" t="s">
+        <v>792</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K149" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5139,10 +5495,16 @@
         <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="I150" t="s">
+        <v>793</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K150" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5150,10 +5512,16 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="I151" t="s">
+        <v>794</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K151" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5161,10 +5529,19 @@
         <v>186</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="E152" t="s">
+        <v>801</v>
+      </c>
+      <c r="H152" t="s">
+        <v>795</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K152" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5172,10 +5549,19 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="E153" t="s">
+        <v>801</v>
+      </c>
+      <c r="H153" t="s">
+        <v>796</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K153" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5183,10 +5569,19 @@
         <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>476</v>
+        <v>474</v>
+      </c>
+      <c r="E154" t="s">
+        <v>801</v>
+      </c>
+      <c r="H154" t="s">
+        <v>797</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K154" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5194,10 +5589,19 @@
         <v>201</v>
       </c>
       <c r="B155" t="s">
-        <v>477</v>
+        <v>475</v>
+      </c>
+      <c r="E155" t="s">
+        <v>801</v>
+      </c>
+      <c r="H155" t="s">
+        <v>799</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K155" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5205,10 +5609,19 @@
         <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>476</v>
+      </c>
+      <c r="E156" t="s">
+        <v>801</v>
+      </c>
+      <c r="H156" t="s">
+        <v>798</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K156" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5216,10 +5629,19 @@
         <v>245</v>
       </c>
       <c r="B157" t="s">
-        <v>479</v>
+        <v>477</v>
+      </c>
+      <c r="E157" t="s">
+        <v>801</v>
+      </c>
+      <c r="H157" t="s">
+        <v>800</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K157" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5227,10 +5649,19 @@
         <v>208</v>
       </c>
       <c r="B158" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+      <c r="E158" t="s">
+        <v>802</v>
+      </c>
+      <c r="H158" t="s">
+        <v>803</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K158" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5238,10 +5669,19 @@
         <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+      <c r="E159" t="s">
+        <v>801</v>
+      </c>
+      <c r="H159" t="s">
+        <v>804</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="K159" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5249,10 +5689,19 @@
         <v>26</v>
       </c>
       <c r="B160" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="E160" t="s">
+        <v>807</v>
+      </c>
+      <c r="H160" t="s">
+        <v>808</v>
+      </c>
+      <c r="J160" t="s">
+        <v>809</v>
       </c>
       <c r="K160" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5260,10 +5709,19 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="J161" t="s">
+        <v>806</v>
       </c>
       <c r="K161" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5271,10 +5729,19 @@
         <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="J162" t="s">
+        <v>806</v>
       </c>
       <c r="K162" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5282,10 +5749,19 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="J163" t="s">
+        <v>806</v>
       </c>
       <c r="K163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -5293,10 +5769,22 @@
         <v>129</v>
       </c>
       <c r="B164" t="s">
-        <v>482</v>
+        <v>480</v>
+      </c>
+      <c r="E164" t="s">
+        <v>814</v>
+      </c>
+      <c r="H164" t="s">
+        <v>810</v>
+      </c>
+      <c r="I164" t="s">
+        <v>812</v>
+      </c>
+      <c r="J164" t="s">
+        <v>813</v>
       </c>
       <c r="K164" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -5304,10 +5792,22 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>483</v>
+        <v>481</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="H165" t="s">
+        <v>810</v>
+      </c>
+      <c r="I165" t="s">
+        <v>812</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="K165" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -5315,10 +5815,22 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>484</v>
+        <v>482</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="H166" t="s">
+        <v>811</v>
+      </c>
+      <c r="I166" t="s">
+        <v>812</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="K166" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -5326,10 +5838,22 @@
         <v>145</v>
       </c>
       <c r="B167" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="H167" t="s">
+        <v>811</v>
+      </c>
+      <c r="I167" t="s">
+        <v>812</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="K167" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -5337,10 +5861,19 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>486</v>
+        <v>484</v>
+      </c>
+      <c r="C168">
+        <v>27</v>
+      </c>
+      <c r="D168" t="s">
+        <v>820</v>
+      </c>
+      <c r="J168" t="s">
+        <v>822</v>
       </c>
       <c r="K168" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -5348,10 +5881,19 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+      <c r="C169">
+        <v>41</v>
+      </c>
+      <c r="D169" t="s">
+        <v>820</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="K169" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -5359,10 +5901,19 @@
         <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="C170">
+        <v>55</v>
+      </c>
+      <c r="D170" t="s">
+        <v>821</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="K170" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -5370,10 +5921,19 @@
         <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>489</v>
+        <v>487</v>
+      </c>
+      <c r="C171">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>821</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="K171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -5381,10 +5941,22 @@
         <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="C172">
+        <v>21</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G172" t="s">
+        <v>815</v>
+      </c>
+      <c r="J172" t="s">
+        <v>819</v>
       </c>
       <c r="K172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -5392,10 +5964,22 @@
         <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="C173">
+        <v>21</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>819</v>
       </c>
       <c r="K173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -5403,10 +5987,22 @@
         <v>202</v>
       </c>
       <c r="B174" t="s">
-        <v>491</v>
+        <v>489</v>
+      </c>
+      <c r="C174">
+        <v>33</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G174" t="s">
+        <v>816</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>819</v>
       </c>
       <c r="K174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -5414,10 +6010,22 @@
         <v>196</v>
       </c>
       <c r="B175" t="s">
-        <v>491</v>
+        <v>489</v>
+      </c>
+      <c r="C175">
+        <v>33</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G175" t="s">
+        <v>833</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>819</v>
       </c>
       <c r="K175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -5425,10 +6033,22 @@
         <v>121</v>
       </c>
       <c r="B176" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="C176" t="s">
+        <v>830</v>
+      </c>
+      <c r="E176" t="s">
+        <v>829</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="J176" t="s">
+        <v>823</v>
       </c>
       <c r="K176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -5436,10 +6056,22 @@
         <v>113</v>
       </c>
       <c r="B177" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="K177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -5447,10 +6079,22 @@
         <v>124</v>
       </c>
       <c r="B178" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="G178" t="s">
+        <v>825</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="K178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -5458,10 +6102,22 @@
         <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="G179" t="s">
+        <v>826</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="K179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -5469,10 +6125,19 @@
         <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H180" t="s">
+        <v>827</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="K180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -5480,10 +6145,19 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H181" t="s">
+        <v>828</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="K181" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -5491,7 +6165,19 @@
         <v>47</v>
       </c>
       <c r="B182" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="C182">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
+        <v>820</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="J182" t="s">
+        <v>831</v>
       </c>
       <c r="K182" t="s">
         <v>256</v>
@@ -5502,7 +6188,19 @@
         <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>496</v>
+        <v>494</v>
+      </c>
+      <c r="C183">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>820</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="K183" t="s">
         <v>256</v>
@@ -5513,7 +6211,13 @@
         <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>497</v>
+        <v>495</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="K184" t="s">
         <v>256</v>
@@ -5524,7 +6228,13 @@
         <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="K185" t="s">
         <v>256</v>
@@ -5535,10 +6245,22 @@
         <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>499</v>
+        <v>497</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G186" t="s">
+        <v>835</v>
+      </c>
+      <c r="J186" t="s">
+        <v>832</v>
       </c>
       <c r="K186" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -5546,10 +6268,22 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>500</v>
+        <v>498</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>832</v>
       </c>
       <c r="K187" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -5557,10 +6291,22 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>501</v>
+        <v>499</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G188" t="s">
+        <v>834</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>832</v>
       </c>
       <c r="K188" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -5568,10 +6314,22 @@
         <v>31</v>
       </c>
       <c r="B189" t="s">
-        <v>502</v>
+        <v>500</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>832</v>
       </c>
       <c r="K189" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -5579,10 +6337,22 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>503</v>
+        <v>501</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G190" t="s">
+        <v>843</v>
+      </c>
+      <c r="H190" t="s">
+        <v>837</v>
+      </c>
+      <c r="J190" t="s">
+        <v>836</v>
       </c>
       <c r="K190" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -5590,10 +6360,22 @@
         <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G191" t="s">
+        <v>843</v>
+      </c>
+      <c r="H191" t="s">
+        <v>838</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K191" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -5601,10 +6383,22 @@
         <v>42</v>
       </c>
       <c r="B192" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G192" t="s">
+        <v>843</v>
+      </c>
+      <c r="H192" t="s">
+        <v>839</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K192" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -5612,10 +6406,19 @@
         <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>506</v>
+        <v>504</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G193" t="s">
+        <v>844</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K193" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -5623,10 +6426,19 @@
         <v>53</v>
       </c>
       <c r="B194" t="s">
-        <v>507</v>
+        <v>505</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G194" t="s">
+        <v>844</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K194" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -5634,10 +6446,19 @@
         <v>54</v>
       </c>
       <c r="B195" t="s">
-        <v>508</v>
+        <v>506</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G195" t="s">
+        <v>844</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K195" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -5645,10 +6466,19 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>509</v>
+        <v>507</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G196" t="s">
+        <v>845</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K196" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -5656,10 +6486,19 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>510</v>
+        <v>508</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G197" t="s">
+        <v>845</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K197" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -5667,10 +6506,19 @@
         <v>217</v>
       </c>
       <c r="B198" t="s">
-        <v>511</v>
+        <v>509</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G198" t="s">
+        <v>845</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K198" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -5678,10 +6526,19 @@
         <v>220</v>
       </c>
       <c r="B199" t="s">
-        <v>512</v>
+        <v>510</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G199" t="s">
+        <v>846</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K199" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -5689,10 +6546,19 @@
         <v>244</v>
       </c>
       <c r="B200" t="s">
-        <v>513</v>
+        <v>511</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G200" t="s">
+        <v>846</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K200" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -5700,21 +6566,48 @@
         <v>241</v>
       </c>
       <c r="B201" t="s">
-        <v>514</v>
+        <v>512</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G201" t="s">
+        <v>846</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="K201" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="55.2">
       <c r="A202" t="s">
         <v>155</v>
       </c>
       <c r="B202" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="C202">
+        <v>66</v>
+      </c>
+      <c r="D202" t="s">
+        <v>821</v>
+      </c>
+      <c r="E202" t="s">
+        <v>790</v>
+      </c>
+      <c r="G202" t="s">
+        <v>842</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="J202" t="s">
+        <v>840</v>
       </c>
       <c r="K202" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -5722,21 +6615,54 @@
         <v>134</v>
       </c>
       <c r="B203" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="C203">
+        <v>66</v>
+      </c>
+      <c r="D203" t="s">
+        <v>821</v>
+      </c>
+      <c r="E203" t="s">
+        <v>790</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H203" t="s">
+        <v>847</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>840</v>
       </c>
       <c r="K203" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="69">
       <c r="A204" t="s">
         <v>151</v>
       </c>
       <c r="B204" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="C204" s="4">
+        <v>66</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E204" t="s">
+        <v>790</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>840</v>
       </c>
       <c r="K204" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -5744,10 +6670,22 @@
         <v>112</v>
       </c>
       <c r="B205" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="C205" s="4">
+        <v>66</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E205" t="s">
+        <v>790</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>840</v>
       </c>
       <c r="K205" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -5755,28 +6693,28 @@
         <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C206">
         <v>49</v>
       </c>
       <c r="D206" t="s">
+        <v>741</v>
+      </c>
+      <c r="E206" t="s">
+        <v>742</v>
+      </c>
+      <c r="F206" t="s">
         <v>743</v>
       </c>
-      <c r="E206" t="s">
+      <c r="G206" t="s">
         <v>744</v>
       </c>
-      <c r="F206" t="s">
+      <c r="H206" t="s">
         <v>745</v>
       </c>
-      <c r="G206" t="s">
-        <v>746</v>
-      </c>
-      <c r="H206" t="s">
-        <v>747</v>
-      </c>
       <c r="K206" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -5784,28 +6722,28 @@
         <v>75</v>
       </c>
       <c r="B207" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C207">
         <v>49</v>
       </c>
       <c r="D207" t="s">
+        <v>741</v>
+      </c>
+      <c r="E207" t="s">
+        <v>742</v>
+      </c>
+      <c r="F207" t="s">
         <v>743</v>
       </c>
-      <c r="E207" t="s">
-        <v>744</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
+        <v>746</v>
+      </c>
+      <c r="H207" t="s">
         <v>745</v>
       </c>
-      <c r="G207" t="s">
-        <v>748</v>
-      </c>
-      <c r="H207" t="s">
-        <v>747</v>
-      </c>
       <c r="K207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -5813,28 +6751,28 @@
         <v>59</v>
       </c>
       <c r="B208" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C208">
         <v>50</v>
       </c>
       <c r="D208" t="s">
+        <v>747</v>
+      </c>
+      <c r="E208" t="s">
+        <v>742</v>
+      </c>
+      <c r="F208" t="s">
+        <v>748</v>
+      </c>
+      <c r="G208" t="s">
         <v>749</v>
       </c>
-      <c r="E208" t="s">
-        <v>744</v>
-      </c>
-      <c r="F208" t="s">
-        <v>750</v>
-      </c>
-      <c r="G208" t="s">
-        <v>751</v>
-      </c>
       <c r="H208" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K208" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -5842,28 +6780,28 @@
         <v>100</v>
       </c>
       <c r="B209" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C209">
         <v>50</v>
       </c>
       <c r="D209" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E209" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F209" t="s">
+        <v>748</v>
+      </c>
+      <c r="G209" t="s">
         <v>750</v>
       </c>
-      <c r="G209" t="s">
-        <v>752</v>
-      </c>
       <c r="H209" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -5871,25 +6809,25 @@
         <v>197</v>
       </c>
       <c r="B210" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C210">
         <v>73</v>
       </c>
       <c r="D210" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E210" t="s">
+        <v>751</v>
+      </c>
+      <c r="F210" t="s">
+        <v>752</v>
+      </c>
+      <c r="H210" t="s">
         <v>753</v>
       </c>
-      <c r="F210" t="s">
-        <v>754</v>
-      </c>
-      <c r="H210" t="s">
-        <v>755</v>
-      </c>
       <c r="K210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -5897,25 +6835,25 @@
         <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C211">
         <v>73</v>
       </c>
       <c r="D211" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E211" t="s">
+        <v>751</v>
+      </c>
+      <c r="F211" t="s">
+        <v>752</v>
+      </c>
+      <c r="H211" t="s">
         <v>753</v>
       </c>
-      <c r="F211" t="s">
-        <v>754</v>
-      </c>
-      <c r="H211" t="s">
-        <v>755</v>
-      </c>
       <c r="K211" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -5923,25 +6861,25 @@
         <v>247</v>
       </c>
       <c r="B212" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C212">
         <v>70</v>
       </c>
       <c r="D212" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E212" t="s">
+        <v>751</v>
+      </c>
+      <c r="F212" t="s">
+        <v>754</v>
+      </c>
+      <c r="H212" t="s">
         <v>753</v>
       </c>
-      <c r="F212" t="s">
-        <v>756</v>
-      </c>
-      <c r="H212" t="s">
-        <v>755</v>
-      </c>
       <c r="K212" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -5949,25 +6887,25 @@
         <v>223</v>
       </c>
       <c r="B213" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C213">
         <v>76</v>
       </c>
       <c r="D213" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E213" t="s">
+        <v>751</v>
+      </c>
+      <c r="F213" t="s">
+        <v>755</v>
+      </c>
+      <c r="H213" t="s">
         <v>753</v>
       </c>
-      <c r="F213" t="s">
-        <v>757</v>
-      </c>
-      <c r="H213" t="s">
-        <v>755</v>
-      </c>
       <c r="K213" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -5975,28 +6913,28 @@
         <v>97</v>
       </c>
       <c r="B214" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C214">
         <v>75</v>
       </c>
       <c r="D214" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E214" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F214" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G214" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H214" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K214" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -6004,28 +6942,28 @@
         <v>106</v>
       </c>
       <c r="B215" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C215">
         <v>75</v>
       </c>
       <c r="D215" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E215" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F215" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G215" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H215" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K215" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -6033,28 +6971,28 @@
         <v>105</v>
       </c>
       <c r="B216" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C216">
         <v>75</v>
       </c>
       <c r="D216" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E216" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F216" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G216" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H216" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K216" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -6062,28 +7000,28 @@
         <v>84</v>
       </c>
       <c r="B217" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C217">
         <v>75</v>
       </c>
       <c r="D217" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E217" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F217" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G217" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H217" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K217" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -6091,28 +7029,28 @@
         <v>83</v>
       </c>
       <c r="B218" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C218">
         <v>75</v>
       </c>
       <c r="D218" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E218" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F218" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G218" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H218" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K218" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -6120,28 +7058,28 @@
         <v>66</v>
       </c>
       <c r="B219" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C219">
         <v>75</v>
       </c>
       <c r="D219" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E219" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F219" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G219" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H219" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K219" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -6149,25 +7087,25 @@
         <v>36</v>
       </c>
       <c r="B220" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C220">
         <v>50</v>
       </c>
       <c r="E220" t="s">
+        <v>760</v>
+      </c>
+      <c r="F220" t="s">
+        <v>761</v>
+      </c>
+      <c r="G220" t="s">
         <v>762</v>
       </c>
-      <c r="F220" t="s">
-        <v>763</v>
-      </c>
-      <c r="G220" t="s">
-        <v>764</v>
-      </c>
       <c r="H220" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K220" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -6175,25 +7113,25 @@
         <v>180</v>
       </c>
       <c r="B221" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C221">
         <v>50</v>
       </c>
       <c r="E221" t="s">
+        <v>760</v>
+      </c>
+      <c r="F221" t="s">
+        <v>761</v>
+      </c>
+      <c r="G221" t="s">
         <v>762</v>
       </c>
-      <c r="F221" t="s">
-        <v>763</v>
-      </c>
-      <c r="G221" t="s">
-        <v>764</v>
-      </c>
       <c r="H221" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K221" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -6201,25 +7139,25 @@
         <v>188</v>
       </c>
       <c r="B222" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C222">
         <v>50</v>
       </c>
       <c r="E222" t="s">
+        <v>760</v>
+      </c>
+      <c r="F222" t="s">
+        <v>761</v>
+      </c>
+      <c r="G222" t="s">
         <v>762</v>
       </c>
-      <c r="F222" t="s">
-        <v>763</v>
-      </c>
-      <c r="G222" t="s">
-        <v>764</v>
-      </c>
       <c r="H222" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K222" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -6227,25 +7165,25 @@
         <v>248</v>
       </c>
       <c r="B223" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C223">
         <v>50</v>
       </c>
       <c r="E223" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F223" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G223" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H223" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K223" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -6253,25 +7191,25 @@
         <v>237</v>
       </c>
       <c r="B224" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C224">
         <v>50</v>
       </c>
       <c r="E224" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F224" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G224" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H224" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K224" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -6279,25 +7217,25 @@
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C225">
         <v>50</v>
       </c>
       <c r="E225" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F225" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G225" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H225" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K225" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -6305,25 +7243,25 @@
         <v>127</v>
       </c>
       <c r="B226" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C226">
         <v>32</v>
       </c>
       <c r="D226" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E226" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F226" t="s">
+        <v>765</v>
+      </c>
+      <c r="G226" t="s">
+        <v>766</v>
+      </c>
+      <c r="H226" t="s">
         <v>767</v>
-      </c>
-      <c r="G226" t="s">
-        <v>768</v>
-      </c>
-      <c r="H226" t="s">
-        <v>769</v>
       </c>
       <c r="K226" t="s">
         <v>257</v>
@@ -6334,25 +7272,25 @@
         <v>115</v>
       </c>
       <c r="B227" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C227">
         <v>32</v>
       </c>
       <c r="D227" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E227" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F227" t="s">
+        <v>765</v>
+      </c>
+      <c r="G227" t="s">
+        <v>766</v>
+      </c>
+      <c r="H227" t="s">
         <v>767</v>
-      </c>
-      <c r="G227" t="s">
-        <v>768</v>
-      </c>
-      <c r="H227" t="s">
-        <v>769</v>
       </c>
       <c r="K227" t="s">
         <v>257</v>
@@ -6363,25 +7301,25 @@
         <v>119</v>
       </c>
       <c r="B228" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C228">
         <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E228" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F228" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G228" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H228" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K228" t="s">
         <v>257</v>
@@ -6392,25 +7330,25 @@
         <v>142</v>
       </c>
       <c r="B229" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C229">
         <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E229" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F229" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G229" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H229" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K229" t="s">
         <v>257</v>
@@ -6421,25 +7359,25 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C230">
         <v>65</v>
       </c>
       <c r="D230" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E230" t="s">
+        <v>769</v>
+      </c>
+      <c r="F230" t="s">
+        <v>770</v>
+      </c>
+      <c r="G230" t="s">
         <v>771</v>
       </c>
-      <c r="F230" t="s">
-        <v>772</v>
-      </c>
-      <c r="G230" t="s">
-        <v>773</v>
-      </c>
       <c r="K230" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -6447,25 +7385,25 @@
         <v>96</v>
       </c>
       <c r="B231" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C231">
         <v>65</v>
       </c>
       <c r="D231" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E231" t="s">
+        <v>769</v>
+      </c>
+      <c r="F231" t="s">
+        <v>770</v>
+      </c>
+      <c r="G231" t="s">
         <v>771</v>
       </c>
-      <c r="F231" t="s">
-        <v>772</v>
-      </c>
-      <c r="G231" t="s">
-        <v>773</v>
-      </c>
       <c r="K231" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -6473,25 +7411,25 @@
         <v>104</v>
       </c>
       <c r="B232" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C232">
         <v>65</v>
       </c>
       <c r="D232" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E232" t="s">
+        <v>769</v>
+      </c>
+      <c r="F232" t="s">
+        <v>770</v>
+      </c>
+      <c r="G232" t="s">
         <v>771</v>
       </c>
-      <c r="F232" t="s">
-        <v>772</v>
-      </c>
-      <c r="G232" t="s">
-        <v>773</v>
-      </c>
       <c r="K232" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -6499,25 +7437,25 @@
         <v>107</v>
       </c>
       <c r="B233" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C233">
         <v>65</v>
       </c>
       <c r="D233" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E233" t="s">
+        <v>769</v>
+      </c>
+      <c r="F233" t="s">
+        <v>770</v>
+      </c>
+      <c r="G233" t="s">
         <v>771</v>
       </c>
-      <c r="F233" t="s">
-        <v>772</v>
-      </c>
-      <c r="G233" t="s">
-        <v>773</v>
-      </c>
       <c r="K233" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -6525,25 +7463,25 @@
         <v>81</v>
       </c>
       <c r="B234" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C234">
         <v>65</v>
       </c>
       <c r="D234" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E234" t="s">
+        <v>769</v>
+      </c>
+      <c r="F234" t="s">
+        <v>770</v>
+      </c>
+      <c r="G234" t="s">
         <v>771</v>
       </c>
-      <c r="F234" t="s">
-        <v>772</v>
-      </c>
-      <c r="G234" t="s">
-        <v>773</v>
-      </c>
       <c r="K234" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -6551,25 +7489,25 @@
         <v>86</v>
       </c>
       <c r="B235" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C235">
         <v>65</v>
       </c>
       <c r="D235" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E235" t="s">
+        <v>769</v>
+      </c>
+      <c r="F235" t="s">
+        <v>770</v>
+      </c>
+      <c r="G235" t="s">
         <v>771</v>
       </c>
-      <c r="F235" t="s">
-        <v>772</v>
-      </c>
-      <c r="G235" t="s">
-        <v>773</v>
-      </c>
       <c r="K235" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -6577,25 +7515,25 @@
         <v>64</v>
       </c>
       <c r="B236" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C236">
         <v>65</v>
       </c>
       <c r="D236" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E236" t="s">
+        <v>769</v>
+      </c>
+      <c r="F236" t="s">
+        <v>770</v>
+      </c>
+      <c r="G236" t="s">
         <v>771</v>
       </c>
-      <c r="F236" t="s">
-        <v>772</v>
-      </c>
-      <c r="G236" t="s">
-        <v>773</v>
-      </c>
       <c r="K236" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -6603,25 +7541,25 @@
         <v>140</v>
       </c>
       <c r="B237" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C237">
         <v>65</v>
       </c>
       <c r="D237" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E237" t="s">
+        <v>769</v>
+      </c>
+      <c r="F237" t="s">
+        <v>770</v>
+      </c>
+      <c r="G237" t="s">
         <v>771</v>
       </c>
-      <c r="F237" t="s">
-        <v>772</v>
-      </c>
-      <c r="G237" t="s">
-        <v>773</v>
-      </c>
       <c r="K237" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -6629,22 +7567,22 @@
         <v>133</v>
       </c>
       <c r="B238" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C238" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D238" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E238" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F238" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K238" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -6652,22 +7590,22 @@
         <v>74</v>
       </c>
       <c r="B239" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C239" t="s">
+        <v>772</v>
+      </c>
+      <c r="D239" t="s">
+        <v>747</v>
+      </c>
+      <c r="E239" t="s">
+        <v>742</v>
+      </c>
+      <c r="F239" t="s">
         <v>774</v>
       </c>
-      <c r="D239" t="s">
-        <v>749</v>
-      </c>
-      <c r="E239" t="s">
-        <v>744</v>
-      </c>
-      <c r="F239" t="s">
-        <v>776</v>
-      </c>
       <c r="K239" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -6675,22 +7613,22 @@
         <v>91</v>
       </c>
       <c r="B240" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C240" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D240" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E240" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F240" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K240" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -6698,22 +7636,22 @@
         <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C241" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D241" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E241" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F241" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K241" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -6721,22 +7659,22 @@
         <v>30</v>
       </c>
       <c r="B242" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C242" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D242" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E242" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F242" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K242" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -6744,22 +7682,22 @@
         <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C243" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D243" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E243" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F243" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K243" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -6767,10 +7705,10 @@
         <v>69</v>
       </c>
       <c r="B244" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K244" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -6778,10 +7716,10 @@
         <v>85</v>
       </c>
       <c r="B245" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K245" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -6789,10 +7727,10 @@
         <v>82</v>
       </c>
       <c r="B246" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K246" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -6800,10 +7738,10 @@
         <v>108</v>
       </c>
       <c r="B247" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K247" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -6811,10 +7749,10 @@
         <v>103</v>
       </c>
       <c r="B248" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K248" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -6822,10 +7760,10 @@
         <v>94</v>
       </c>
       <c r="B249" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K249" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -6833,10 +7771,10 @@
         <v>98</v>
       </c>
       <c r="B250" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K250" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -6844,10 +7782,10 @@
         <v>118</v>
       </c>
       <c r="B251" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K251" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -6855,10 +7793,10 @@
         <v>170</v>
       </c>
       <c r="B252" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K252" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -6866,10 +7804,10 @@
         <v>147</v>
       </c>
       <c r="B253" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K253" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -6877,10 +7815,10 @@
         <v>137</v>
       </c>
       <c r="B254" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K254" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -6888,10 +7826,10 @@
         <v>120</v>
       </c>
       <c r="B255" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K255" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -6899,10 +7837,10 @@
         <v>114</v>
       </c>
       <c r="B256" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K256" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -6910,1479 +7848,1479 @@
         <v>125</v>
       </c>
       <c r="B257" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K257" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" t="s">
+        <v>542</v>
+      </c>
+      <c r="B258" t="s">
+        <v>545</v>
+      </c>
+      <c r="K258" t="s">
         <v>544</v>
-      </c>
-      <c r="B258" t="s">
-        <v>547</v>
-      </c>
-      <c r="K258" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B259" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K259" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B260" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K260" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B261" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K261" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B262" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K262" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B263" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K263" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" t="s">
+        <v>554</v>
+      </c>
+      <c r="B264" t="s">
         <v>556</v>
       </c>
-      <c r="B264" t="s">
-        <v>558</v>
-      </c>
       <c r="K264" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B265" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K265" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B266" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K266" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B267" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K267" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" t="s">
+        <v>563</v>
+      </c>
+      <c r="B268" t="s">
+        <v>560</v>
+      </c>
+      <c r="K268" t="s">
         <v>565</v>
-      </c>
-      <c r="B268" t="s">
-        <v>562</v>
-      </c>
-      <c r="K268" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B269" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K269" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B270" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K270" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B271" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K271" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B272" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K272" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B273" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K273" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B274" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K274" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B275" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K275" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" t="s">
+        <v>572</v>
+      </c>
+      <c r="B276" t="s">
         <v>574</v>
       </c>
-      <c r="B276" t="s">
-        <v>576</v>
-      </c>
       <c r="K276" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" t="s">
+        <v>573</v>
+      </c>
+      <c r="B277" t="s">
+        <v>574</v>
+      </c>
+      <c r="K277" t="s">
         <v>575</v>
-      </c>
-      <c r="B277" t="s">
-        <v>576</v>
-      </c>
-      <c r="K277" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B278" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K278" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B279" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K279" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B280" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K280" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K281" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
+        <v>580</v>
+      </c>
+      <c r="B282" t="s">
         <v>582</v>
       </c>
-      <c r="B282" t="s">
-        <v>584</v>
-      </c>
       <c r="K282" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" t="s">
+        <v>581</v>
+      </c>
+      <c r="B283" t="s">
+        <v>582</v>
+      </c>
+      <c r="K283" t="s">
         <v>583</v>
-      </c>
-      <c r="B283" t="s">
-        <v>584</v>
-      </c>
-      <c r="K283" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B284" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K284" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B285" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K285" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" t="s">
+        <v>586</v>
+      </c>
+      <c r="B286" t="s">
+        <v>589</v>
+      </c>
+      <c r="K286" t="s">
         <v>588</v>
-      </c>
-      <c r="B286" t="s">
-        <v>591</v>
-      </c>
-      <c r="K286" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
+        <v>587</v>
+      </c>
+      <c r="B287" t="s">
         <v>589</v>
       </c>
-      <c r="B287" t="s">
-        <v>591</v>
-      </c>
       <c r="K287" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
+        <v>590</v>
+      </c>
+      <c r="B288" t="s">
         <v>592</v>
-      </c>
-      <c r="B288" t="s">
-        <v>594</v>
       </c>
       <c r="C288">
         <v>65</v>
       </c>
       <c r="D288" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G288">
         <v>3</v>
       </c>
       <c r="J288" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K288" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B289" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C289">
         <v>65</v>
       </c>
       <c r="D289" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G289">
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K289" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B290" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C290">
         <v>65</v>
       </c>
       <c r="D290" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G290">
         <v>3</v>
       </c>
       <c r="J290" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K290" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B291" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C291">
         <v>46</v>
       </c>
       <c r="D291" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G291">
         <v>4</v>
       </c>
       <c r="J291" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B292" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C292">
         <v>32</v>
       </c>
       <c r="D292" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K292" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B293" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C293">
         <v>32</v>
       </c>
       <c r="D293" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K293" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B294" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C294">
         <v>32</v>
       </c>
       <c r="D294" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G294">
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K294" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B295" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C295">
         <v>32</v>
       </c>
       <c r="D295" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G295">
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K295" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B296" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C296">
         <v>32</v>
       </c>
       <c r="D296" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G296">
         <v>7</v>
       </c>
       <c r="J296" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K296" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B297" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C297">
         <v>32</v>
       </c>
       <c r="D297" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G297">
         <v>7</v>
       </c>
       <c r="J297" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K297" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B298" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C298">
         <v>32</v>
       </c>
       <c r="D298" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G298">
         <v>7</v>
       </c>
       <c r="J298" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K298" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B299" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C299">
         <v>32</v>
       </c>
       <c r="D299" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G299">
         <v>7</v>
       </c>
       <c r="J299" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K299" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B300" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C300">
         <v>62</v>
       </c>
       <c r="D300" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G300">
         <v>5</v>
       </c>
       <c r="J300" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K300" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B301" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C301">
         <v>62</v>
       </c>
       <c r="D301" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G301">
         <v>7</v>
       </c>
       <c r="J301" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K301" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B302" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C302">
         <v>45</v>
       </c>
       <c r="D302" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G302">
         <v>5</v>
       </c>
       <c r="J302" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K302" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B303" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C303">
         <v>45</v>
       </c>
       <c r="D303" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G303">
         <v>7</v>
       </c>
       <c r="J303" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K303" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B304" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C304">
         <v>59</v>
       </c>
       <c r="D304" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G304">
         <v>6</v>
       </c>
       <c r="J304" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K304" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B305" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C305">
         <v>59</v>
       </c>
       <c r="D305" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G305">
         <v>8</v>
       </c>
       <c r="J305" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K305" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B306" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C306">
         <v>31</v>
       </c>
       <c r="D306" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G306">
         <v>4</v>
       </c>
       <c r="J306" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K306" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B307" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C307">
         <v>31</v>
       </c>
       <c r="D307" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G307">
         <v>6</v>
       </c>
       <c r="J307" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K307" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B308" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C308">
         <v>33</v>
       </c>
       <c r="D308" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G308">
         <v>6</v>
       </c>
       <c r="J308" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K308" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B309" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C309">
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G309">
         <v>10</v>
       </c>
       <c r="J309" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B310" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C310">
         <v>39</v>
       </c>
       <c r="D310" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G310">
         <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K310" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B311" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C311">
         <v>39</v>
       </c>
       <c r="D311" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G311">
         <v>5</v>
       </c>
       <c r="J311" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K311" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B312" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C312">
         <v>75</v>
       </c>
       <c r="D312" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G312">
         <v>10</v>
       </c>
       <c r="J312" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K312" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B313" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C313">
         <v>75</v>
       </c>
       <c r="D313" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G313">
         <v>10</v>
       </c>
       <c r="J313" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K313" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B314" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C314">
         <v>28</v>
       </c>
       <c r="D314" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I314" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J314" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B315" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C315">
         <v>27</v>
       </c>
       <c r="D315" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I315" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J315" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B316" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C316">
         <v>33</v>
       </c>
       <c r="D316" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I316" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J316" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B317" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J317" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K317" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B318" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J318" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K318" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B319" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J319" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K319" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B320" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J320" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K320" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B321" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C321">
         <v>40</v>
       </c>
       <c r="D321" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J321" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K321" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B322" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C322">
         <v>40</v>
       </c>
       <c r="D322" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J322" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K322" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B323" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C323">
         <v>40</v>
       </c>
       <c r="D323" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J323" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K323" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
+        <v>641</v>
+      </c>
+      <c r="B324" t="s">
         <v>643</v>
-      </c>
-      <c r="B324" t="s">
-        <v>645</v>
       </c>
       <c r="C324">
         <v>40</v>
       </c>
       <c r="D324" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J324" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K324" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B325" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C325">
         <v>40</v>
       </c>
       <c r="D325" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J325" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K325" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B326" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J326" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K326" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B327" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J327" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K327" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B328" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J328" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K328" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B329" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J329" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K329" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B330" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J330" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K330" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B331" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J331" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K331" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B332" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J332" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K332" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B333" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J333" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K333" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B334" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J334" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K334" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B335" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J335" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K335" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B336" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J336" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B337" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J337" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B338" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J338" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B339" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J339" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B340" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J340" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B341" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J341" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B342" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J342" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B343" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J343" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B344" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J344" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B345" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J345" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K345" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B346" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J346" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K346" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B347" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J347" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K347" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B348" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J348" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K348" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B349" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J349" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K349" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B350" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J350" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K350" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="351" spans="1:11">
       <c r="K351" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -8391,5 +9329,6 @@
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSD\ct-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D601B4-A304-4D20-9C58-ABEACED34C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EFFF3-8356-44F7-9F07-6638AD9D3BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="976">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -2356,10 +2356,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>2020.01.24.919183-p27-134.png</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>kjr-21-e24-p3-16</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2797,6 +2793,448 @@
   <si>
     <t>high fever (40℃) at night, developed weakness of both lower limbs with urinary and bowel
 incontinence, culminating in flaccid lower extremity paralysis</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>no history of hepatitis, tuberculosis or diabetes.</t>
+  </si>
+  <si>
+    <t>day 6 after the onset of illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest tightness, unproductive cough, pain and weakness for one week on presentation. Fever with body temperatures ranging from 37.2oC to 40oC. Severe cough with phlegm at onset of illness. Experienced dizziness. respiratory failure, was given high flow noninvasive ventilation. Physical examination of cardiovascular, abdominal and neurologic examination was normal. Mild lymphopenia (less than 900 cells per cubic milli-meter) was observed, but white blood cell and blood platelet count was normal in a complete blood count (CBC) test. Elevated levels of C-reactive protein (CRP, 41.4 mg/L of blood, reference range 0-6 mg/L) was observed and levels of aspartate aminotransferase, lactic dehydrogenase, and creatine kinase were slightly elevated in blood chemistry tests. The patient had mild hypoxemia with oxygen levels of 67mmHg by the Arterial Blood Gas (ABG) Test. On the first day of admission (day 6 after the onset of illness), chest radiographs were abnormal with air-space shadowing such a ground-glass opacities, focal consolidation and patchy consolidation in both lungs (Figure 1). Chest computed tomographic (CT) scans revealed bilateral focal consolidation, lobar consolidation and patchy consolidation, especially in the lower lung. A chest radiograph revealed a bilateral diffuse patchy and fuzzy shadow on day 5 after admission (day 11 after the onset of illness). Preliminary aetiological investigation excluded the presence of influenza virus, Chlamydia pneumoniae and Mycoplasma pneumoniae by commercial pathogen antigen detection kits and confirmed by PCR. Other common respiratory pathogens, including adenovirus, were also negative by qPCR (Figure S1). The condition of the patient did not improve after three days of treatment with combined antiviral and antibiotic therapy. He was admitted to the intensive care unit (ICU) and treatment with a high flow non-invasive ventilator was initiated. The patient was transferred to another hospital in Wuhan for further treatment 6 days after admission. </t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>2020.01.24.919183-p27-134.png</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness Day 8, Hospital Day 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early stage: Ground glass shadow in multiple lobes and segments of bilateral lungs, and the lesions were adjacent to the pleura </t>
+  </si>
+  <si>
+    <t>Illness Day 15, Hospital Day 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorption stage: Ground glass shadow absorption and reduced consolidation area </t>
+  </si>
+  <si>
+    <t>Illness Day 20, Hospital Day 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissipation stage: Lesion dissipation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness Day 11, Hospital Day 3 </t>
+  </si>
+  <si>
+    <t>Consolidation stage: Ground glass shadow expanding and consolidation in bilateral lung</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Shenzhen, China</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>Although the Ct value was low in BALF, viral RNAs were not detected in all the upper respiratory samples. Multiple ground-glass opacities in bilateral lungs. The PiO2/FiO2 and Murray score were 188 and 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe case: viral RNAs were not detected in all the upper respiratory samples but positive in the BALF. Multiple ground-glass opacities in bilateral lungs. The PiO2/FiO2 and Murray score were 306 and 1.5, which indicated a lung injury. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any underling diseases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral RNAs were not detected in in the first three upper respiratory samples. CT scan of the this case also showed typical ground-glass opacity in the lung, suggesting a viral pneumonia. However, no viral RNAs were detected until the fourth upper respiratory samples. </t>
+  </si>
+  <si>
+    <t>Sichuan, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilateral ground glass opacities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patchy shadows </t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
+    <t>unilateral or bilateral ground glass opacity，bilateral multiple lobular and subsegmental areas of consolidation</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2nd day of the course of disease</t>
+  </si>
+  <si>
+    <t>local ground glass shadow and nodules.</t>
+  </si>
+  <si>
+    <t>Thin ground glass shadow mainly distributed in outer zone of the lung and under the pleura.</t>
+  </si>
+  <si>
+    <t>7th day of the course of disease</t>
+  </si>
+  <si>
+    <t>Ground glass shadow of both lungs, left pulmonary nodule focus located under pleura</t>
+  </si>
+  <si>
+    <t>11th day of the course of disease</t>
+  </si>
+  <si>
+    <t>Progress to patchy shadow with uneven density</t>
+  </si>
+  <si>
+    <t>15th day of the course of disease</t>
+  </si>
+  <si>
+    <t>Multiple patchy shadows with fuzzy edges, large ground glass shadow and condensation shadow were found in both lower lobe</t>
+  </si>
+  <si>
+    <t>Hubei, China</t>
+  </si>
+  <si>
+    <t>Mild pneumonia patient showed patchy ground-glass opacity with clear borderline in a transverse chest CT image. The mild radiographic abnormalities demonstrated as sparse subpleural nodular or patchy ground-glass opacities that principally distributed in lung segments and under pleura, with clear borderline and vascular shadows showing around</t>
+  </si>
+  <si>
+    <t>Transverse chest CT images of moderate patients showing large ground-glass opacities and some with ambiguous borderline. Moderate abnormalities were characterized with increased number of ground-glass opacities and their expansion to multiple lobes. Nodular ground-glass opacities occurred with consolidation, with ambiguous borderline and blood vessels going through.</t>
+  </si>
+  <si>
+    <t>Severe cases were characterized by typical white lung change as high-density mass shadows and multiple lobular consolidations were observed. In severe abnormalities, diffuse patchy or grid ground-glass opacities with heterogeneous density presented, partially with clear borderline, in which air bronchogram and vascular shadow can be seen. Both lungs showed white lung change, with thickening of interlobular septum and multiple consolidations in mediastinal window.</t>
+  </si>
+  <si>
+    <t>from mortality group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from survival group: ground glass opacities with predominant peripheral distribution in middle and lower lung zones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from mortality group: Air bronchogram, together with extensive of consolidations and ground glass opacities were found in the CT images </t>
+  </si>
+  <si>
+    <t>from survival group: showed ground glass nodular opacities on admission and progressed to multiple patchy ground glass opacities on reexamination. peripherally distributed focal ground glass nodular opacities in only right lung</t>
+  </si>
+  <si>
+    <t>from survival group: rechecked CT images showed expanded area of patchy ground glass opacities in both right and left lungs with reticular and interlobular septal thickening on 7 days later</t>
+  </si>
+  <si>
+    <t>from survival group: Unilateral ground glass nodular opacity was found on CT images</t>
+  </si>
+  <si>
+    <t>from survival group: progressed patchy ground glass opacities as well as interlobular septal thickening were seen after 4 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhejiang, China </t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 1 from symptom onse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground-glass opacities of bilateral lungs near the pleura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 5  from symptom onse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">increased bilateral ground- glass opacities and consolidation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 5 from symptom onse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 7 from symptom onse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slightly absorbed ground-glass opacities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">day 7  from symptom onse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">light </t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical </t>
+  </si>
+  <si>
+    <t>unilateral or bilateral pneumonia.  multiple “ground-glass” lesions</t>
+  </si>
+  <si>
+    <t>10.1101/2020.02.25.20021568</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>451 lesions were mainly ground-glass-like, with thickened blood vessels walking</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesions were mainly ground glass changes</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesions become solid with a large range</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesion is located in the lower lobe of both lungs, and is
+455 mainly grid-like change with ground glass lesion</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesions are mainly consolidation</t>
+  </si>
+  <si>
+    <t>ordinary bacterial pneumonia</t>
+  </si>
+  <si>
+    <t>consolidation of the right lower lobe</t>
+  </si>
+  <si>
+    <t>tumorous lesion in the lung</t>
+  </si>
+  <si>
+    <t>a mass in the left upper lobe, with burrs seen at the edges, and showing leaf-like growth
+479 with vacuoles inside</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary pulmonary tuberculosis</t>
+  </si>
+  <si>
+    <t>a left apical
+480 fibrous cord</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronchiectasis complicated with infection</t>
+  </si>
+  <si>
+    <t>bronchodilation and expansion, cystic changes, and surrounding patches of infection</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.02.25.20027763</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>have fever and cough</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>have fever for more than 3 days</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.02.26.20026989</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.02.26.20027938</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>patchy or ground glass shadows in the chest CT images &lt; 50%</t>
+  </si>
+  <si>
+    <t>patchy or ground glass shadows in the chest CT images &lt; 50%</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>patchy or ground glass shadows in the chest CT images &gt;= 50%</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>binocular conjunctival congestion</t>
+  </si>
+  <si>
+    <t>conjunctivitis completely subsided and did not recur 4
+days after onset</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 18</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.02.27.20027557</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 days before DIP treatment</t>
+  </si>
+  <si>
+    <t>5 days before DIP treatment</t>
+  </si>
+  <si>
+    <t>2 days before DIP treatment</t>
+  </si>
+  <si>
+    <t>2 days after DIP treatment</t>
+  </si>
+  <si>
+    <t>7 days after DIP treatment</t>
+  </si>
+  <si>
+    <t>10.1101/2020.02.28.20029025</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>no obvious lesion was found in both lungs</t>
+  </si>
+  <si>
+    <t>In the lower of both lungs, there were large fuzzy shadows and GGO,
+some slightly fan-shaped distribution</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.01.20029769</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>with high fever and dyspnea</t>
+  </si>
+  <si>
+    <t>10.1101/2020.03.03.20030353</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>patchy consolidation abutting the pleura in left upper lobe</t>
+  </si>
+  <si>
+    <t>large areas of consolidation with air bronchogram sign in right upper lobe</t>
+  </si>
+  <si>
+    <t>Ground glass opacity in bilateral upper lobe</t>
+  </si>
+  <si>
+    <t>Hunan, China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.03.20030775</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>presenting with fever,
+cough and shortness of breath</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>presenting with fever
+and productive cough</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mild NCP patients</t>
+  </si>
+  <si>
+    <t>Guangdon, China</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.04.20026005</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serious Conditions Infected With NCP</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 7</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 21</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 9</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1101/2020.03.04.20030395</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intralobular septal thickening and parenchymal bands in the right lower lobe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A small region of subpleural ground glass opacity with partial consolidation in the right lower lobe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A small region of subpleural consolidation in the posterior right upper lobe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilateral multilobular ground glass opacity and partial consolidation, and a pneumatocele in the right upper lobe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilateral consolidation in the peripheral regions of the upper lobes, with inter- and intra-lobular septal thickening (crazy paving
+pattern).</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilateral consolidation in the subpleural region of lower lobes, with parenchymal bands. Air
+bronchograms are present in the right lower lobe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffuse consolidation in the right lower lobe. Ground glass opacity with partial consolidation in multiple lobes of left lung</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilateral diffuse consolidation with air bronchograms in the lower lobes. Multiple areas of patchy consolidation in the right middle lobe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilateral diffuse consolidation with air bronchograms</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -2804,7 +3242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3000,8 +3438,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3181,6 +3647,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3343,7 +3815,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3351,6 +3823,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3709,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -3718,7 +4206,7 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" customWidth="1"/>
     <col min="8" max="8" width="35.109375" customWidth="1"/>
     <col min="9" max="9" width="18.109375" customWidth="1"/>
     <col min="10" max="10" width="44.77734375" customWidth="1"/>
@@ -3727,1046 +4215,2378 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J1" t="s">
         <v>736</v>
       </c>
-      <c r="D1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H1" t="s">
-        <v>733</v>
-      </c>
-      <c r="I1" t="s">
-        <v>734</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>737</v>
       </c>
-      <c r="K1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="88.8" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C2" s="5">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="55.2">
+      <c r="A3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="K3" t="s">
+      <c r="C3" s="5">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>724</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="55.2">
+      <c r="A4" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="K4" t="s">
+      <c r="C4" s="5">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="55.2">
+      <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="K5" t="s">
+      <c r="C5" s="5">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K6" t="s">
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="55.8">
+      <c r="A7" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K7" t="s">
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A8" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K8" t="s">
+      <c r="C8" s="5">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K9" t="s">
+      <c r="C9" s="5">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A10" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K10" t="s">
+      <c r="C10" s="5">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A11" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K11" t="s">
+      <c r="C11" s="5">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K12" t="s">
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A13" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K13" t="s">
+      <c r="C13" s="5">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="55.8">
+      <c r="A14" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K14" t="s">
+      <c r="C14" s="5">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="55.8">
+      <c r="A15" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K15" t="s">
+      <c r="C15" s="5">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="42">
+      <c r="A16" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K16" t="s">
+      <c r="C16" s="5">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="42">
+      <c r="A17" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K17" t="s">
+      <c r="C17" s="5">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="42">
+      <c r="A18" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K18" t="s">
+      <c r="C18" s="5">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="42">
+      <c r="A19" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K19" t="s">
+      <c r="C19" s="5">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K20" t="s">
+      <c r="C20" s="5">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="28.2">
+      <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K21" t="s">
+      <c r="C21" s="5">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="83.4">
+      <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="K22" t="s">
+      <c r="C22" s="5">
+        <v>65</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="96.6">
+      <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K23" t="s">
+      <c r="C23" s="5">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="97.2">
+      <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="K24" t="s">
+      <c r="C24" s="5">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="K25" t="s">
+      <c r="C25" s="5">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="37.950000000000003" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="K26" t="s">
+      <c r="C26" s="5">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="37.950000000000003" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="K27" t="s">
+      <c r="C27" s="5">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="K28" t="s">
+      <c r="C28" s="5">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K29" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="K30" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K31" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="43.05" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K32" t="s">
+      <c r="C32" s="5">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K33" t="s">
+      <c r="C33" s="5">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K34" t="s">
+      <c r="C34" s="5">
+        <v>36</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K35" t="s">
+      <c r="C35" s="5">
+        <v>36</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+    <row r="36" spans="1:11" s="6" customFormat="1" ht="52.95" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K36" t="s">
+      <c r="C36" s="5">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+    <row r="37" spans="1:11" s="6" customFormat="1" ht="55.95" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="K37" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11" s="6" customFormat="1" ht="151.80000000000001">
+      <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="K38" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="151.80000000000001">
+      <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="K39" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="76.05" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="K40" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="27.6">
+      <c r="A41" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="K41" t="s">
+      <c r="C41" s="5">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A42" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="K42" t="s">
+      <c r="C42" s="5">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="K43" t="s">
+      <c r="C43" s="5">
+        <v>63</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="K44" t="s">
+      <c r="C44" s="5">
+        <v>76</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="K45" t="s">
+      <c r="C45" s="5">
+        <v>76</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="K46" t="s">
+      <c r="C46" s="5">
+        <v>76</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="K47" t="s">
+      <c r="C47" s="5">
+        <v>72</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="K48" t="s">
+      <c r="C48" s="5">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="K49" t="s">
+      <c r="C49" s="5">
+        <v>72</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="52.05" customHeight="1">
+      <c r="A50" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="K50" t="s">
+      <c r="C50" s="5">
+        <v>60</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="57" customHeight="1">
+      <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="K51" t="s">
+      <c r="C51" s="5">
+        <v>60</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="43.95" customHeight="1">
+      <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="K52" t="s">
+      <c r="C52" s="5">
+        <v>64</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="46.05" customHeight="1">
+      <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="K53" t="s">
+      <c r="C53" s="5">
+        <v>64</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
+    <row r="54" spans="1:11" s="11" customFormat="1" ht="41.4">
+      <c r="A54" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K54" t="s">
+      <c r="C54" s="5">
+        <v>39</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K55" t="s">
+      <c r="C55" s="5">
+        <v>39</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K56" t="s">
+      <c r="C56" s="5">
+        <v>39</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A57" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K57" t="s">
+      <c r="C57" s="5">
+        <v>39</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A58" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K58" t="s">
+      <c r="C58" s="5">
+        <v>39</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="41.4">
+      <c r="A59" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K59" t="s">
+      <c r="C59" s="5">
+        <v>39</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="K60" t="s">
+      <c r="C60" s="5">
+        <v>44</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="K61" t="s">
+      <c r="C61" s="5">
+        <v>37</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="K62" t="s">
+      <c r="C62" s="5">
+        <v>65</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="41.4">
+      <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K63" t="s">
+      <c r="C63" s="5">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
+    <row r="64" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K64" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="27.6">
+      <c r="A65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="K65" t="s">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="41.4">
       <c r="A66" t="s">
         <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>405</v>
       </c>
+      <c r="E66" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J66" t="s">
+        <v>908</v>
+      </c>
       <c r="K66" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="41.4">
       <c r="A67" t="s">
         <v>141</v>
       </c>
       <c r="B67" t="s">
         <v>406</v>
       </c>
+      <c r="E67" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K67" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" ht="41.4">
       <c r="A68" t="s">
         <v>214</v>
       </c>
       <c r="B68" t="s">
         <v>407</v>
       </c>
+      <c r="E68" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K68" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" ht="41.4">
       <c r="A69" t="s">
         <v>224</v>
       </c>
       <c r="B69" t="s">
         <v>408</v>
       </c>
+      <c r="E69" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K69" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="27.6">
       <c r="A70" t="s">
         <v>249</v>
       </c>
       <c r="B70" t="s">
         <v>409</v>
       </c>
+      <c r="E70" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" ht="27.6">
       <c r="A71" t="s">
         <v>236</v>
       </c>
       <c r="B71" t="s">
         <v>410</v>
       </c>
+      <c r="E71" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K71" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" ht="27.6">
       <c r="A72" t="s">
         <v>203</v>
       </c>
       <c r="B72" t="s">
         <v>411</v>
       </c>
+      <c r="E72" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" ht="27.6">
       <c r="A73" t="s">
         <v>195</v>
       </c>
       <c r="B73" t="s">
         <v>412</v>
       </c>
+      <c r="E73" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K73" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" ht="27.6">
       <c r="A74" t="s">
         <v>163</v>
       </c>
       <c r="B74" t="s">
         <v>413</v>
       </c>
+      <c r="E74" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K74" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" ht="27.6">
       <c r="A75" t="s">
         <v>165</v>
       </c>
       <c r="B75" t="s">
         <v>414</v>
       </c>
+      <c r="E75" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K75" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" ht="27.6">
       <c r="A76" t="s">
         <v>126</v>
       </c>
       <c r="B76" t="s">
         <v>415</v>
       </c>
+      <c r="E76" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K76" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" ht="27.6">
       <c r="A77" t="s">
         <v>130</v>
       </c>
       <c r="B77" t="s">
         <v>416</v>
       </c>
+      <c r="E77" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K77" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" ht="55.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
       <c r="B78" t="s">
         <v>417</v>
       </c>
+      <c r="E78" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" ht="55.2">
       <c r="A79" t="s">
         <v>116</v>
       </c>
       <c r="B79" t="s">
         <v>418</v>
       </c>
+      <c r="E79" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" ht="27.6">
       <c r="A80" t="s">
         <v>95</v>
       </c>
       <c r="B80" t="s">
         <v>419</v>
       </c>
+      <c r="E80" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K80" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" ht="27.6">
       <c r="A81" t="s">
         <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>420</v>
       </c>
+      <c r="E81" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K81" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" ht="27.6">
       <c r="A82" t="s">
         <v>189</v>
       </c>
       <c r="B82" t="s">
         <v>421</v>
       </c>
+      <c r="E82" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H82" t="s">
+        <v>915</v>
+      </c>
+      <c r="I82" t="s">
+        <v>914</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" ht="55.2">
       <c r="A83" t="s">
         <v>178</v>
       </c>
       <c r="B83" t="s">
         <v>422</v>
       </c>
+      <c r="E83" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I83" t="s">
+        <v>916</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K83" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" ht="27.6">
       <c r="A84" t="s">
         <v>194</v>
       </c>
       <c r="B84" t="s">
         <v>423</v>
       </c>
+      <c r="E84" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="I84" t="s">
+        <v>918</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K84" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" ht="41.4">
       <c r="A85" t="s">
         <v>205</v>
       </c>
       <c r="B85" t="s">
         <v>424</v>
       </c>
+      <c r="E85" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="I85" t="s">
+        <v>920</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K85" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" ht="27.6">
       <c r="A86" t="s">
         <v>235</v>
       </c>
       <c r="B86" t="s">
         <v>425</v>
       </c>
+      <c r="E86" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K86" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" ht="27.6">
       <c r="A87" t="s">
         <v>251</v>
       </c>
       <c r="B87" t="s">
         <v>426</v>
       </c>
+      <c r="E87" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K87" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="55.2">
       <c r="A88" t="s">
         <v>226</v>
       </c>
       <c r="B88" t="s">
         <v>427</v>
       </c>
+      <c r="E88" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="27.6">
       <c r="A89" t="s">
         <v>211</v>
       </c>
       <c r="B89" t="s">
         <v>428</v>
       </c>
+      <c r="E89" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K89" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" ht="41.4">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
         <v>429</v>
       </c>
+      <c r="E90" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K90" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" ht="27.6">
       <c r="A91" t="s">
         <v>15</v>
       </c>
       <c r="B91" t="s">
         <v>430</v>
       </c>
+      <c r="E91" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K91" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" ht="27.6">
       <c r="A92" t="s">
         <v>209</v>
       </c>
       <c r="B92" t="s">
         <v>431</v>
       </c>
+      <c r="E92" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="G92" t="s">
+        <v>924</v>
+      </c>
+      <c r="J92" t="s">
+        <v>922</v>
+      </c>
       <c r="K92" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" ht="27.6">
       <c r="A93" t="s">
         <v>229</v>
       </c>
       <c r="B93" t="s">
         <v>432</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="G93" t="s">
+        <v>923</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>922</v>
       </c>
       <c r="K93" t="s">
         <v>290</v>
@@ -4779,6 +6599,12 @@
       <c r="B94" t="s">
         <v>433</v>
       </c>
+      <c r="H94" t="s">
+        <v>929</v>
+      </c>
+      <c r="J94" t="s">
+        <v>925</v>
+      </c>
       <c r="K94" t="s">
         <v>291</v>
       </c>
@@ -4790,6 +6616,12 @@
       <c r="B95" t="s">
         <v>434</v>
       </c>
+      <c r="H95" t="s">
+        <v>928</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="K95" t="s">
         <v>291</v>
       </c>
@@ -4801,6 +6633,12 @@
       <c r="B96" t="s">
         <v>435</v>
       </c>
+      <c r="H96" t="s">
+        <v>930</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="K96" t="s">
         <v>291</v>
       </c>
@@ -4812,137 +6650,269 @@
       <c r="B97" t="s">
         <v>436</v>
       </c>
+      <c r="H97" t="s">
+        <v>930</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="K97" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" ht="27.6">
       <c r="A98" t="s">
         <v>89</v>
       </c>
       <c r="B98" t="s">
         <v>437</v>
       </c>
+      <c r="E98" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G98" t="s">
+        <v>935</v>
+      </c>
+      <c r="H98" t="s">
+        <v>931</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="K98" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" ht="41.4">
       <c r="A99" t="s">
         <v>78</v>
       </c>
       <c r="B99" t="s">
         <v>437</v>
       </c>
+      <c r="E99" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G99" t="s">
+        <v>934</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="K99" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" ht="41.4">
       <c r="A100" t="s">
         <v>19</v>
       </c>
       <c r="B100" t="s">
         <v>437</v>
       </c>
+      <c r="E100" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G100" t="s">
+        <v>933</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="K100" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" ht="27.6">
       <c r="A101" t="s">
         <v>32</v>
       </c>
       <c r="B101" t="s">
         <v>437</v>
       </c>
+      <c r="E101" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="K101" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" ht="41.4">
       <c r="A102" t="s">
         <v>65</v>
       </c>
       <c r="B102" t="s">
         <v>437</v>
       </c>
+      <c r="E102" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="K102" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" ht="41.4">
       <c r="A103" t="s">
         <v>68</v>
       </c>
       <c r="B103" t="s">
         <v>437</v>
       </c>
+      <c r="E103" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="K103" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" ht="27.6">
       <c r="A104" t="s">
         <v>139</v>
       </c>
       <c r="B104" t="s">
         <v>438</v>
       </c>
+      <c r="E104" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G104" t="s">
+        <v>937</v>
+      </c>
+      <c r="J104" t="s">
+        <v>936</v>
+      </c>
       <c r="K104" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" ht="27.6">
       <c r="A105" t="s">
         <v>144</v>
       </c>
       <c r="B105" t="s">
         <v>438</v>
       </c>
+      <c r="E105" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G105" t="s">
+        <v>938</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="K105" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" ht="27.6">
       <c r="A106" t="s">
         <v>167</v>
       </c>
       <c r="B106" t="s">
         <v>438</v>
       </c>
+      <c r="E106" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G106" t="s">
+        <v>939</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="K106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" ht="27.6">
       <c r="A107" t="s">
         <v>161</v>
       </c>
       <c r="B107" t="s">
         <v>438</v>
       </c>
+      <c r="E107" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G107" t="s">
+        <v>940</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="K107" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" ht="27.6">
       <c r="A108" t="s">
         <v>128</v>
       </c>
       <c r="B108" t="s">
         <v>438</v>
       </c>
+      <c r="E108" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G108" t="s">
+        <v>941</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="K108" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" ht="41.4">
       <c r="A109" t="s">
         <v>153</v>
       </c>
       <c r="B109" t="s">
         <v>439</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J109" t="s">
+        <v>942</v>
       </c>
       <c r="K109" t="s">
         <v>298</v>
@@ -4955,6 +6925,15 @@
       <c r="B110" t="s">
         <v>440</v>
       </c>
+      <c r="E110" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="H110" t="s">
+        <v>943</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>942</v>
+      </c>
       <c r="K110" t="s">
         <v>299</v>
       </c>
@@ -4966,6 +6945,12 @@
       <c r="B111" t="s">
         <v>441</v>
       </c>
+      <c r="E111" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J111" t="s">
+        <v>946</v>
+      </c>
       <c r="K111" t="s">
         <v>300</v>
       </c>
@@ -4977,6 +6962,12 @@
       <c r="B112" t="s">
         <v>442</v>
       </c>
+      <c r="E112" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K112" t="s">
         <v>300</v>
       </c>
@@ -4988,6 +6979,21 @@
       <c r="B113" t="s">
         <v>443</v>
       </c>
+      <c r="C113">
+        <v>69</v>
+      </c>
+      <c r="D113" t="s">
+        <v>947</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="H113" t="s">
+        <v>948</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K113" t="s">
         <v>300</v>
       </c>
@@ -4999,6 +7005,12 @@
       <c r="B114" t="s">
         <v>444</v>
       </c>
+      <c r="E114" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K114" t="s">
         <v>300</v>
       </c>
@@ -5010,6 +7022,12 @@
       <c r="B115" t="s">
         <v>445</v>
       </c>
+      <c r="E115" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K115" t="s">
         <v>300</v>
       </c>
@@ -5021,6 +7039,12 @@
       <c r="B116" t="s">
         <v>446</v>
       </c>
+      <c r="E116" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K116" t="s">
         <v>300</v>
       </c>
@@ -5032,6 +7056,12 @@
       <c r="B117" t="s">
         <v>447</v>
       </c>
+      <c r="E117" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K117" t="s">
         <v>301</v>
       </c>
@@ -5043,6 +7073,12 @@
       <c r="B118" t="s">
         <v>448</v>
       </c>
+      <c r="E118" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K118" t="s">
         <v>301</v>
       </c>
@@ -5054,6 +7090,15 @@
       <c r="B119" t="s">
         <v>449</v>
       </c>
+      <c r="E119" t="s">
+        <v>953</v>
+      </c>
+      <c r="H119" t="s">
+        <v>950</v>
+      </c>
+      <c r="J119" t="s">
+        <v>949</v>
+      </c>
       <c r="K119" t="s">
         <v>302</v>
       </c>
@@ -5065,6 +7110,15 @@
       <c r="B120" t="s">
         <v>450</v>
       </c>
+      <c r="E120" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H120" t="s">
+        <v>951</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="K120" t="s">
         <v>303</v>
       </c>
@@ -5076,38 +7130,92 @@
       <c r="B121" t="s">
         <v>451</v>
       </c>
+      <c r="E121" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H121" t="s">
+        <v>952</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="K121" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" ht="27.6">
       <c r="A122" t="s">
         <v>185</v>
       </c>
       <c r="B122" t="s">
         <v>452</v>
       </c>
+      <c r="C122">
+        <v>57</v>
+      </c>
+      <c r="D122" t="s">
+        <v>955</v>
+      </c>
+      <c r="E122" t="s">
+        <v>959</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="J122" t="s">
+        <v>954</v>
+      </c>
       <c r="K122" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" ht="27.6">
       <c r="A123" t="s">
         <v>181</v>
       </c>
       <c r="B123" t="s">
         <v>452</v>
       </c>
+      <c r="C123">
+        <v>57</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="K123" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" ht="27.6">
       <c r="A124" t="s">
         <v>225</v>
       </c>
       <c r="B124" t="s">
         <v>453</v>
+      </c>
+      <c r="C124">
+        <v>76</v>
+      </c>
+      <c r="D124" t="s">
+        <v>955</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="K124" t="s">
         <v>306</v>
@@ -5120,6 +7228,21 @@
       <c r="B125" t="s">
         <v>454</v>
       </c>
+      <c r="C125" s="4">
+        <v>57</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H125" t="s">
+        <v>958</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="K125" t="s">
         <v>307</v>
       </c>
@@ -5131,6 +7254,21 @@
       <c r="B126" t="s">
         <v>454</v>
       </c>
+      <c r="C126" s="4">
+        <v>57</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H126" t="s">
+        <v>958</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="K126" t="s">
         <v>307</v>
       </c>
@@ -5142,6 +7280,18 @@
       <c r="B127" t="s">
         <v>455</v>
       </c>
+      <c r="C127">
+        <v>57</v>
+      </c>
+      <c r="E127" t="s">
+        <v>953</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J127" t="s">
+        <v>960</v>
+      </c>
       <c r="K127" t="s">
         <v>308</v>
       </c>
@@ -5153,6 +7303,21 @@
       <c r="B128" t="s">
         <v>455</v>
       </c>
+      <c r="C128">
+        <v>57</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G128" t="s">
+        <v>962</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="K128" t="s">
         <v>309</v>
       </c>
@@ -5164,6 +7329,21 @@
       <c r="B129" t="s">
         <v>455</v>
       </c>
+      <c r="C129" s="4">
+        <v>57</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="K129" t="s">
         <v>310</v>
       </c>
@@ -5175,6 +7355,18 @@
       <c r="B130" t="s">
         <v>456</v>
       </c>
+      <c r="C130">
+        <v>37</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="K130" t="s">
         <v>311</v>
       </c>
@@ -5186,6 +7378,21 @@
       <c r="B131" t="s">
         <v>456</v>
       </c>
+      <c r="C131">
+        <v>37</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="K131" t="s">
         <v>312</v>
       </c>
@@ -5197,104 +7404,200 @@
       <c r="B132" t="s">
         <v>456</v>
       </c>
+      <c r="C132">
+        <v>37</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="K132" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" ht="41.4">
       <c r="A133" t="s">
         <v>43</v>
       </c>
       <c r="B133" t="s">
         <v>457</v>
       </c>
+      <c r="E133" t="s">
+        <v>975</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="J133" t="s">
+        <v>965</v>
+      </c>
       <c r="K133" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" ht="41.4">
       <c r="A134" t="s">
         <v>38</v>
       </c>
       <c r="B134" t="s">
         <v>458</v>
       </c>
+      <c r="E134" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" ht="41.4">
       <c r="A135" t="s">
         <v>52</v>
       </c>
       <c r="B135" t="s">
         <v>459</v>
       </c>
+      <c r="E135" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K135" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" ht="41.4">
       <c r="A136" t="s">
         <v>55</v>
       </c>
       <c r="B136" t="s">
         <v>460</v>
       </c>
+      <c r="E136" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K136" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" ht="69">
       <c r="A137" t="s">
         <v>22</v>
       </c>
       <c r="B137" t="s">
         <v>461</v>
       </c>
+      <c r="E137" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K137" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" ht="69">
       <c r="A138" t="s">
         <v>29</v>
       </c>
       <c r="B138" t="s">
         <v>462</v>
       </c>
+      <c r="E138" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K138" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" ht="55.2">
       <c r="A139" t="s">
         <v>12</v>
       </c>
       <c r="B139" t="s">
         <v>463</v>
       </c>
+      <c r="E139" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K139" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" ht="55.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
       <c r="B140" t="s">
         <v>464</v>
       </c>
+      <c r="E140" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="K140" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" ht="27.6">
       <c r="A141" t="s">
         <v>216</v>
       </c>
       <c r="B141" t="s">
         <v>465</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>965</v>
       </c>
       <c r="K141" t="s">
         <v>322</v>
@@ -5311,19 +7614,19 @@
         <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5337,19 +7640,19 @@
         <v>72</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5363,19 +7666,19 @@
         <v>72</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5389,19 +7692,19 @@
         <v>71</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5415,19 +7718,19 @@
         <v>71</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5441,19 +7744,19 @@
         <v>71</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5464,10 +7767,10 @@
         <v>468</v>
       </c>
       <c r="I148" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J148" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K148" t="s">
         <v>323</v>
@@ -5481,10 +7784,10 @@
         <v>469</v>
       </c>
       <c r="I149" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K149" t="s">
         <v>324</v>
@@ -5498,10 +7801,10 @@
         <v>470</v>
       </c>
       <c r="I150" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K150" t="s">
         <v>325</v>
@@ -5515,10 +7818,10 @@
         <v>471</v>
       </c>
       <c r="I151" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K151" t="s">
         <v>326</v>
@@ -5532,13 +7835,13 @@
         <v>472</v>
       </c>
       <c r="E152" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H152" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K152" t="s">
         <v>327</v>
@@ -5552,13 +7855,13 @@
         <v>473</v>
       </c>
       <c r="E153" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H153" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K153" t="s">
         <v>328</v>
@@ -5572,13 +7875,13 @@
         <v>474</v>
       </c>
       <c r="E154" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H154" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K154" t="s">
         <v>329</v>
@@ -5592,13 +7895,13 @@
         <v>475</v>
       </c>
       <c r="E155" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H155" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K155" t="s">
         <v>330</v>
@@ -5612,13 +7915,13 @@
         <v>476</v>
       </c>
       <c r="E156" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H156" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K156" t="s">
         <v>331</v>
@@ -5632,13 +7935,13 @@
         <v>477</v>
       </c>
       <c r="E157" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H157" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K157" t="s">
         <v>332</v>
@@ -5652,13 +7955,13 @@
         <v>478</v>
       </c>
       <c r="E158" t="s">
+        <v>801</v>
+      </c>
+      <c r="H158" t="s">
         <v>802</v>
       </c>
-      <c r="H158" t="s">
-        <v>803</v>
-      </c>
       <c r="J158" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K158" t="s">
         <v>333</v>
@@ -5672,13 +7975,13 @@
         <v>478</v>
       </c>
       <c r="E159" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H159" t="s">
+        <v>803</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="K159" t="s">
         <v>334</v>
@@ -5692,13 +7995,13 @@
         <v>479</v>
       </c>
       <c r="E160" t="s">
+        <v>806</v>
+      </c>
+      <c r="H160" t="s">
         <v>807</v>
       </c>
-      <c r="H160" t="s">
+      <c r="J160" t="s">
         <v>808</v>
-      </c>
-      <c r="J160" t="s">
-        <v>809</v>
       </c>
       <c r="K160" t="s">
         <v>335</v>
@@ -5712,13 +8015,13 @@
         <v>479</v>
       </c>
       <c r="E161" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H161" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="H161" s="4" t="s">
-        <v>808</v>
-      </c>
       <c r="J161" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K161" t="s">
         <v>335</v>
@@ -5732,13 +8035,13 @@
         <v>479</v>
       </c>
       <c r="E162" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H162" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="H162" s="4" t="s">
-        <v>808</v>
-      </c>
       <c r="J162" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K162" t="s">
         <v>335</v>
@@ -5752,13 +8055,13 @@
         <v>479</v>
       </c>
       <c r="E163" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H163" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="H163" s="4" t="s">
-        <v>808</v>
-      </c>
       <c r="J163" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K163" t="s">
         <v>335</v>
@@ -5772,16 +8075,16 @@
         <v>480</v>
       </c>
       <c r="E164" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H164" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I164" t="s">
+        <v>811</v>
+      </c>
+      <c r="J164" t="s">
         <v>812</v>
-      </c>
-      <c r="J164" t="s">
-        <v>813</v>
       </c>
       <c r="K164" t="s">
         <v>336</v>
@@ -5795,16 +8098,16 @@
         <v>481</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H165" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I165" t="s">
+        <v>811</v>
+      </c>
+      <c r="J165" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>813</v>
       </c>
       <c r="K165" t="s">
         <v>336</v>
@@ -5818,16 +8121,16 @@
         <v>482</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H166" t="s">
+        <v>810</v>
+      </c>
+      <c r="I166" t="s">
         <v>811</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>813</v>
       </c>
       <c r="K166" t="s">
         <v>336</v>
@@ -5841,16 +8144,16 @@
         <v>483</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H167" t="s">
+        <v>810</v>
+      </c>
+      <c r="I167" t="s">
         <v>811</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>813</v>
       </c>
       <c r="K167" t="s">
         <v>336</v>
@@ -5867,10 +8170,10 @@
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J168" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K168" t="s">
         <v>337</v>
@@ -5887,10 +8190,10 @@
         <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K169" t="s">
         <v>338</v>
@@ -5907,10 +8210,10 @@
         <v>55</v>
       </c>
       <c r="D170" t="s">
+        <v>820</v>
+      </c>
+      <c r="J170" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="K170" t="s">
         <v>339</v>
@@ -5927,10 +8230,10 @@
         <v>28</v>
       </c>
       <c r="D171" t="s">
+        <v>820</v>
+      </c>
+      <c r="J171" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="K171" t="s">
         <v>340</v>
@@ -5947,13 +8250,13 @@
         <v>21</v>
       </c>
       <c r="E172" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G172" t="s">
         <v>814</v>
       </c>
-      <c r="G172" t="s">
-        <v>815</v>
-      </c>
       <c r="J172" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K172" t="s">
         <v>341</v>
@@ -5970,13 +8273,13 @@
         <v>21</v>
       </c>
       <c r="E173" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>815</v>
-      </c>
       <c r="J173" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K173" t="s">
         <v>341</v>
@@ -5993,13 +8296,13 @@
         <v>33</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G174" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K174" t="s">
         <v>341</v>
@@ -6016,13 +8319,13 @@
         <v>33</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G175" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K175" t="s">
         <v>341</v>
@@ -6036,16 +8339,16 @@
         <v>490</v>
       </c>
       <c r="C176" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E176" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J176" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K176" t="s">
         <v>342</v>
@@ -6059,16 +8362,16 @@
         <v>490</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K177" t="s">
         <v>343</v>
@@ -6082,16 +8385,16 @@
         <v>491</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G178" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K178" t="s">
         <v>344</v>
@@ -6105,16 +8408,16 @@
         <v>491</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G179" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K179" t="s">
         <v>345</v>
@@ -6128,13 +8431,13 @@
         <v>492</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H180" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K180" t="s">
         <v>346</v>
@@ -6148,13 +8451,13 @@
         <v>492</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H181" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K181" t="s">
         <v>347</v>
@@ -6171,13 +8474,13 @@
         <v>66</v>
       </c>
       <c r="D182" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J182" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K182" t="s">
         <v>256</v>
@@ -6194,13 +8497,13 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K183" t="s">
         <v>256</v>
@@ -6214,10 +8517,10 @@
         <v>495</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K184" t="s">
         <v>256</v>
@@ -6231,10 +8534,10 @@
         <v>496</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K185" t="s">
         <v>256</v>
@@ -6251,13 +8554,13 @@
         <v>1</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G186" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J186" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K186" t="s">
         <v>348</v>
@@ -6274,13 +8577,13 @@
         <v>1</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K187" t="s">
         <v>348</v>
@@ -6297,13 +8600,13 @@
         <v>1</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G188" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K188" t="s">
         <v>348</v>
@@ -6320,13 +8623,13 @@
         <v>1</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K189" t="s">
         <v>348</v>
@@ -6340,16 +8643,16 @@
         <v>501</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G190" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H190" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J190" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K190" t="s">
         <v>349</v>
@@ -6363,16 +8666,16 @@
         <v>502</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G191" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H191" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K191" t="s">
         <v>349</v>
@@ -6386,16 +8689,16 @@
         <v>503</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G192" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H192" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K192" t="s">
         <v>349</v>
@@ -6409,13 +8712,13 @@
         <v>504</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G193" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K193" t="s">
         <v>350</v>
@@ -6429,13 +8732,13 @@
         <v>505</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G194" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K194" t="s">
         <v>350</v>
@@ -6449,13 +8752,13 @@
         <v>506</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G195" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K195" t="s">
         <v>350</v>
@@ -6469,13 +8772,13 @@
         <v>507</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G196" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K196" t="s">
         <v>351</v>
@@ -6489,13 +8792,13 @@
         <v>508</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G197" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K197" t="s">
         <v>351</v>
@@ -6509,13 +8812,13 @@
         <v>509</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G198" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K198" t="s">
         <v>351</v>
@@ -6529,13 +8832,13 @@
         <v>510</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G199" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K199" t="s">
         <v>352</v>
@@ -6549,13 +8852,13 @@
         <v>511</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G200" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K200" t="s">
         <v>352</v>
@@ -6569,13 +8872,13 @@
         <v>512</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G201" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K201" t="s">
         <v>352</v>
@@ -6592,19 +8895,19 @@
         <v>66</v>
       </c>
       <c r="D202" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E202" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G202" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J202" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K202" t="s">
         <v>353</v>
@@ -6621,19 +8924,19 @@
         <v>66</v>
       </c>
       <c r="D203" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E203" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H203" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K203" t="s">
         <v>353</v>
@@ -6650,16 +8953,16 @@
         <v>66</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E204" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K204" t="s">
         <v>353</v>
@@ -6676,13 +8979,13 @@
         <v>66</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E205" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K205" t="s">
         <v>353</v>
@@ -6699,19 +9002,19 @@
         <v>49</v>
       </c>
       <c r="D206" t="s">
+        <v>740</v>
+      </c>
+      <c r="E206" t="s">
         <v>741</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>742</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>743</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>744</v>
-      </c>
-      <c r="H206" t="s">
-        <v>745</v>
       </c>
       <c r="K206" t="s">
         <v>354</v>
@@ -6728,19 +9031,19 @@
         <v>49</v>
       </c>
       <c r="D207" t="s">
+        <v>740</v>
+      </c>
+      <c r="E207" t="s">
         <v>741</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>742</v>
       </c>
-      <c r="F207" t="s">
-        <v>743</v>
-      </c>
       <c r="G207" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H207" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K207" t="s">
         <v>355</v>
@@ -6757,19 +9060,19 @@
         <v>50</v>
       </c>
       <c r="D208" t="s">
+        <v>746</v>
+      </c>
+      <c r="E208" t="s">
+        <v>741</v>
+      </c>
+      <c r="F208" t="s">
         <v>747</v>
       </c>
-      <c r="E208" t="s">
-        <v>742</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>748</v>
       </c>
-      <c r="G208" t="s">
-        <v>749</v>
-      </c>
       <c r="H208" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K208" t="s">
         <v>356</v>
@@ -6786,19 +9089,19 @@
         <v>50</v>
       </c>
       <c r="D209" t="s">
+        <v>746</v>
+      </c>
+      <c r="E209" t="s">
+        <v>741</v>
+      </c>
+      <c r="F209" t="s">
         <v>747</v>
       </c>
-      <c r="E209" t="s">
-        <v>742</v>
-      </c>
-      <c r="F209" t="s">
-        <v>748</v>
-      </c>
       <c r="G209" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H209" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K209" t="s">
         <v>357</v>
@@ -6815,16 +9118,16 @@
         <v>73</v>
       </c>
       <c r="D210" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E210" t="s">
+        <v>750</v>
+      </c>
+      <c r="F210" t="s">
         <v>751</v>
       </c>
-      <c r="F210" t="s">
+      <c r="H210" t="s">
         <v>752</v>
-      </c>
-      <c r="H210" t="s">
-        <v>753</v>
       </c>
       <c r="K210" t="s">
         <v>358</v>
@@ -6841,16 +9144,16 @@
         <v>73</v>
       </c>
       <c r="D211" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E211" t="s">
+        <v>750</v>
+      </c>
+      <c r="F211" t="s">
         <v>751</v>
       </c>
-      <c r="F211" t="s">
+      <c r="H211" t="s">
         <v>752</v>
-      </c>
-      <c r="H211" t="s">
-        <v>753</v>
       </c>
       <c r="K211" t="s">
         <v>358</v>
@@ -6867,16 +9170,16 @@
         <v>70</v>
       </c>
       <c r="D212" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E212" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F212" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H212" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K212" t="s">
         <v>359</v>
@@ -6893,16 +9196,16 @@
         <v>76</v>
       </c>
       <c r="D213" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E213" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F213" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H213" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K213" t="s">
         <v>360</v>
@@ -6919,19 +9222,19 @@
         <v>75</v>
       </c>
       <c r="D214" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E214" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F214" t="s">
+        <v>755</v>
+      </c>
+      <c r="G214" t="s">
         <v>756</v>
       </c>
-      <c r="G214" t="s">
-        <v>757</v>
-      </c>
       <c r="H214" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K214" t="s">
         <v>361</v>
@@ -6948,19 +9251,19 @@
         <v>75</v>
       </c>
       <c r="D215" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E215" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F215" t="s">
+        <v>755</v>
+      </c>
+      <c r="G215" t="s">
         <v>756</v>
       </c>
-      <c r="G215" t="s">
-        <v>757</v>
-      </c>
       <c r="H215" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K215" t="s">
         <v>361</v>
@@ -6977,19 +9280,19 @@
         <v>75</v>
       </c>
       <c r="D216" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E216" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F216" t="s">
+        <v>755</v>
+      </c>
+      <c r="G216" t="s">
         <v>756</v>
       </c>
-      <c r="G216" t="s">
-        <v>757</v>
-      </c>
       <c r="H216" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K216" t="s">
         <v>361</v>
@@ -7006,19 +9309,19 @@
         <v>75</v>
       </c>
       <c r="D217" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E217" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F217" t="s">
+        <v>757</v>
+      </c>
+      <c r="G217" t="s">
         <v>758</v>
       </c>
-      <c r="G217" t="s">
-        <v>759</v>
-      </c>
       <c r="H217" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K217" t="s">
         <v>362</v>
@@ -7035,19 +9338,19 @@
         <v>75</v>
       </c>
       <c r="D218" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E218" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F218" t="s">
+        <v>757</v>
+      </c>
+      <c r="G218" t="s">
         <v>758</v>
       </c>
-      <c r="G218" t="s">
-        <v>759</v>
-      </c>
       <c r="H218" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K218" t="s">
         <v>362</v>
@@ -7064,19 +9367,19 @@
         <v>75</v>
       </c>
       <c r="D219" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E219" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F219" t="s">
+        <v>757</v>
+      </c>
+      <c r="G219" t="s">
         <v>758</v>
       </c>
-      <c r="G219" t="s">
-        <v>759</v>
-      </c>
       <c r="H219" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K219" t="s">
         <v>362</v>
@@ -7093,16 +9396,16 @@
         <v>50</v>
       </c>
       <c r="E220" t="s">
+        <v>759</v>
+      </c>
+      <c r="F220" t="s">
         <v>760</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>761</v>
       </c>
-      <c r="G220" t="s">
-        <v>762</v>
-      </c>
       <c r="H220" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K220" t="s">
         <v>363</v>
@@ -7119,16 +9422,16 @@
         <v>50</v>
       </c>
       <c r="E221" t="s">
+        <v>759</v>
+      </c>
+      <c r="F221" t="s">
         <v>760</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>761</v>
       </c>
-      <c r="G221" t="s">
-        <v>762</v>
-      </c>
       <c r="H221" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K221" t="s">
         <v>363</v>
@@ -7145,16 +9448,16 @@
         <v>50</v>
       </c>
       <c r="E222" t="s">
+        <v>759</v>
+      </c>
+      <c r="F222" t="s">
         <v>760</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>761</v>
       </c>
-      <c r="G222" t="s">
-        <v>762</v>
-      </c>
       <c r="H222" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K222" t="s">
         <v>363</v>
@@ -7171,16 +9474,16 @@
         <v>50</v>
       </c>
       <c r="E223" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F223" t="s">
+        <v>762</v>
+      </c>
+      <c r="G223" t="s">
         <v>763</v>
       </c>
-      <c r="G223" t="s">
-        <v>764</v>
-      </c>
       <c r="H223" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K223" t="s">
         <v>363</v>
@@ -7197,16 +9500,16 @@
         <v>50</v>
       </c>
       <c r="E224" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F224" t="s">
+        <v>762</v>
+      </c>
+      <c r="G224" t="s">
         <v>763</v>
       </c>
-      <c r="G224" t="s">
-        <v>764</v>
-      </c>
       <c r="H224" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K224" t="s">
         <v>363</v>
@@ -7223,16 +9526,16 @@
         <v>50</v>
       </c>
       <c r="E225" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F225" t="s">
+        <v>762</v>
+      </c>
+      <c r="G225" t="s">
         <v>763</v>
       </c>
-      <c r="G225" t="s">
-        <v>764</v>
-      </c>
       <c r="H225" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K225" t="s">
         <v>363</v>
@@ -7249,19 +9552,19 @@
         <v>32</v>
       </c>
       <c r="D226" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E226" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F226" t="s">
+        <v>764</v>
+      </c>
+      <c r="G226" t="s">
         <v>765</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>766</v>
-      </c>
-      <c r="H226" t="s">
-        <v>767</v>
       </c>
       <c r="K226" t="s">
         <v>257</v>
@@ -7278,19 +9581,19 @@
         <v>32</v>
       </c>
       <c r="D227" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E227" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F227" t="s">
+        <v>764</v>
+      </c>
+      <c r="G227" t="s">
         <v>765</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>766</v>
-      </c>
-      <c r="H227" t="s">
-        <v>767</v>
       </c>
       <c r="K227" t="s">
         <v>257</v>
@@ -7307,19 +9610,19 @@
         <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E228" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F228" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G228" t="s">
+        <v>765</v>
+      </c>
+      <c r="H228" t="s">
         <v>766</v>
-      </c>
-      <c r="H228" t="s">
-        <v>767</v>
       </c>
       <c r="K228" t="s">
         <v>257</v>
@@ -7336,19 +9639,19 @@
         <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E229" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F229" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G229" t="s">
+        <v>765</v>
+      </c>
+      <c r="H229" t="s">
         <v>766</v>
-      </c>
-      <c r="H229" t="s">
-        <v>767</v>
       </c>
       <c r="K229" t="s">
         <v>257</v>
@@ -7365,16 +9668,16 @@
         <v>65</v>
       </c>
       <c r="D230" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E230" t="s">
+        <v>768</v>
+      </c>
+      <c r="F230" t="s">
         <v>769</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>770</v>
-      </c>
-      <c r="G230" t="s">
-        <v>771</v>
       </c>
       <c r="K230" t="s">
         <v>524</v>
@@ -7391,16 +9694,16 @@
         <v>65</v>
       </c>
       <c r="D231" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E231" t="s">
+        <v>768</v>
+      </c>
+      <c r="F231" t="s">
         <v>769</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>770</v>
-      </c>
-      <c r="G231" t="s">
-        <v>771</v>
       </c>
       <c r="K231" t="s">
         <v>524</v>
@@ -7417,16 +9720,16 @@
         <v>65</v>
       </c>
       <c r="D232" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E232" t="s">
+        <v>768</v>
+      </c>
+      <c r="F232" t="s">
         <v>769</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>770</v>
-      </c>
-      <c r="G232" t="s">
-        <v>771</v>
       </c>
       <c r="K232" t="s">
         <v>524</v>
@@ -7443,16 +9746,16 @@
         <v>65</v>
       </c>
       <c r="D233" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E233" t="s">
+        <v>768</v>
+      </c>
+      <c r="F233" t="s">
         <v>769</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>770</v>
-      </c>
-      <c r="G233" t="s">
-        <v>771</v>
       </c>
       <c r="K233" t="s">
         <v>524</v>
@@ -7469,16 +9772,16 @@
         <v>65</v>
       </c>
       <c r="D234" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E234" t="s">
+        <v>768</v>
+      </c>
+      <c r="F234" t="s">
         <v>769</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>770</v>
-      </c>
-      <c r="G234" t="s">
-        <v>771</v>
       </c>
       <c r="K234" t="s">
         <v>524</v>
@@ -7495,16 +9798,16 @@
         <v>65</v>
       </c>
       <c r="D235" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E235" t="s">
+        <v>768</v>
+      </c>
+      <c r="F235" t="s">
         <v>769</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>770</v>
-      </c>
-      <c r="G235" t="s">
-        <v>771</v>
       </c>
       <c r="K235" t="s">
         <v>524</v>
@@ -7521,16 +9824,16 @@
         <v>65</v>
       </c>
       <c r="D236" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E236" t="s">
+        <v>768</v>
+      </c>
+      <c r="F236" t="s">
         <v>769</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>770</v>
-      </c>
-      <c r="G236" t="s">
-        <v>771</v>
       </c>
       <c r="K236" t="s">
         <v>524</v>
@@ -7547,16 +9850,16 @@
         <v>65</v>
       </c>
       <c r="D237" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E237" t="s">
+        <v>768</v>
+      </c>
+      <c r="F237" t="s">
         <v>769</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>770</v>
-      </c>
-      <c r="G237" t="s">
-        <v>771</v>
       </c>
       <c r="K237" t="s">
         <v>524</v>
@@ -7570,16 +9873,16 @@
         <v>525</v>
       </c>
       <c r="C238" t="s">
+        <v>771</v>
+      </c>
+      <c r="D238" t="s">
+        <v>740</v>
+      </c>
+      <c r="E238" t="s">
+        <v>741</v>
+      </c>
+      <c r="F238" t="s">
         <v>772</v>
-      </c>
-      <c r="D238" t="s">
-        <v>741</v>
-      </c>
-      <c r="E238" t="s">
-        <v>742</v>
-      </c>
-      <c r="F238" t="s">
-        <v>773</v>
       </c>
       <c r="K238" t="s">
         <v>364</v>
@@ -7593,16 +9896,16 @@
         <v>526</v>
       </c>
       <c r="C239" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D239" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E239" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F239" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K239" t="s">
         <v>365</v>
@@ -7616,16 +9919,16 @@
         <v>526</v>
       </c>
       <c r="C240" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D240" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E240" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F240" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K240" t="s">
         <v>365</v>
@@ -7639,16 +9942,16 @@
         <v>527</v>
       </c>
       <c r="C241" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D241" t="s">
+        <v>740</v>
+      </c>
+      <c r="E241" t="s">
         <v>741</v>
       </c>
-      <c r="E241" t="s">
-        <v>742</v>
-      </c>
       <c r="F241" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K241" t="s">
         <v>366</v>
@@ -7662,16 +9965,16 @@
         <v>527</v>
       </c>
       <c r="C242" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D242" t="s">
+        <v>740</v>
+      </c>
+      <c r="E242" t="s">
         <v>741</v>
       </c>
-      <c r="E242" t="s">
-        <v>742</v>
-      </c>
       <c r="F242" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K242" t="s">
         <v>366</v>
@@ -7685,16 +9988,16 @@
         <v>527</v>
       </c>
       <c r="C243" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D243" t="s">
+        <v>740</v>
+      </c>
+      <c r="E243" t="s">
         <v>741</v>
       </c>
-      <c r="E243" t="s">
-        <v>742</v>
-      </c>
       <c r="F243" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K243" t="s">
         <v>366</v>
@@ -8195,7 +10498,7 @@
         <v>65</v>
       </c>
       <c r="D288" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -8218,7 +10521,7 @@
         <v>65</v>
       </c>
       <c r="D289" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -8241,7 +10544,7 @@
         <v>65</v>
       </c>
       <c r="D290" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -8264,7 +10567,7 @@
         <v>46</v>
       </c>
       <c r="D291" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G291">
         <v>4</v>
@@ -8284,7 +10587,7 @@
         <v>32</v>
       </c>
       <c r="D292" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -8307,7 +10610,7 @@
         <v>32</v>
       </c>
       <c r="D293" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -8330,7 +10633,7 @@
         <v>32</v>
       </c>
       <c r="D294" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -8353,7 +10656,7 @@
         <v>32</v>
       </c>
       <c r="D295" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -8376,7 +10679,7 @@
         <v>32</v>
       </c>
       <c r="D296" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G296">
         <v>7</v>
@@ -8399,7 +10702,7 @@
         <v>32</v>
       </c>
       <c r="D297" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G297">
         <v>7</v>
@@ -8422,7 +10725,7 @@
         <v>32</v>
       </c>
       <c r="D298" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G298">
         <v>7</v>
@@ -8445,7 +10748,7 @@
         <v>32</v>
       </c>
       <c r="D299" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G299">
         <v>7</v>
@@ -8468,7 +10771,7 @@
         <v>62</v>
       </c>
       <c r="D300" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G300">
         <v>5</v>
@@ -8491,7 +10794,7 @@
         <v>62</v>
       </c>
       <c r="D301" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G301">
         <v>7</v>
@@ -8514,7 +10817,7 @@
         <v>45</v>
       </c>
       <c r="D302" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G302">
         <v>5</v>
@@ -8537,7 +10840,7 @@
         <v>45</v>
       </c>
       <c r="D303" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G303">
         <v>7</v>
@@ -8560,7 +10863,7 @@
         <v>59</v>
       </c>
       <c r="D304" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G304">
         <v>6</v>
@@ -8583,7 +10886,7 @@
         <v>59</v>
       </c>
       <c r="D305" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G305">
         <v>8</v>
@@ -8606,7 +10909,7 @@
         <v>31</v>
       </c>
       <c r="D306" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G306">
         <v>4</v>
@@ -8629,7 +10932,7 @@
         <v>31</v>
       </c>
       <c r="D307" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G307">
         <v>6</v>
@@ -8652,7 +10955,7 @@
         <v>33</v>
       </c>
       <c r="D308" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G308">
         <v>6</v>
@@ -8675,7 +10978,7 @@
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G309">
         <v>10</v>
@@ -8698,7 +11001,7 @@
         <v>39</v>
       </c>
       <c r="D310" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G310">
         <v>2</v>
@@ -8721,7 +11024,7 @@
         <v>39</v>
       </c>
       <c r="D311" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G311">
         <v>5</v>
@@ -8744,7 +11047,7 @@
         <v>75</v>
       </c>
       <c r="D312" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G312">
         <v>10</v>
@@ -8767,7 +11070,7 @@
         <v>75</v>
       </c>
       <c r="D313" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G313">
         <v>10</v>
@@ -8790,10 +11093,10 @@
         <v>28</v>
       </c>
       <c r="D314" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I314" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J314" t="s">
         <v>704</v>
@@ -8810,10 +11113,10 @@
         <v>27</v>
       </c>
       <c r="D315" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I315" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J315" t="s">
         <v>704</v>
@@ -8830,10 +11133,10 @@
         <v>33</v>
       </c>
       <c r="D316" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I316" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J316" t="s">
         <v>704</v>
@@ -8855,7 +11158,7 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B318" t="s">
         <v>635</v>
@@ -8869,7 +11172,7 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B319" t="s">
         <v>636</v>
@@ -8883,7 +11186,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B320" t="s">
         <v>637</v>
@@ -8906,7 +11209,7 @@
         <v>40</v>
       </c>
       <c r="D321" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J321" t="s">
         <v>711</v>
@@ -8926,7 +11229,7 @@
         <v>40</v>
       </c>
       <c r="D322" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J322" t="s">
         <v>711</v>
@@ -8946,7 +11249,7 @@
         <v>40</v>
       </c>
       <c r="D323" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J323" t="s">
         <v>712</v>
@@ -8966,7 +11269,7 @@
         <v>40</v>
       </c>
       <c r="D324" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J324" t="s">
         <v>712</v>
@@ -8986,7 +11289,7 @@
         <v>40</v>
       </c>
       <c r="D325" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J325" t="s">
         <v>712</v>
@@ -9264,7 +11567,7 @@
     </row>
     <row r="347" spans="1:11">
       <c r="A347" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B347" t="s">
         <v>686</v>
@@ -9278,7 +11581,7 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B348" t="s">
         <v>686</v>

--- a/COVID-CT-MetaInfo.xlsx
+++ b/COVID-CT-MetaInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSD\ct-covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkooy/research/machine_learning_for_healthcare/COVID-CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EFFF3-8356-44F7-9F07-6638AD9D3BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1AA2F-0C3B-304C-B55E-4884E188FE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positive_captions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="973">
   <si>
     <t>2020.03.01.20029769-p21-73_1%1.png</t>
   </si>
@@ -2796,9 +2796,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>no history of hepatitis, tuberculosis or diabetes.</t>
   </si>
   <si>
@@ -2841,9 +2838,6 @@
     <t>Consolidation stage: Ground glass shadow expanding and consolidation in bilateral lung</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Shenzhen, China</t>
   </si>
   <si>
@@ -2875,9 +2869,6 @@
   </si>
   <si>
     <t>unilateral or bilateral ground glass opacity，bilateral multiple lobular and subsegmental areas of consolidation</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>2nd day of the course of disease</t>
@@ -4197,20 +4188,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="44.77734375" customWidth="1"/>
-    <col min="11" max="11" width="161.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.83203125" customWidth="1"/>
+    <col min="11" max="11" width="161.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4248,7 +4241,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="88.8" customHeight="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="88.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -4259,19 +4252,19 @@
         <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>789</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>851</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -4279,7 +4272,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="55.2">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="64">
       <c r="A3" s="5" t="s">
         <v>221</v>
       </c>
@@ -4290,19 +4283,19 @@
         <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>789</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>850</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -4310,9 +4303,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="55.2">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="64">
       <c r="A4" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>376</v>
@@ -4321,19 +4314,19 @@
         <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>789</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>850</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4341,7 +4334,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="55.2">
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="64">
       <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
@@ -4352,19 +4345,19 @@
         <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>789</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>850</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -4372,7 +4365,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A6" s="5" t="s">
         <v>212</v>
       </c>
@@ -4383,17 +4376,17 @@
         <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>855</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>856</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -4401,7 +4394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="55.8">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A7" s="5" t="s">
         <v>227</v>
       </c>
@@ -4412,17 +4405,17 @@
         <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -4430,7 +4423,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A8" s="5" t="s">
         <v>243</v>
       </c>
@@ -4441,17 +4434,17 @@
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -4459,7 +4452,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
@@ -4470,17 +4463,17 @@
         <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4488,7 +4481,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A10" s="5" t="s">
         <v>218</v>
       </c>
@@ -4499,17 +4492,17 @@
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>859</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>860</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4517,7 +4510,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A11" s="5" t="s">
         <v>219</v>
       </c>
@@ -4528,17 +4521,17 @@
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>859</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>860</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -4546,7 +4539,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A12" s="5" t="s">
         <v>183</v>
       </c>
@@ -4557,17 +4550,17 @@
         <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>859</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>860</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4575,7 +4568,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A13" s="5" t="s">
         <v>184</v>
       </c>
@@ -4586,17 +4579,17 @@
         <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>859</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>860</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -4604,7 +4597,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="55.8">
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A14" s="5" t="s">
         <v>250</v>
       </c>
@@ -4615,17 +4608,17 @@
         <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -4633,7 +4626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="55.8">
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A15" s="5" t="s">
         <v>234</v>
       </c>
@@ -4644,17 +4637,17 @@
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4662,7 +4655,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="42">
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A16" s="5" t="s">
         <v>204</v>
       </c>
@@ -4673,17 +4666,17 @@
         <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -4691,7 +4684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="42">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A17" s="5" t="s">
         <v>193</v>
       </c>
@@ -4702,17 +4695,17 @@
         <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -4720,7 +4713,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="42">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A18" s="5" t="s">
         <v>179</v>
       </c>
@@ -4731,17 +4724,17 @@
         <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -4749,7 +4742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="42">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A19" s="5" t="s">
         <v>190</v>
       </c>
@@ -4760,17 +4753,17 @@
         <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -4778,7 +4771,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -4789,17 +4782,17 @@
         <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -4807,7 +4800,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="28.2">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="17">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -4818,17 +4811,17 @@
         <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -4836,7 +4829,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="83.4">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="80">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -4847,17 +4840,17 @@
         <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>865</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -4865,7 +4858,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="96.6">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="96">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -4876,15 +4869,15 @@
         <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -4892,7 +4885,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="97.2">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="112">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -4903,17 +4896,17 @@
         <v>36</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -4932,15 +4925,15 @@
         <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4948,7 +4941,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="37.950000000000003" customHeight="1">
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
@@ -4959,15 +4952,15 @@
         <v>45</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4975,7 +4968,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="37.950000000000003" customHeight="1">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>168</v>
       </c>
@@ -4986,15 +4979,15 @@
         <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5013,15 +5006,15 @@
         <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5029,7 +5022,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="25.05" customHeight="1">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>210</v>
       </c>
@@ -5039,12 +5032,12 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5052,7 +5045,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A30" s="5" t="s">
         <v>228</v>
       </c>
@@ -5062,12 +5055,12 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5085,12 +5078,12 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -5098,7 +5091,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="43.05" customHeight="1">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="43" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -5109,17 +5102,17 @@
         <v>36</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5127,7 +5120,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -5138,17 +5131,17 @@
         <v>36</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -5156,7 +5149,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="48">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -5167,17 +5160,17 @@
         <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5185,7 +5178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
@@ -5196,17 +5189,17 @@
         <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5214,7 +5207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" ht="52.95" customHeight="1">
+    <row r="36" spans="1:11" s="6" customFormat="1" ht="53" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -5225,17 +5218,17 @@
         <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5243,7 +5236,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" ht="55.95" customHeight="1">
+    <row r="37" spans="1:11" s="6" customFormat="1" ht="56" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
@@ -5253,12 +5246,12 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5266,7 +5259,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" ht="151.80000000000001">
+    <row r="38" spans="1:11" s="6" customFormat="1" ht="160">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -5276,12 +5269,12 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5289,7 +5282,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="151.80000000000001">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="160">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -5299,12 +5292,12 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -5312,7 +5305,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="76.05" customHeight="1">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="76" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -5322,12 +5315,12 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5335,7 +5328,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="27.6">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="32">
       <c r="A41" s="5" t="s">
         <v>240</v>
       </c>
@@ -5346,15 +5339,15 @@
         <v>63</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5362,7 +5355,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A42" s="5" t="s">
         <v>246</v>
       </c>
@@ -5373,15 +5366,15 @@
         <v>63</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5389,7 +5382,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
@@ -5400,15 +5393,15 @@
         <v>63</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -5416,7 +5409,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="16">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
@@ -5427,15 +5420,15 @@
         <v>76</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -5443,7 +5436,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="16">
       <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
@@ -5454,15 +5447,15 @@
         <v>76</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5470,7 +5463,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="16">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -5481,15 +5474,15 @@
         <v>76</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5497,7 +5490,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="16">
       <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
@@ -5508,15 +5501,15 @@
         <v>72</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5524,7 +5517,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="16">
       <c r="A48" s="5" t="s">
         <v>41</v>
       </c>
@@ -5535,15 +5528,15 @@
         <v>72</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -5551,7 +5544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="16">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -5562,15 +5555,15 @@
         <v>72</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5578,7 +5571,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="52.05" customHeight="1">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="52" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>33</v>
       </c>
@@ -5589,15 +5582,15 @@
         <v>60</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5616,15 +5609,15 @@
         <v>60</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5632,7 +5625,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="43.95" customHeight="1">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="44" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -5643,15 +5636,15 @@
         <v>64</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5659,7 +5652,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="46.05" customHeight="1">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="46" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
@@ -5670,15 +5663,15 @@
         <v>64</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -5686,7 +5679,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="41.4">
+    <row r="54" spans="1:11" s="11" customFormat="1" ht="32">
       <c r="A54" s="5" t="s">
         <v>173</v>
       </c>
@@ -5697,17 +5690,17 @@
         <v>39</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -5715,7 +5708,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A55" s="5" t="s">
         <v>156</v>
       </c>
@@ -5726,17 +5719,17 @@
         <v>39</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -5744,7 +5737,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A56" s="5" t="s">
         <v>135</v>
       </c>
@@ -5755,17 +5748,17 @@
         <v>39</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5773,7 +5766,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A57" s="5" t="s">
         <v>150</v>
       </c>
@@ -5784,17 +5777,17 @@
         <v>39</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -5802,7 +5795,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A58" s="5" t="s">
         <v>111</v>
       </c>
@@ -5813,17 +5806,17 @@
         <v>39</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -5831,7 +5824,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="41.4">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="32">
       <c r="A59" s="5" t="s">
         <v>122</v>
       </c>
@@ -5842,17 +5835,17 @@
         <v>39</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -5860,7 +5853,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
@@ -5871,15 +5864,15 @@
         <v>44</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>863</v>
+        <v>740</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="13" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -5887,7 +5880,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -5898,10 +5891,10 @@
         <v>37</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5914,7 +5907,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -5925,10 +5918,10 @@
         <v>65</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5941,7 +5934,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
@@ -5952,15 +5945,15 @@
         <v>44</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="13" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -5968,7 +5961,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="64" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
@@ -5978,12 +5971,12 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -5991,7 +5984,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="27.6">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="32">
       <c r="A65" s="5" t="s">
         <v>164</v>
       </c>
@@ -6001,12 +5994,12 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -6014,7 +6007,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="41.4">
+    <row r="66" spans="1:11" ht="32">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -6025,16 +6018,16 @@
         <v>789</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J66" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K66" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="41.4">
+    <row r="67" spans="1:11" ht="32">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -6045,16 +6038,16 @@
         <v>789</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K67" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="41.4">
+    <row r="68" spans="1:11" ht="32">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -6065,16 +6058,16 @@
         <v>789</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K68" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="41.4">
+    <row r="69" spans="1:11" ht="32">
       <c r="A69" t="s">
         <v>224</v>
       </c>
@@ -6085,16 +6078,16 @@
         <v>789</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K69" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="27.6">
+    <row r="70" spans="1:11" ht="32">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -6105,16 +6098,16 @@
         <v>789</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="27.6">
+    <row r="71" spans="1:11" ht="32">
       <c r="A71" t="s">
         <v>236</v>
       </c>
@@ -6125,16 +6118,16 @@
         <v>789</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K71" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="27.6">
+    <row r="72" spans="1:11" ht="32">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -6145,16 +6138,16 @@
         <v>789</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="27.6">
+    <row r="73" spans="1:11" ht="32">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -6165,16 +6158,16 @@
         <v>789</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K73" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="27.6">
+    <row r="74" spans="1:11" ht="32">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -6185,16 +6178,16 @@
         <v>789</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K74" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="27.6">
+    <row r="75" spans="1:11" ht="32">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -6205,16 +6198,16 @@
         <v>789</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K75" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="27.6">
+    <row r="76" spans="1:11" ht="32">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -6225,16 +6218,16 @@
         <v>789</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K76" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="27.6">
+    <row r="77" spans="1:11" ht="32">
       <c r="A77" t="s">
         <v>130</v>
       </c>
@@ -6245,16 +6238,16 @@
         <v>789</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K77" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="55.2">
+    <row r="78" spans="1:11" ht="64">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -6265,16 +6258,16 @@
         <v>789</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="55.2">
+    <row r="79" spans="1:11" ht="64">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6285,16 +6278,16 @@
         <v>789</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="27.6">
+    <row r="80" spans="1:11" ht="32">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -6305,16 +6298,16 @@
         <v>789</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K80" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="27.6">
+    <row r="81" spans="1:11" ht="32">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -6325,16 +6318,16 @@
         <v>789</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K81" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="27.6">
+    <row r="82" spans="1:11" ht="32">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -6345,19 +6338,19 @@
         <v>789</v>
       </c>
       <c r="H82" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I82" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="55.2">
+    <row r="83" spans="1:11" ht="64">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -6368,19 +6361,19 @@
         <v>789</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="I83" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K83" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="27.6">
+    <row r="84" spans="1:11" ht="32">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -6391,19 +6384,19 @@
         <v>789</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I84" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K84" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="41.4">
+    <row r="85" spans="1:11" ht="48">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -6414,19 +6407,19 @@
         <v>789</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I85" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K85" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="27.6">
+    <row r="86" spans="1:11" ht="32">
       <c r="A86" t="s">
         <v>235</v>
       </c>
@@ -6437,13 +6430,13 @@
         <v>789</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K86" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="27.6">
+    <row r="87" spans="1:11" ht="32">
       <c r="A87" t="s">
         <v>251</v>
       </c>
@@ -6454,19 +6447,19 @@
         <v>789</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K87" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="55.2">
+    <row r="88" spans="1:11" ht="64">
       <c r="A88" t="s">
         <v>226</v>
       </c>
@@ -6477,19 +6470,19 @@
         <v>789</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="27.6">
+    <row r="89" spans="1:11" ht="32">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -6500,19 +6493,19 @@
         <v>789</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K89" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="41.4">
+    <row r="90" spans="1:11" ht="48">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -6523,19 +6516,19 @@
         <v>789</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K90" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="27.6">
+    <row r="91" spans="1:11" ht="32">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -6546,13 +6539,13 @@
         <v>789</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K91" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="27.6">
+    <row r="92" spans="1:11" ht="16">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -6560,19 +6553,19 @@
         <v>431</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G92" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J92" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="K92" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="27.6">
+    <row r="93" spans="1:11" ht="16">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -6580,13 +6573,13 @@
         <v>432</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G93" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="K93" t="s">
         <v>290</v>
@@ -6600,10 +6593,10 @@
         <v>433</v>
       </c>
       <c r="H94" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J94" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K94" t="s">
         <v>291</v>
@@ -6617,10 +6610,10 @@
         <v>434</v>
       </c>
       <c r="H95" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K95" t="s">
         <v>291</v>
@@ -6634,10 +6627,10 @@
         <v>435</v>
       </c>
       <c r="H96" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K96" t="s">
         <v>291</v>
@@ -6651,16 +6644,16 @@
         <v>436</v>
       </c>
       <c r="H97" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K97" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="27.6">
+    <row r="98" spans="1:11" ht="32">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -6671,19 +6664,19 @@
         <v>789</v>
       </c>
       <c r="G98" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H98" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K98" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="41.4">
+    <row r="99" spans="1:11" ht="48">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -6694,19 +6687,19 @@
         <v>789</v>
       </c>
       <c r="G99" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K99" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="41.4">
+    <row r="100" spans="1:11" ht="48">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -6717,19 +6710,19 @@
         <v>789</v>
       </c>
       <c r="G100" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K100" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="27.6">
+    <row r="101" spans="1:11" ht="32">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -6740,19 +6733,19 @@
         <v>789</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K101" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="41.4">
+    <row r="102" spans="1:11" ht="48">
       <c r="A102" t="s">
         <v>65</v>
       </c>
@@ -6763,19 +6756,19 @@
         <v>789</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K102" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="41.4">
+    <row r="103" spans="1:11" ht="48">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -6786,19 +6779,19 @@
         <v>789</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K103" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="27.6">
+    <row r="104" spans="1:11" ht="16">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -6806,19 +6799,19 @@
         <v>438</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G104" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J104" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K104" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="27.6">
+    <row r="105" spans="1:11" ht="16">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -6826,19 +6819,19 @@
         <v>438</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G105" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K105" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="27.6">
+    <row r="106" spans="1:11" ht="16">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -6846,19 +6839,19 @@
         <v>438</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G106" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="27.6">
+    <row r="107" spans="1:11" ht="16">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -6866,19 +6859,19 @@
         <v>438</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G107" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K107" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="27.6">
+    <row r="108" spans="1:11" ht="16">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -6886,19 +6879,19 @@
         <v>438</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G108" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K108" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="41.4">
+    <row r="109" spans="1:11" ht="48">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -6906,19 +6899,19 @@
         <v>439</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J109" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K109" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" ht="16">
       <c r="A110" t="s">
         <v>175</v>
       </c>
@@ -6926,19 +6919,19 @@
         <v>440</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H110" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K110" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" ht="16">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6946,16 +6939,16 @@
         <v>441</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J111" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K111" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" ht="16">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6963,16 +6956,16 @@
         <v>442</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K112" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" ht="16">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -6983,22 +6976,22 @@
         <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E113" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="H113" t="s">
         <v>945</v>
       </c>
-      <c r="H113" t="s">
-        <v>948</v>
-      </c>
       <c r="J113" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K113" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" ht="16">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -7006,16 +6999,16 @@
         <v>444</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K114" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" ht="16">
       <c r="A115" t="s">
         <v>72</v>
       </c>
@@ -7023,16 +7016,16 @@
         <v>445</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K115" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" ht="16">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -7040,16 +7033,16 @@
         <v>446</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K116" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" ht="16">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -7057,16 +7050,16 @@
         <v>447</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K117" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" ht="16">
       <c r="A118" t="s">
         <v>76</v>
       </c>
@@ -7074,10 +7067,10 @@
         <v>448</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K118" t="s">
         <v>301</v>
@@ -7091,13 +7084,13 @@
         <v>449</v>
       </c>
       <c r="E119" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H119" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J119" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K119" t="s">
         <v>302</v>
@@ -7111,13 +7104,13 @@
         <v>450</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H120" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K120" t="s">
         <v>303</v>
@@ -7131,19 +7124,19 @@
         <v>451</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H121" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K121" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="27.6">
+    <row r="122" spans="1:11" ht="32">
       <c r="A122" t="s">
         <v>185</v>
       </c>
@@ -7154,22 +7147,22 @@
         <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E122" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J122" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K122" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="27.6">
+    <row r="123" spans="1:11" ht="32">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -7180,22 +7173,22 @@
         <v>57</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K123" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="27.6">
+    <row r="124" spans="1:11" ht="32">
       <c r="A124" t="s">
         <v>225</v>
       </c>
@@ -7206,16 +7199,16 @@
         <v>76</v>
       </c>
       <c r="D124" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K124" t="s">
         <v>306</v>
@@ -7232,16 +7225,16 @@
         <v>57</v>
       </c>
       <c r="D125" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H125" t="s">
         <v>955</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="H125" t="s">
-        <v>958</v>
-      </c>
       <c r="J125" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K125" t="s">
         <v>307</v>
@@ -7258,22 +7251,22 @@
         <v>57</v>
       </c>
       <c r="D126" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H126" t="s">
         <v>955</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="H126" t="s">
-        <v>958</v>
-      </c>
       <c r="J126" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K126" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" ht="16">
       <c r="A127" t="s">
         <v>191</v>
       </c>
@@ -7284,19 +7277,19 @@
         <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J127" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K127" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" ht="16">
       <c r="A128" t="s">
         <v>176</v>
       </c>
@@ -7307,22 +7300,22 @@
         <v>57</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G128" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K128" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" ht="16">
       <c r="A129" t="s">
         <v>192</v>
       </c>
@@ -7333,22 +7326,22 @@
         <v>57</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K129" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" ht="16">
       <c r="A130" t="s">
         <v>206</v>
       </c>
@@ -7359,19 +7352,19 @@
         <v>37</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K130" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" ht="16">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -7382,22 +7375,22 @@
         <v>37</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K131" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" ht="16">
       <c r="A132" t="s">
         <v>253</v>
       </c>
@@ -7408,22 +7401,22 @@
         <v>37</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K132" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="41.4">
+    <row r="133" spans="1:11" ht="32">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -7431,19 +7424,19 @@
         <v>457</v>
       </c>
       <c r="E133" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J133" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K133" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="41.4">
+    <row r="134" spans="1:11" ht="48">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -7451,19 +7444,19 @@
         <v>458</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="41.4">
+    <row r="135" spans="1:11" ht="32">
       <c r="A135" t="s">
         <v>52</v>
       </c>
@@ -7471,19 +7464,19 @@
         <v>459</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K135" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="41.4">
+    <row r="136" spans="1:11" ht="48">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -7491,19 +7484,19 @@
         <v>460</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K136" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="69">
+    <row r="137" spans="1:11" ht="64">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -7511,19 +7504,19 @@
         <v>461</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K137" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="69">
+    <row r="138" spans="1:11" ht="80">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -7531,19 +7524,19 @@
         <v>462</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K138" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="55.2">
+    <row r="139" spans="1:11" ht="48">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -7551,19 +7544,19 @@
         <v>463</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K139" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="55.2">
+    <row r="140" spans="1:11" ht="64">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -7571,19 +7564,19 @@
         <v>464</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K140" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="27.6">
+    <row r="141" spans="1:11" ht="32">
       <c r="A141" t="s">
         <v>216</v>
       </c>
@@ -7591,13 +7584,13 @@
         <v>465</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K141" t="s">
         <v>322</v>
@@ -8884,7 +8877,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="55.2">
+    <row r="202" spans="1:11" ht="64">
       <c r="A202" t="s">
         <v>155</v>
       </c>
@@ -8942,7 +8935,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="69">
+    <row r="204" spans="1:11" ht="80">
       <c r="A204" t="s">
         <v>151</v>
       </c>
